--- a/英语词库/magoosh1000.xlsx
+++ b/英语词库/magoosh1000.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5'!$A$2:$F$408</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445">
   <si>
     <t>记忆进度</t>
   </si>
@@ -44,6 +44,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿伯犯错很</t>
     </r>
     <r>
@@ -81,6 +88,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>酸别人的钱</t>
     </r>
     <r>
@@ -150,6 +164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>显示器打广告来</t>
     </r>
     <r>
@@ -244,6 +265,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是</t>
     </r>
     <r>
@@ -321,6 +349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>丰富、充足的例子</t>
     </r>
     <r>
@@ -3638,6 +3673,9 @@
     <t>presentiment</t>
   </si>
   <si>
+    <t>预感</t>
+  </si>
+  <si>
     <t>noun: a feeling of evil to come</t>
   </si>
   <si>
@@ -3703,6 +3741,21 @@
     <t>pugnacious</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好斗的，好战的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: eager to fight or argue; verbally combative</t>
   </si>
   <si>
@@ -3822,6 +3875,21 @@
     <t>recrudesce</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复发，再起；再发作</t>
+    </r>
+  </si>
+  <si>
     <t>verb: to break out or happen again</t>
   </si>
   <si>
@@ -3832,6 +3900,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -3887,6 +3962,9 @@
     <t>register</t>
   </si>
   <si>
+    <t>注册</t>
+  </si>
+  <si>
     <t>verb: to put your name or other information in a list for something 
 verb: to identify and show on a tool for measuring</t>
   </si>
@@ -3896,6 +3974,9 @@
   </si>
   <si>
     <t>relegate</t>
+  </si>
+  <si>
+    <t>委派、降级</t>
   </si>
   <si>
     <t>verb: assign to a lower position</t>
@@ -4696,12 +4777,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4738,12 +4819,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -4751,112 +4826,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4880,7 +4850,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4902,13 +4970,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4920,13 +5000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4938,13 +5018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4956,61 +5030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5028,7 +5048,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5040,49 +5138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5096,17 +5164,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5129,8 +5200,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5150,11 +5221,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5162,17 +5254,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5187,172 +5270,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5377,10 +5445,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5730,15 +5795,15 @@
   <sheetPr/>
   <dimension ref="A1:F408"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="B372" sqref="B372"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.4083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.4083333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="123.916666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.0583333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.425" style="1" customWidth="1"/>
     <col min="5" max="5" width="55.1416666666667" customWidth="1"/>
     <col min="6" max="6" width="117.708333333333" customWidth="1"/>
@@ -5750,7 +5815,7 @@
       </c>
       <c r="B1" s="2">
         <f>SUM(B3:B500)/406/10</f>
-        <v>0.0573891625615764</v>
+        <v>0.0997536945812808</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5907,7 +5972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="44.25" spans="1:6">
+    <row r="10" ht="15.75" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -5927,7 +5992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="31.5" spans="1:6">
+    <row r="11" ht="30" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -5947,7 +6012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:6">
+    <row r="12" ht="15.75" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -6007,7 +6072,9 @@
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>63</v>
@@ -6095,7 +6162,9 @@
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
         <v>83</v>
@@ -6111,7 +6180,9 @@
       <c r="A21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
         <v>75</v>
@@ -6127,7 +6198,9 @@
       <c r="A22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
         <v>89</v>
@@ -6143,7 +6216,9 @@
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
         <v>93</v>
@@ -6159,7 +6234,9 @@
       <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
         <v>97</v>
@@ -6193,7 +6270,9 @@
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="s">
         <v>105</v>
@@ -6209,7 +6288,9 @@
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="3" t="s">
         <v>109</v>
@@ -6225,7 +6306,9 @@
       <c r="A28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>113</v>
@@ -6241,7 +6324,9 @@
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="3" t="s">
         <v>117</v>
@@ -6257,7 +6342,9 @@
       <c r="A30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="3" t="s">
         <v>121</v>
@@ -6273,7 +6360,9 @@
       <c r="A31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
         <v>125</v>
@@ -6307,7 +6396,9 @@
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
         <v>133</v>
@@ -6323,7 +6414,9 @@
       <c r="A34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
         <v>137</v>
@@ -6339,7 +6432,9 @@
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
         <v>141</v>
@@ -6355,7 +6450,9 @@
       <c r="A36" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="3" t="s">
         <v>145</v>
@@ -6389,7 +6486,9 @@
       <c r="A38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3" t="s">
         <v>153</v>
@@ -6405,7 +6504,9 @@
       <c r="A39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
         <v>157</v>
@@ -6421,7 +6522,9 @@
       <c r="A40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
         <v>161</v>
@@ -6437,7 +6540,9 @@
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3" t="s">
         <v>165</v>
@@ -6471,7 +6576,9 @@
       <c r="A43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
         <v>173</v>
@@ -6505,7 +6612,9 @@
       <c r="A45" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3" t="s">
         <v>181</v>
@@ -6521,7 +6630,9 @@
       <c r="A46" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="3" t="s">
         <v>185</v>
@@ -6537,7 +6648,9 @@
       <c r="A47" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3" t="s">
         <v>189</v>
@@ -6571,7 +6684,9 @@
       <c r="A49" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3" t="s">
         <v>197</v>
@@ -6605,7 +6720,9 @@
       <c r="A51" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="3" t="s">
         <v>18</v>
@@ -6621,7 +6738,9 @@
       <c r="A52" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3" t="s">
         <v>208</v>
@@ -6637,7 +6756,9 @@
       <c r="A53" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3" t="s">
         <v>212</v>
@@ -6653,7 +6774,9 @@
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="3" t="s">
         <v>216</v>
@@ -6687,7 +6810,9 @@
       <c r="A56" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="4">
+        <v>6</v>
+      </c>
       <c r="C56" s="4"/>
       <c r="D56" s="3" t="s">
         <v>224</v>
@@ -6703,7 +6828,9 @@
       <c r="A57" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="3" t="s">
         <v>228</v>
@@ -6719,7 +6846,9 @@
       <c r="A58" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="3" t="s">
         <v>232</v>
@@ -6735,7 +6864,9 @@
       <c r="A59" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="3" t="s">
         <v>236</v>
@@ -6751,7 +6882,9 @@
       <c r="A60" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="4">
+        <v>10</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="3" t="s">
         <v>240</v>
@@ -6767,7 +6900,9 @@
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="4"/>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="3" t="s">
         <v>244</v>
@@ -6783,7 +6918,9 @@
       <c r="A62" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="4"/>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="3" t="s">
         <v>248</v>
@@ -6799,7 +6936,9 @@
       <c r="A63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="4"/>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
       <c r="C63" s="4"/>
       <c r="D63" s="3" t="s">
         <v>252</v>
@@ -6815,7 +6954,9 @@
       <c r="A64" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="4">
+        <v>5</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="3" t="s">
         <v>256</v>
@@ -6831,7 +6972,9 @@
       <c r="A65" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B65" s="4"/>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
       <c r="C65" s="4"/>
       <c r="D65" s="3" t="s">
         <v>260</v>
@@ -6847,7 +6990,9 @@
       <c r="A66" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="4">
+        <v>8</v>
+      </c>
       <c r="C66" s="4"/>
       <c r="D66" s="3" t="s">
         <v>264</v>
@@ -6863,7 +7008,9 @@
       <c r="A67" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B67" s="4"/>
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3" t="s">
         <v>268</v>
@@ -6879,7 +7026,9 @@
       <c r="A68" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="3" t="s">
         <v>272</v>
@@ -6895,7 +7044,9 @@
       <c r="A69" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B69" s="4"/>
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
       <c r="C69" s="4"/>
       <c r="D69" s="3" t="s">
         <v>276</v>
@@ -6911,7 +7062,9 @@
       <c r="A70" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B70" s="4"/>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3" t="s">
         <v>280</v>
@@ -6927,7 +7080,9 @@
       <c r="A71" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="3" t="s">
         <v>284</v>
@@ -6943,7 +7098,9 @@
       <c r="A72" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="3" t="s">
         <v>288</v>
@@ -6959,7 +7116,9 @@
       <c r="A73" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B73" s="4"/>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="3" t="s">
         <v>292</v>
@@ -6975,7 +7134,9 @@
       <c r="A74" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="4"/>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
       <c r="C74" s="4"/>
       <c r="D74" s="3" t="s">
         <v>296</v>
@@ -6991,7 +7152,9 @@
       <c r="A75" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="4"/>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
       <c r="C75" s="4"/>
       <c r="D75" s="3" t="s">
         <v>300</v>
@@ -7007,7 +7170,9 @@
       <c r="A76" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="4"/>
+      <c r="B76" s="4">
+        <v>9</v>
+      </c>
       <c r="C76" s="4"/>
       <c r="D76" s="3" t="s">
         <v>304</v>
@@ -7023,7 +7188,9 @@
       <c r="A77" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
       <c r="C77" s="4"/>
       <c r="D77" s="3" t="s">
         <v>308</v>
@@ -7039,7 +7206,9 @@
       <c r="A78" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="4"/>
+      <c r="B78" s="4">
+        <v>5</v>
+      </c>
       <c r="C78" s="4"/>
       <c r="D78" s="3" t="s">
         <v>312</v>
@@ -7055,7 +7224,9 @@
       <c r="A79" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="3" t="s">
         <v>316</v>
@@ -7089,7 +7260,9 @@
       <c r="A81" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B81" s="4"/>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
       <c r="C81" s="4"/>
       <c r="D81" s="3" t="s">
         <v>324</v>
@@ -7105,7 +7278,9 @@
       <c r="A82" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B82" s="4"/>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
       <c r="C82" s="4"/>
       <c r="D82" s="3" t="s">
         <v>328</v>
@@ -7121,7 +7296,9 @@
       <c r="A83" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B83" s="4"/>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
       <c r="C83" s="4"/>
       <c r="D83" s="3" t="s">
         <v>332</v>
@@ -7137,7 +7314,9 @@
       <c r="A84" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="4"/>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
       <c r="C84" s="4"/>
       <c r="D84" s="3" t="s">
         <v>336</v>
@@ -7153,7 +7332,9 @@
       <c r="A85" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B85" s="4"/>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
       <c r="C85" s="4"/>
       <c r="D85" s="3" t="s">
         <v>340</v>
@@ -7169,7 +7350,9 @@
       <c r="A86" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
       <c r="C86" s="4"/>
       <c r="D86" s="3" t="s">
         <v>344</v>
@@ -7185,7 +7368,9 @@
       <c r="A87" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="4"/>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
       <c r="C87" s="4"/>
       <c r="D87" s="3" t="s">
         <v>348</v>
@@ -7201,7 +7386,9 @@
       <c r="A88" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="4"/>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
       <c r="C88" s="4"/>
       <c r="D88" s="3" t="s">
         <v>352</v>
@@ -7235,7 +7422,9 @@
       <c r="A90" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B90" s="4"/>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
       <c r="C90" s="4"/>
       <c r="D90" s="3" t="s">
         <v>264</v>
@@ -7251,7 +7440,9 @@
       <c r="A91" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B91" s="4"/>
+      <c r="B91" s="4">
+        <v>3</v>
+      </c>
       <c r="C91" s="4"/>
       <c r="D91" s="3" t="s">
         <v>363</v>
@@ -7267,7 +7458,9 @@
       <c r="A92" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
       <c r="C92" s="4"/>
       <c r="D92" s="3" t="s">
         <v>367</v>
@@ -7283,7 +7476,9 @@
       <c r="A93" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B93" s="4"/>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
       <c r="C93" s="4"/>
       <c r="D93" s="3" t="s">
         <v>371</v>
@@ -7299,7 +7494,9 @@
       <c r="A94" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B94" s="4"/>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
       <c r="C94" s="4"/>
       <c r="D94" s="3" t="s">
         <v>375</v>
@@ -7315,7 +7512,9 @@
       <c r="A95" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B95" s="4"/>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
       <c r="C95" s="4"/>
       <c r="D95" s="3" t="s">
         <v>379</v>
@@ -7331,7 +7530,9 @@
       <c r="A96" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
       <c r="C96" s="4"/>
       <c r="D96" s="3" t="s">
         <v>383</v>
@@ -7347,7 +7548,9 @@
       <c r="A97" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B97" s="4"/>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
       <c r="C97" s="4"/>
       <c r="D97" s="3" t="s">
         <v>387</v>
@@ -7363,7 +7566,9 @@
       <c r="A98" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B98" s="4"/>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
       <c r="C98" s="4"/>
       <c r="D98" s="3" t="s">
         <v>391</v>
@@ -7379,7 +7584,9 @@
       <c r="A99" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B99" s="4"/>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
       <c r="C99" s="4"/>
       <c r="D99" s="3" t="s">
         <v>395</v>
@@ -7395,7 +7602,9 @@
       <c r="A100" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B100" s="4"/>
+      <c r="B100" s="4">
+        <v>10</v>
+      </c>
       <c r="C100" s="4"/>
       <c r="D100" s="3" t="s">
         <v>399</v>
@@ -7411,7 +7620,9 @@
       <c r="A101" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
       <c r="C101" s="4"/>
       <c r="D101" s="3" t="s">
         <v>403</v>
@@ -7427,7 +7638,9 @@
       <c r="A102" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
       <c r="C102" s="4"/>
       <c r="D102" s="3" t="s">
         <v>407</v>
@@ -7443,7 +7656,9 @@
       <c r="A103" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B103" s="4"/>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
       <c r="C103" s="4"/>
       <c r="D103" s="3" t="s">
         <v>411</v>
@@ -7459,7 +7674,9 @@
       <c r="A104" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B104" s="4"/>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
       <c r="C104" s="4"/>
       <c r="D104" s="3" t="s">
         <v>415</v>
@@ -7475,7 +7692,9 @@
       <c r="A105" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
       <c r="C105" s="4"/>
       <c r="D105" s="3" t="s">
         <v>419</v>
@@ -7491,7 +7710,9 @@
       <c r="A106" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B106" s="4"/>
+      <c r="B106" s="4">
+        <v>4</v>
+      </c>
       <c r="C106" s="4"/>
       <c r="D106" s="3" t="s">
         <v>423</v>
@@ -7507,7 +7728,9 @@
       <c r="A107" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B107" s="4"/>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
       <c r="C107" s="4"/>
       <c r="D107" s="3" t="s">
         <v>427</v>
@@ -7523,7 +7746,9 @@
       <c r="A108" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B108" s="4"/>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
       <c r="C108" s="4"/>
       <c r="D108" s="3" t="s">
         <v>431</v>
@@ -7539,7 +7764,9 @@
       <c r="A109" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B109" s="4"/>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
       <c r="C109" s="4"/>
       <c r="D109" s="3" t="s">
         <v>435</v>
@@ -7555,7 +7782,9 @@
       <c r="A110" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4">
+        <v>2</v>
+      </c>
       <c r="C110" s="4"/>
       <c r="D110" s="3" t="s">
         <v>371</v>
@@ -7571,7 +7800,9 @@
       <c r="A111" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B111" s="4"/>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
       <c r="C111" s="4"/>
       <c r="D111" s="3" t="s">
         <v>442</v>
@@ -7587,7 +7818,9 @@
       <c r="A112" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B112" s="4"/>
+      <c r="B112" s="4">
+        <v>9</v>
+      </c>
       <c r="C112" s="4"/>
       <c r="D112" s="3" t="s">
         <v>446</v>
@@ -7603,7 +7836,9 @@
       <c r="A113" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B113" s="4"/>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
       <c r="C113" s="4"/>
       <c r="D113" s="3" t="s">
         <v>450</v>
@@ -7619,7 +7854,9 @@
       <c r="A114" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B114" s="4"/>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
       <c r="C114" s="4"/>
       <c r="D114" s="3" t="s">
         <v>454</v>
@@ -7635,7 +7872,9 @@
       <c r="A115" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B115" s="4"/>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
       <c r="C115" s="4"/>
       <c r="D115" s="3" t="s">
         <v>458</v>
@@ -7651,7 +7890,9 @@
       <c r="A116" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B116" s="4"/>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
       <c r="C116" s="4"/>
       <c r="D116" s="3" t="s">
         <v>462</v>
@@ -7667,7 +7908,9 @@
       <c r="A117" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B117" s="4"/>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
       <c r="C117" s="4"/>
       <c r="D117" s="3" t="s">
         <v>466</v>
@@ -7683,7 +7926,9 @@
       <c r="A118" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B118" s="4"/>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
       <c r="C118" s="4"/>
       <c r="D118" s="3" t="s">
         <v>470</v>
@@ -7699,7 +7944,9 @@
       <c r="A119" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B119" s="4"/>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
       <c r="C119" s="4"/>
       <c r="D119" s="3" t="s">
         <v>220</v>
@@ -7715,7 +7962,9 @@
       <c r="A120" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B120" s="4"/>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
       <c r="C120" s="4"/>
       <c r="D120" s="3" t="s">
         <v>477</v>
@@ -7731,7 +7980,9 @@
       <c r="A121" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B121" s="4"/>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
       <c r="C121" s="4"/>
       <c r="D121" s="3" t="s">
         <v>481</v>
@@ -7747,7 +7998,9 @@
       <c r="A122" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4">
+        <v>3</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="3" t="s">
         <v>485</v>
@@ -7763,7 +8016,9 @@
       <c r="A123" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B123" s="4"/>
+      <c r="B123" s="4">
+        <v>2</v>
+      </c>
       <c r="C123" s="4"/>
       <c r="D123" s="3" t="s">
         <v>489</v>
@@ -7779,7 +8034,9 @@
       <c r="A124" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B124" s="4"/>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
       <c r="C124" s="4"/>
       <c r="D124" s="3" t="s">
         <v>493</v>
@@ -7795,7 +8052,9 @@
       <c r="A125" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B125" s="4"/>
+      <c r="B125" s="4">
+        <v>2</v>
+      </c>
       <c r="C125" s="4"/>
       <c r="D125" s="3" t="s">
         <v>497</v>
@@ -7811,7 +8070,9 @@
       <c r="A126" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B126" s="4"/>
+      <c r="B126" s="4">
+        <v>1</v>
+      </c>
       <c r="C126" s="4"/>
       <c r="D126" s="3" t="s">
         <v>501</v>
@@ -7827,7 +8088,9 @@
       <c r="A127" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B127" s="4"/>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
       <c r="C127" s="4"/>
       <c r="D127" s="3" t="s">
         <v>505</v>
@@ -7843,7 +8106,9 @@
       <c r="A128" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B128" s="4"/>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
       <c r="C128" s="4"/>
       <c r="D128" s="3" t="s">
         <v>509</v>
@@ -7859,7 +8124,9 @@
       <c r="A129" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B129" s="4"/>
+      <c r="B129" s="4">
+        <v>1</v>
+      </c>
       <c r="C129" s="4"/>
       <c r="D129" s="3" t="s">
         <v>513</v>
@@ -7875,7 +8142,9 @@
       <c r="A130" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B130" s="4"/>
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
       <c r="C130" s="4"/>
       <c r="D130" s="3" t="s">
         <v>517</v>
@@ -7891,7 +8160,9 @@
       <c r="A131" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B131" s="4"/>
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
       <c r="C131" s="4"/>
       <c r="D131" s="3" t="s">
         <v>521</v>
@@ -7907,7 +8178,9 @@
       <c r="A132" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B132" s="4"/>
+      <c r="B132" s="4">
+        <v>1</v>
+      </c>
       <c r="C132" s="4"/>
       <c r="D132" s="3" t="s">
         <v>525</v>
@@ -7923,7 +8196,9 @@
       <c r="A133" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B133" s="4"/>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
       <c r="C133" s="4"/>
       <c r="D133" s="3" t="s">
         <v>529</v>
@@ -7939,7 +8214,9 @@
       <c r="A134" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B134" s="4"/>
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
       <c r="C134" s="4"/>
       <c r="D134" s="3" t="s">
         <v>533</v>
@@ -7955,7 +8232,9 @@
       <c r="A135" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B135" s="4"/>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
       <c r="C135" s="4"/>
       <c r="D135" s="3" t="s">
         <v>173</v>
@@ -7971,7 +8250,9 @@
       <c r="A136" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B136" s="4"/>
+      <c r="B136" s="4">
+        <v>2</v>
+      </c>
       <c r="C136" s="4"/>
       <c r="D136" s="3" t="s">
         <v>540</v>
@@ -7987,7 +8268,9 @@
       <c r="A137" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B137" s="4"/>
+      <c r="B137" s="4">
+        <v>0</v>
+      </c>
       <c r="C137" s="4"/>
       <c r="D137" s="3" t="s">
         <v>544</v>
@@ -8003,7 +8286,9 @@
       <c r="A138" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
       <c r="C138" s="4"/>
       <c r="D138" s="3" t="s">
         <v>548</v>
@@ -8019,7 +8304,9 @@
       <c r="A139" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B139" s="4"/>
+      <c r="B139" s="4">
+        <v>2</v>
+      </c>
       <c r="C139" s="4"/>
       <c r="D139" s="3" t="s">
         <v>552</v>
@@ -8035,7 +8322,9 @@
       <c r="A140" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B140" s="4"/>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
       <c r="C140" s="4"/>
       <c r="D140" s="3" t="s">
         <v>556</v>
@@ -10143,7 +10432,9 @@
       <c r="A286" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="B286" s="4"/>
+      <c r="B286" s="4">
+        <v>5</v>
+      </c>
       <c r="C286" s="4"/>
       <c r="D286" s="3"/>
       <c r="E286" s="6" t="s">
@@ -10157,7 +10448,9 @@
       <c r="A287" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B287" s="4"/>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
       <c r="C287" s="4"/>
       <c r="D287" s="3"/>
       <c r="E287" s="6" t="s">
@@ -10171,7 +10464,9 @@
       <c r="A288" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="B288" s="4"/>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
       <c r="C288" s="4"/>
       <c r="D288" s="3"/>
       <c r="E288" s="6" t="s">
@@ -10185,7 +10480,9 @@
       <c r="A289" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B289" s="4"/>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
       <c r="C289" s="4"/>
       <c r="D289" s="3"/>
       <c r="E289" s="6" t="s">
@@ -10199,7 +10496,9 @@
       <c r="A290" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="B290" s="4"/>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
       <c r="C290" s="4"/>
       <c r="D290" s="3"/>
       <c r="E290" s="6" t="s">
@@ -10213,7 +10512,9 @@
       <c r="A291" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B291" s="4"/>
+      <c r="B291" s="4">
+        <v>8</v>
+      </c>
       <c r="C291" s="4"/>
       <c r="D291" s="3"/>
       <c r="E291" s="6" t="s">
@@ -10227,7 +10528,9 @@
       <c r="A292" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B292" s="4"/>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
       <c r="C292" s="4"/>
       <c r="D292" s="3"/>
       <c r="E292" s="6" t="s">
@@ -10241,7 +10544,9 @@
       <c r="A293" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="B293" s="4"/>
+      <c r="B293" s="4">
+        <v>0</v>
+      </c>
       <c r="C293" s="4"/>
       <c r="D293" s="3"/>
       <c r="E293" s="6" t="s">
@@ -10255,7 +10560,9 @@
       <c r="A294" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B294" s="4"/>
+      <c r="B294" s="4">
+        <v>5</v>
+      </c>
       <c r="C294" s="4"/>
       <c r="D294" s="3"/>
       <c r="E294" s="6" t="s">
@@ -10269,7 +10576,9 @@
       <c r="A295" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="B295" s="4"/>
+      <c r="B295" s="4">
+        <v>3</v>
+      </c>
       <c r="C295" s="4"/>
       <c r="D295" s="3"/>
       <c r="E295" s="6" t="s">
@@ -10283,7 +10592,9 @@
       <c r="A296" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="B296" s="4"/>
+      <c r="B296" s="4">
+        <v>0</v>
+      </c>
       <c r="C296" s="4"/>
       <c r="D296" s="3"/>
       <c r="E296" s="6" t="s">
@@ -10297,7 +10608,9 @@
       <c r="A297" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="B297" s="4"/>
+      <c r="B297" s="4">
+        <v>0</v>
+      </c>
       <c r="C297" s="4"/>
       <c r="D297" s="3"/>
       <c r="E297" s="6" t="s">
@@ -10311,7 +10624,9 @@
       <c r="A298" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="B298" s="4"/>
+      <c r="B298" s="4">
+        <v>5</v>
+      </c>
       <c r="C298" s="4"/>
       <c r="D298" s="3"/>
       <c r="E298" s="6" t="s">
@@ -10325,7 +10640,9 @@
       <c r="A299" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="B299" s="4"/>
+      <c r="B299" s="4">
+        <v>0</v>
+      </c>
       <c r="C299" s="4"/>
       <c r="D299" s="3"/>
       <c r="E299" s="6" t="s">
@@ -10339,7 +10656,9 @@
       <c r="A300" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B300" s="4"/>
+      <c r="B300" s="4">
+        <v>8</v>
+      </c>
       <c r="C300" s="4"/>
       <c r="D300" s="3"/>
       <c r="E300" s="6" t="s">
@@ -10353,7 +10672,9 @@
       <c r="A301" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B301" s="4"/>
+      <c r="B301" s="4">
+        <v>0</v>
+      </c>
       <c r="C301" s="4"/>
       <c r="D301" s="3"/>
       <c r="E301" s="6" t="s">
@@ -10367,7 +10688,9 @@
       <c r="A302" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B302" s="4"/>
+      <c r="B302" s="4">
+        <v>0</v>
+      </c>
       <c r="C302" s="4"/>
       <c r="D302" s="3"/>
       <c r="E302" s="6" t="s">
@@ -10381,7 +10704,9 @@
       <c r="A303" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B303" s="4"/>
+      <c r="B303" s="4">
+        <v>3</v>
+      </c>
       <c r="C303" s="4"/>
       <c r="D303" s="3"/>
       <c r="E303" s="6" t="s">
@@ -10395,7 +10720,9 @@
       <c r="A304" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B304" s="4"/>
+      <c r="B304" s="4">
+        <v>0</v>
+      </c>
       <c r="C304" s="4"/>
       <c r="D304" s="3"/>
       <c r="E304" s="6" t="s">
@@ -10409,7 +10736,9 @@
       <c r="A305" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="B305" s="4"/>
+      <c r="B305" s="4">
+        <v>0</v>
+      </c>
       <c r="C305" s="4"/>
       <c r="D305" s="3"/>
       <c r="E305" s="6" t="s">
@@ -10423,7 +10752,9 @@
       <c r="A306" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B306" s="4"/>
+      <c r="B306" s="4">
+        <v>0</v>
+      </c>
       <c r="C306" s="4"/>
       <c r="D306" s="3"/>
       <c r="E306" s="6" t="s">
@@ -10437,7 +10768,9 @@
       <c r="A307" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B307" s="4"/>
+      <c r="B307" s="4">
+        <v>6</v>
+      </c>
       <c r="C307" s="4"/>
       <c r="D307" s="3"/>
       <c r="E307" s="6" t="s">
@@ -10451,7 +10784,9 @@
       <c r="A308" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B308" s="4"/>
+      <c r="B308" s="4">
+        <v>2</v>
+      </c>
       <c r="C308" s="4"/>
       <c r="D308" s="3"/>
       <c r="E308" s="6" t="s">
@@ -10465,7 +10800,9 @@
       <c r="A309" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="B309" s="4"/>
+      <c r="B309" s="4">
+        <v>2</v>
+      </c>
       <c r="C309" s="4"/>
       <c r="D309" s="3"/>
       <c r="E309" s="6" t="s">
@@ -10479,7 +10816,9 @@
       <c r="A310" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B310" s="4"/>
+      <c r="B310" s="4">
+        <v>0</v>
+      </c>
       <c r="C310" s="4"/>
       <c r="D310" s="3"/>
       <c r="E310" s="6" t="s">
@@ -10493,7 +10832,9 @@
       <c r="A311" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="B311" s="4"/>
+      <c r="B311" s="4">
+        <v>5</v>
+      </c>
       <c r="C311" s="4"/>
       <c r="D311" s="3"/>
       <c r="E311" s="6" t="s">
@@ -10507,7 +10848,9 @@
       <c r="A312" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B312" s="4"/>
+      <c r="B312" s="4">
+        <v>0</v>
+      </c>
       <c r="C312" s="4"/>
       <c r="D312" s="3"/>
       <c r="E312" s="6" t="s">
@@ -10521,7 +10864,9 @@
       <c r="A313" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B313" s="4"/>
+      <c r="B313" s="4">
+        <v>0</v>
+      </c>
       <c r="C313" s="4"/>
       <c r="D313" s="3"/>
       <c r="E313" s="6" t="s">
@@ -10535,7 +10880,9 @@
       <c r="A314" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="B314" s="4"/>
+      <c r="B314" s="4">
+        <v>3</v>
+      </c>
       <c r="C314" s="4"/>
       <c r="D314" s="3"/>
       <c r="E314" s="6" t="s">
@@ -10549,7 +10896,9 @@
       <c r="A315" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B315" s="4"/>
+      <c r="B315" s="4">
+        <v>0</v>
+      </c>
       <c r="C315" s="4"/>
       <c r="D315" s="3"/>
       <c r="E315" s="6" t="s">
@@ -10563,7 +10912,9 @@
       <c r="A316" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B316" s="4"/>
+      <c r="B316" s="4">
+        <v>2</v>
+      </c>
       <c r="C316" s="4"/>
       <c r="D316" s="3"/>
       <c r="E316" s="6" t="s">
@@ -10577,7 +10928,9 @@
       <c r="A317" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B317" s="4"/>
+      <c r="B317" s="4">
+        <v>0</v>
+      </c>
       <c r="C317" s="4"/>
       <c r="D317" s="3"/>
       <c r="E317" s="6" t="s">
@@ -10591,7 +10944,9 @@
       <c r="A318" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="B318" s="4"/>
+      <c r="B318" s="4">
+        <v>0</v>
+      </c>
       <c r="C318" s="4"/>
       <c r="D318" s="3"/>
       <c r="E318" s="6" t="s">
@@ -10605,10 +10960,10 @@
       <c r="A319" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="B319" s="8">
+      <c r="B319" s="4">
         <v>1</v>
       </c>
-      <c r="C319" s="9" t="s">
+      <c r="C319" s="8" t="s">
         <v>1112</v>
       </c>
       <c r="D319" s="3"/>
@@ -10623,7 +10978,9 @@
       <c r="A320" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B320" s="4"/>
+      <c r="B320" s="4">
+        <v>0</v>
+      </c>
       <c r="C320" s="4"/>
       <c r="D320" s="3"/>
       <c r="E320" s="6" t="s">
@@ -10637,7 +10994,9 @@
       <c r="A321" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="B321" s="4"/>
+      <c r="B321" s="4">
+        <v>0</v>
+      </c>
       <c r="C321" s="4"/>
       <c r="D321" s="3"/>
       <c r="E321" s="6" t="s">
@@ -10667,145 +11026,169 @@
       <c r="A323" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="B323" s="4"/>
+      <c r="B323" s="4">
+        <v>3</v>
+      </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="3"/>
+      <c r="D323" s="9" t="s">
+        <v>1125</v>
+      </c>
       <c r="E323" s="6" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="324" ht="60" spans="1:6">
       <c r="A324" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B324" s="4"/>
+        <v>1128</v>
+      </c>
+      <c r="B324" s="4">
+        <v>3</v>
+      </c>
       <c r="C324" s="4"/>
       <c r="D324" s="3"/>
       <c r="E324" s="6" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F324" s="7" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="325" ht="15.75" spans="1:6">
       <c r="A325" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B325" s="4"/>
+        <v>1131</v>
+      </c>
+      <c r="B325" s="4">
+        <v>0</v>
+      </c>
       <c r="C325" s="4"/>
       <c r="D325" s="3"/>
       <c r="E325" s="6" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="326" ht="30" spans="1:6">
       <c r="A326" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B326" s="4"/>
+        <v>1134</v>
+      </c>
+      <c r="B326" s="4">
+        <v>0</v>
+      </c>
       <c r="C326" s="4"/>
       <c r="D326" s="3"/>
       <c r="E326" s="6" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="327" ht="30" spans="1:6">
       <c r="A327" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B327" s="4"/>
+        <v>1137</v>
+      </c>
+      <c r="B327" s="4">
+        <v>0</v>
+      </c>
       <c r="C327" s="4"/>
       <c r="D327" s="3"/>
       <c r="E327" s="6" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="328" ht="15.75" spans="1:6">
       <c r="A328" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B328" s="4"/>
+        <v>1140</v>
+      </c>
+      <c r="B328" s="4">
+        <v>3</v>
+      </c>
       <c r="C328" s="4"/>
       <c r="D328" s="3"/>
       <c r="E328" s="6" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="329" ht="15.75" spans="1:6">
       <c r="A329" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B329" s="4"/>
+        <v>1143</v>
+      </c>
+      <c r="B329" s="4">
+        <v>0</v>
+      </c>
       <c r="C329" s="4"/>
       <c r="D329" s="3"/>
       <c r="E329" s="6" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F329" s="6" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="330" ht="30" spans="1:6">
       <c r="A330" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B330" s="4"/>
+        <v>1146</v>
+      </c>
+      <c r="B330" s="4">
+        <v>0</v>
+      </c>
       <c r="C330" s="4"/>
-      <c r="D330" s="3"/>
+      <c r="D330" s="3" t="s">
+        <v>1147</v>
+      </c>
       <c r="E330" s="6" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="331" ht="15.75" spans="1:6">
       <c r="A331" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B331" s="4"/>
+        <v>1150</v>
+      </c>
+      <c r="B331" s="4">
+        <v>0</v>
+      </c>
       <c r="C331" s="4"/>
       <c r="D331" s="3"/>
       <c r="E331" s="6" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="332" ht="30" spans="1:6">
       <c r="A332" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B332" s="4"/>
+        <v>1153</v>
+      </c>
+      <c r="B332" s="4">
+        <v>0</v>
+      </c>
       <c r="C332" s="4"/>
       <c r="D332" s="3"/>
       <c r="E332" s="6" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="333" ht="15.75" spans="1:6">
       <c r="A333" s="3" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B333" s="4">
         <v>8</v>
@@ -10813,323 +11196,357 @@
       <c r="C333" s="4"/>
       <c r="D333" s="3"/>
       <c r="E333" s="6" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="334" ht="45" spans="1:6">
       <c r="A334" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B334" s="4"/>
+        <v>1159</v>
+      </c>
+      <c r="B334" s="4">
+        <v>0</v>
+      </c>
       <c r="C334" s="4"/>
       <c r="D334" s="3"/>
       <c r="E334" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F334" s="7" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="335" ht="30" spans="1:6">
       <c r="A335" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B335" s="4"/>
+        <v>1162</v>
+      </c>
+      <c r="B335" s="4">
+        <v>0</v>
+      </c>
       <c r="C335" s="4"/>
       <c r="D335" s="3"/>
       <c r="E335" s="6" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="336" ht="30" spans="1:6">
       <c r="A336" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B336" s="4"/>
+        <v>1165</v>
+      </c>
+      <c r="B336" s="4">
+        <v>0</v>
+      </c>
       <c r="C336" s="4"/>
       <c r="D336" s="3"/>
       <c r="E336" s="6" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="337" ht="15.75" spans="1:6">
       <c r="A337" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B337" s="4"/>
+        <v>1168</v>
+      </c>
+      <c r="B337" s="4">
+        <v>0</v>
+      </c>
       <c r="C337" s="4"/>
       <c r="D337" s="3"/>
       <c r="E337" s="6" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="338" ht="15.75" spans="1:6">
       <c r="A338" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B338" s="4"/>
+        <v>1171</v>
+      </c>
+      <c r="B338" s="4">
+        <v>3</v>
+      </c>
       <c r="C338" s="4"/>
       <c r="D338" s="3"/>
       <c r="E338" s="6" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F338" s="6" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="339" ht="15.75" spans="1:6">
       <c r="A339" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B339" s="4"/>
+        <v>1174</v>
+      </c>
+      <c r="B339" s="4">
+        <v>0</v>
+      </c>
       <c r="C339" s="4"/>
       <c r="D339" s="3"/>
       <c r="E339" s="6" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="F339" s="6" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:6">
       <c r="A340" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B340" s="4"/>
+        <v>1177</v>
+      </c>
+      <c r="B340" s="4">
+        <v>0</v>
+      </c>
       <c r="C340" s="4"/>
       <c r="D340" s="3"/>
       <c r="E340" s="6" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="341" ht="15.75" spans="1:6">
       <c r="A341" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B341" s="4"/>
+        <v>1180</v>
+      </c>
+      <c r="B341" s="4">
+        <v>0</v>
+      </c>
       <c r="C341" s="4"/>
       <c r="D341" s="3"/>
       <c r="E341" s="6" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="342" ht="15.75" spans="1:6">
       <c r="A342" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B342" s="4"/>
+        <v>1183</v>
+      </c>
+      <c r="B342" s="4">
+        <v>0</v>
+      </c>
       <c r="C342" s="4"/>
       <c r="D342" s="3"/>
       <c r="E342" s="6" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="343" ht="30" spans="1:6">
       <c r="A343" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B343" s="4"/>
+        <v>1186</v>
+      </c>
+      <c r="B343" s="4">
+        <v>0</v>
+      </c>
       <c r="C343" s="4"/>
-      <c r="D343" s="3"/>
+      <c r="D343" s="3" t="s">
+        <v>1187</v>
+      </c>
       <c r="E343" s="6" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="344" ht="63" spans="1:6">
       <c r="A344" s="3" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B344" s="4">
         <v>3</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="3" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="F344" s="6" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="345" ht="45" spans="1:6">
       <c r="A345" s="3" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="B345" s="4">
         <v>10</v>
       </c>
       <c r="C345" s="4"/>
-      <c r="D345" s="3"/>
+      <c r="D345" s="9" t="s">
+        <v>1195</v>
+      </c>
       <c r="E345" s="6" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="346" ht="15.75" spans="1:6">
       <c r="A346" s="3" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B346" s="4">
         <v>5</v>
       </c>
       <c r="C346" s="4"/>
-      <c r="D346" s="3"/>
+      <c r="D346" s="9" t="s">
+        <v>1199</v>
+      </c>
       <c r="E346" s="6" t="s">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="347" ht="30" spans="1:6">
       <c r="A347" s="3" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="B347" s="4">
         <v>10</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="3" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="348" ht="30" spans="1:6">
       <c r="A348" s="3" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B348" s="4"/>
+        <v>1206</v>
+      </c>
+      <c r="B348" s="4">
+        <v>0</v>
+      </c>
       <c r="C348" s="4"/>
       <c r="D348" s="3" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="349" ht="30" spans="1:6">
       <c r="A349" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B349" s="4"/>
+        <v>1210</v>
+      </c>
+      <c r="B349" s="4">
+        <v>0</v>
+      </c>
       <c r="C349" s="4"/>
       <c r="D349" s="3" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="350" ht="30" spans="1:6">
       <c r="A350" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B350" s="4"/>
+        <v>1214</v>
+      </c>
+      <c r="B350" s="4">
+        <v>0</v>
+      </c>
       <c r="C350" s="4"/>
       <c r="D350" s="3" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="351" ht="15.75" spans="1:6">
       <c r="A351" s="3" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B351" s="4">
         <v>8</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="3" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="352" ht="36" customHeight="1" spans="1:6">
       <c r="A352" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B352" s="4"/>
+        <v>1222</v>
+      </c>
+      <c r="B352" s="4">
+        <v>0</v>
+      </c>
       <c r="C352" s="4"/>
       <c r="D352" s="3" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="353" ht="30" spans="1:6">
       <c r="A353" s="3" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="B353" s="4">
         <v>3</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="3" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="354" ht="30" spans="1:6">
       <c r="A354" s="3" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="B354" s="4">
         <v>3</v>
@@ -11139,896 +11556,982 @@
         <v>470</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="355" ht="15.75" spans="1:6">
       <c r="A355" s="3" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="B355" s="4">
         <v>2</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="3" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>1230</v>
+        <v>1235</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="356" ht="29.25" spans="1:6">
       <c r="A356" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B356" s="4"/>
+        <v>1237</v>
+      </c>
+      <c r="B356" s="4">
+        <v>0</v>
+      </c>
       <c r="C356" s="4"/>
       <c r="D356" s="3" t="s">
-        <v>1233</v>
+        <v>1238</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>1235</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="357" ht="30" spans="1:6">
       <c r="A357" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B357" s="4"/>
+        <v>1241</v>
+      </c>
+      <c r="B357" s="4">
+        <v>0</v>
+      </c>
       <c r="C357" s="4"/>
       <c r="D357" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>1238</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="358" ht="31.5" spans="1:6">
       <c r="A358" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B358" s="4"/>
+        <v>1244</v>
+      </c>
+      <c r="B358" s="4">
+        <v>1</v>
+      </c>
       <c r="C358" s="4"/>
       <c r="D358" s="3" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="359" ht="36.75" customHeight="1" spans="1:6">
       <c r="A359" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B359" s="4"/>
+        <v>1248</v>
+      </c>
+      <c r="B359" s="4">
+        <v>0</v>
+      </c>
       <c r="C359" s="4"/>
       <c r="D359" s="3" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="360" ht="36" customHeight="1" spans="1:6">
       <c r="A360" s="3" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="B360" s="4">
         <v>5</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="3" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="361" ht="30" spans="1:6">
       <c r="A361" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B361" s="4"/>
+        <v>1256</v>
+      </c>
+      <c r="B361" s="4">
+        <v>0</v>
+      </c>
       <c r="C361" s="4"/>
       <c r="D361" s="3" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="362" ht="30" spans="1:6">
       <c r="A362" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B362" s="4"/>
+        <v>1260</v>
+      </c>
+      <c r="B362" s="4">
+        <v>0</v>
+      </c>
       <c r="C362" s="4"/>
       <c r="D362" s="3" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="363" ht="30" spans="1:6">
       <c r="A363" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B363" s="4"/>
+        <v>1264</v>
+      </c>
+      <c r="B363" s="4">
+        <v>0</v>
+      </c>
       <c r="C363" s="4"/>
       <c r="D363" s="3" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="364" ht="15.75" spans="1:6">
       <c r="A364" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B364" s="4"/>
+        <v>1268</v>
+      </c>
+      <c r="B364" s="4">
+        <v>0</v>
+      </c>
       <c r="C364" s="4"/>
       <c r="D364" s="3" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="365" ht="30" spans="1:6">
       <c r="A365" s="3" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="B365" s="4">
         <v>4</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="3" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="366" ht="45" spans="1:6">
       <c r="A366" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B366" s="4"/>
+        <v>1276</v>
+      </c>
+      <c r="B366" s="4">
+        <v>0</v>
+      </c>
       <c r="C366" s="4"/>
       <c r="D366" s="3" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="367" ht="30" spans="1:6">
       <c r="A367" s="3" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="B367" s="4">
         <v>3</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="3" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="368" ht="30" spans="1:6">
       <c r="A368" s="3" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="B368" s="4">
         <v>5</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="3" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="369" ht="40.5" customHeight="1" spans="1:6">
       <c r="A369" s="3" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B369" s="4"/>
+        <v>1288</v>
+      </c>
+      <c r="B369" s="4">
+        <v>0</v>
+      </c>
       <c r="C369" s="4"/>
       <c r="D369" s="3" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="370" ht="31.5" spans="1:6">
       <c r="A370" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B370" s="4"/>
+        <v>1292</v>
+      </c>
+      <c r="B370" s="4">
+        <v>0</v>
+      </c>
       <c r="C370" s="4"/>
       <c r="D370" s="3" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="371" ht="30" spans="1:6">
       <c r="A371" s="3" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B371" s="4"/>
+        <v>1296</v>
+      </c>
+      <c r="B371" s="4">
+        <v>0</v>
+      </c>
       <c r="C371" s="4"/>
       <c r="D371" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="372" ht="15.75" spans="1:6">
       <c r="A372" s="3" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B372" s="4"/>
+        <v>1299</v>
+      </c>
+      <c r="B372" s="4">
+        <v>0</v>
+      </c>
       <c r="C372" s="4"/>
       <c r="D372" s="3" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="373" ht="15.75" spans="1:6">
       <c r="A373" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B373" s="4"/>
+        <v>1303</v>
+      </c>
+      <c r="B373" s="4">
+        <v>1</v>
+      </c>
       <c r="C373" s="4"/>
       <c r="D373" s="3" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="374" ht="15.75" spans="1:6">
       <c r="A374" s="3" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="B374" s="4">
         <v>2</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="3" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="375" ht="30" spans="1:6">
       <c r="A375" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B375" s="4"/>
+        <v>1311</v>
+      </c>
+      <c r="B375" s="4">
+        <v>1</v>
+      </c>
       <c r="C375" s="4"/>
       <c r="D375" s="3" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="376" ht="45" spans="1:6">
       <c r="A376" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B376" s="4"/>
+        <v>1315</v>
+      </c>
+      <c r="B376" s="4">
+        <v>0</v>
+      </c>
       <c r="C376" s="4"/>
       <c r="D376" s="3" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="377" ht="15.75" spans="1:6">
       <c r="A377" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B377" s="4"/>
+        <v>1319</v>
+      </c>
+      <c r="B377" s="4">
+        <v>0</v>
+      </c>
       <c r="C377" s="4"/>
       <c r="D377" s="3" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="378" ht="31.5" spans="1:6">
       <c r="A378" s="3" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="B378" s="4">
         <v>1</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="3" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="379" ht="15.75" spans="1:6">
       <c r="A379" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B379" s="4"/>
+        <v>1327</v>
+      </c>
+      <c r="B379" s="4">
+        <v>0</v>
+      </c>
       <c r="C379" s="4"/>
       <c r="D379" s="3" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>1325</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="380" ht="15.75" spans="1:6">
       <c r="A380" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B380" s="4"/>
+        <v>1331</v>
+      </c>
+      <c r="B380" s="4">
+        <v>0</v>
+      </c>
       <c r="C380" s="4"/>
       <c r="D380" s="3" t="s">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="381" ht="15.75" spans="1:6">
       <c r="A381" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B381" s="4"/>
+        <v>1335</v>
+      </c>
+      <c r="B381" s="4">
+        <v>0</v>
+      </c>
       <c r="C381" s="4"/>
       <c r="D381" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="382" ht="15.75" spans="1:6">
       <c r="A382" s="3" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
       <c r="B382" s="4">
         <v>8</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="3" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="383" ht="21" customHeight="1" spans="1:6">
       <c r="A383" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B383" s="4"/>
+        <v>1342</v>
+      </c>
+      <c r="B383" s="4">
+        <v>0</v>
+      </c>
       <c r="C383" s="4"/>
       <c r="D383" s="3" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="384" ht="38.25" customHeight="1" spans="1:6">
       <c r="A384" s="3" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="B384" s="4">
         <v>5</v>
       </c>
       <c r="C384" s="4"/>
-      <c r="D384" s="10" t="s">
+      <c r="D384" s="9" t="s">
         <v>316</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="385" ht="38.25" customHeight="1" spans="1:6">
       <c r="A385" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B385" s="4"/>
+        <v>1349</v>
+      </c>
+      <c r="B385" s="4">
+        <v>0</v>
+      </c>
       <c r="C385" s="4"/>
       <c r="D385" s="3" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="386" ht="30" spans="1:6">
       <c r="A386" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B386" s="4"/>
+        <v>1353</v>
+      </c>
+      <c r="B386" s="4">
+        <v>0</v>
+      </c>
       <c r="C386" s="4"/>
       <c r="D386" s="3" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="387" ht="30" spans="1:6">
       <c r="A387" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B387" s="4"/>
+        <v>1357</v>
+      </c>
+      <c r="B387" s="4">
+        <v>0</v>
+      </c>
       <c r="C387" s="4"/>
       <c r="D387" s="3" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="388" ht="15.75" spans="1:6">
       <c r="A388" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B388" s="4"/>
+        <v>1361</v>
+      </c>
+      <c r="B388" s="4">
+        <v>0</v>
+      </c>
       <c r="C388" s="4"/>
       <c r="D388" s="3" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="389" ht="45" spans="1:6">
       <c r="A389" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B389" s="4"/>
+        <v>1365</v>
+      </c>
+      <c r="B389" s="4">
+        <v>0</v>
+      </c>
       <c r="C389" s="4"/>
       <c r="D389" s="3" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="390" ht="30" spans="1:6">
       <c r="A390" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B390" s="4"/>
+        <v>1369</v>
+      </c>
+      <c r="B390" s="4">
+        <v>0</v>
+      </c>
       <c r="C390" s="4"/>
       <c r="D390" s="3" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="391" ht="30" spans="1:6">
       <c r="A391" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B391" s="4"/>
+        <v>1373</v>
+      </c>
+      <c r="B391" s="4">
+        <v>0</v>
+      </c>
       <c r="C391" s="4"/>
       <c r="D391" s="3" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="392" ht="30" spans="1:6">
       <c r="A392" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B392" s="4"/>
+        <v>1377</v>
+      </c>
+      <c r="B392" s="4">
+        <v>0</v>
+      </c>
       <c r="C392" s="4"/>
       <c r="D392" s="3" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="F392" s="6" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="393" ht="30" spans="1:6">
       <c r="A393" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B393" s="4"/>
+        <v>1381</v>
+      </c>
+      <c r="B393" s="4">
+        <v>0</v>
+      </c>
       <c r="C393" s="4"/>
       <c r="D393" s="3" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="394" ht="30" spans="1:6">
       <c r="A394" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B394" s="4"/>
+        <v>1385</v>
+      </c>
+      <c r="B394" s="4">
+        <v>0</v>
+      </c>
       <c r="C394" s="4"/>
       <c r="D394" s="3" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="395" ht="31.5" spans="1:6">
       <c r="A395" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B395" s="4"/>
+        <v>1389</v>
+      </c>
+      <c r="B395" s="4">
+        <v>0</v>
+      </c>
       <c r="C395" s="4"/>
       <c r="D395" s="3" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="396" ht="30" spans="1:6">
       <c r="A396" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B396" s="4"/>
+        <v>1393</v>
+      </c>
+      <c r="B396" s="4">
+        <v>0</v>
+      </c>
       <c r="C396" s="4"/>
       <c r="D396" s="3" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="397" ht="31.5" spans="1:6">
       <c r="A397" s="3" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B397" s="4"/>
+        <v>1397</v>
+      </c>
+      <c r="B397" s="4">
+        <v>0</v>
+      </c>
       <c r="C397" s="4"/>
       <c r="D397" s="3" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="398" ht="31.5" spans="1:6">
       <c r="A398" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B398" s="4"/>
+        <v>1401</v>
+      </c>
+      <c r="B398" s="4">
+        <v>0</v>
+      </c>
       <c r="C398" s="4"/>
       <c r="D398" s="3" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="399" ht="38.25" customHeight="1" spans="1:6">
       <c r="A399" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B399" s="4"/>
+        <v>1405</v>
+      </c>
+      <c r="B399" s="4">
+        <v>0</v>
+      </c>
       <c r="C399" s="4"/>
       <c r="D399" s="3" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="400" ht="30" spans="1:6">
       <c r="A400" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B400" s="4"/>
+        <v>1409</v>
+      </c>
+      <c r="B400" s="4">
+        <v>0</v>
+      </c>
       <c r="C400" s="4"/>
       <c r="D400" s="3" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="401" ht="30" spans="1:6">
       <c r="A401" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B401" s="4"/>
+        <v>1413</v>
+      </c>
+      <c r="B401" s="4">
+        <v>0</v>
+      </c>
       <c r="C401" s="4"/>
       <c r="D401" s="3" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="402" ht="45.75" customHeight="1" spans="1:6">
       <c r="A402" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B402" s="4"/>
+        <v>1417</v>
+      </c>
+      <c r="B402" s="4">
+        <v>0</v>
+      </c>
       <c r="C402" s="4"/>
       <c r="D402" s="3" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="403" ht="30" spans="1:6">
       <c r="A403" s="3" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="B403" s="4">
         <v>10</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="3" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="404" ht="30" spans="1:6">
       <c r="A404" s="3" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="B404" s="4">
         <v>8</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="3" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="405" ht="30" spans="1:6">
       <c r="A405" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B405" s="4"/>
+        <v>1429</v>
+      </c>
+      <c r="B405" s="4">
+        <v>0</v>
+      </c>
       <c r="C405" s="4"/>
       <c r="D405" s="3" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="406" ht="15.75" spans="1:6">
       <c r="A406" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B406" s="4"/>
+        <v>1433</v>
+      </c>
+      <c r="B406" s="4">
+        <v>0</v>
+      </c>
       <c r="C406" s="4"/>
       <c r="D406" s="3" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="407" ht="30" spans="1:6">
       <c r="A407" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B407" s="4"/>
+        <v>1437</v>
+      </c>
+      <c r="B407" s="4">
+        <v>0</v>
+      </c>
       <c r="C407" s="4"/>
       <c r="D407" s="3" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="408" ht="37.5" customHeight="1" spans="1:6">
       <c r="A408" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B408" s="4"/>
+        <v>1441</v>
+      </c>
+      <c r="B408" s="4">
+        <v>0</v>
+      </c>
       <c r="C408" s="4"/>
       <c r="D408" s="3" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
     </row>
   </sheetData>

--- a/英语词库/magoosh1000.xlsx
+++ b/英语词库/magoosh1000.xlsx
@@ -10,14 +10,14 @@
     <sheet name="5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5'!$A$2:$F$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5'!$A$2:$F$404</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522">
   <si>
     <t>记忆进度</t>
   </si>
@@ -2338,6 +2338,21 @@
     <t>eradicate</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根除，根绝；消灭</t>
+    </r>
+  </si>
+  <si>
     <t>verb: to completely destroy</t>
   </si>
   <si>
@@ -2347,6 +2362,21 @@
     <t>err</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>犯错；做错；犯罪</t>
+    </r>
+  </si>
+  <si>
     <t>verb: to make an error</t>
   </si>
   <si>
@@ -2356,6 +2386,21 @@
     <t>ersatz</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代用的；人造的；假的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: not real or genuine; phony</t>
   </si>
   <si>
@@ -2365,6 +2410,21 @@
     <t>evenhanded</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公平的；公平无私的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: without partiality</t>
   </si>
   <si>
@@ -2374,6 +2434,21 @@
     <t>excruciating</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折磨人的；使苦恼的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: extremely painful</t>
   </si>
   <si>
@@ -2383,6 +2458,21 @@
     <t>exegesis</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注释，解释</t>
+    </r>
+  </si>
+  <si>
     <t>noun: critical explanation or analysis, especially of a text</t>
   </si>
   <si>
@@ -2392,6 +2482,21 @@
     <t>exemplar</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模范，榜样；标本</t>
+    </r>
+  </si>
+  <si>
     <t>noun: something to be imitated</t>
   </si>
   <si>
@@ -2399,6 +2504,21 @@
   </si>
   <si>
     <t>exemplify</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例证；例示</t>
+    </r>
   </si>
   <si>
     <t>verb: be characteristic of
@@ -2412,6 +2532,21 @@
     <t>exiguity</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微小；些许，稀少</t>
+    </r>
+  </si>
+  <si>
     <t>noun: the quality of being meager</t>
   </si>
   <si>
@@ -2421,6 +2556,21 @@
     <t>expound</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解释；详细说明</t>
+    </r>
+  </si>
+  <si>
     <t>verb: add details or explanation; clarify the meaning; state in depth</t>
   </si>
   <si>
@@ -2430,6 +2580,21 @@
     <t>expunge</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擦去；删掉</t>
+    </r>
+  </si>
+  <si>
     <t>verb: to eliminate completely</t>
   </si>
   <si>
@@ -2439,6 +2604,21 @@
     <t>extenuating</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情有可原的；使减轻的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: making less guilty or more forgivable</t>
   </si>
   <si>
@@ -2448,6 +2628,21 @@
     <t>factious</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好捣乱的；好搞派系的；源于派别的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: produced by, or characterized by internal dissension</t>
   </si>
   <si>
@@ -2466,6 +2661,9 @@
     <t>fell</t>
   </si>
   <si>
+    <t>adj. 凶猛的；毁灭性的</t>
+  </si>
+  <si>
     <t>adjective: terribly evil</t>
   </si>
   <si>
@@ -2554,6 +2752,9 @@
   </si>
   <si>
     <t>forlorn</t>
+  </si>
+  <si>
+    <t>adj. 被遗弃的；绝望的；孤独的</t>
   </si>
   <si>
     <t>adjective: marked by or showing hopelessness</t>
@@ -2594,6 +2795,21 @@
     <t>gambit</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话题；开始；以取得优势的开局棋法；开场白</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a maneuver or risk in a game or conversation, designed to secure an advantage</t>
   </si>
   <si>
@@ -2603,6 +2819,9 @@
     <t>gerrymander</t>
   </si>
   <si>
+    <t>vi. 不公正地划分选区；弄虚作假</t>
+  </si>
+  <si>
     <t>verb: to manipulate voting districts in order to favor a particular political party</t>
   </si>
   <si>
@@ -2628,6 +2847,9 @@
   </si>
   <si>
     <t>guileless</t>
+  </si>
+  <si>
+    <t>adj. 诚实的</t>
   </si>
   <si>
     <t>adjective: free of deceit</t>
@@ -3171,6 +3393,9 @@
     <t>maintain</t>
   </si>
   <si>
+    <t>vt. 维持；继续；维修；主张</t>
+  </si>
+  <si>
     <t>verb: to assert</t>
   </si>
   <si>
@@ -3272,6 +3497,21 @@
     <t>mendicant</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乞丐；</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a pauper who lives by begging</t>
   </si>
   <si>
@@ -3281,6 +3521,21 @@
     <t>mesmerize</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施催眠术；迷住；以魅力迫使</t>
+    </r>
+  </si>
+  <si>
     <t>verb: to spellbind or enthrall</t>
   </si>
   <si>
@@ -3290,6 +3545,21 @@
     <t>mettlesome</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勇敢的；精神饱满的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: filled with courage or valor</t>
   </si>
   <si>
@@ -3299,6 +3569,21 @@
     <t>misanthrope</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不愿与人来往者；厌恶人类的人</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a hater of mankind</t>
   </si>
   <si>
@@ -3317,6 +3602,21 @@
     <t>miser</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>守财奴；吝啬鬼；</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a person who doesn't like to spend money (because they are greedy)</t>
   </si>
   <si>
@@ -3326,6 +3626,21 @@
     <t>misogynist</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厌恶女人的人</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a person who dislikes women in particular</t>
   </si>
   <si>
@@ -3335,6 +3650,20 @@
     <t>moment</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF313131"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瞬间，时刻；重要，</t>
+    </r>
+  </si>
+  <si>
     <t>noun: significant and important value</t>
   </si>
   <si>
@@ -3344,6 +3673,21 @@
     <t>moot</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无实际意义的；未决议的；开放讨论的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: open to argument or debate; undecidable in a meaningless or irrelevant way</t>
   </si>
   <si>
@@ -3353,6 +3697,21 @@
     <t>morph</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难以察觉地改变</t>
+    </r>
+  </si>
+  <si>
     <t>verb: To undergo dramatic change in a seamless and barely noticeable fashion.</t>
   </si>
   <si>
@@ -3362,6 +3721,9 @@
     <t>mulct</t>
   </si>
   <si>
+    <t>vt. 抢夺，诈取；处以罚金</t>
+  </si>
+  <si>
     <t>verb: to defraud or swindle</t>
   </si>
   <si>
@@ -3371,6 +3733,9 @@
     <t>muted</t>
   </si>
   <si>
+    <t>adj. 柔和的；无言的；趋缓的</t>
+  </si>
+  <si>
     <t>adjective: softened, subdued</t>
   </si>
   <si>
@@ -3380,6 +3745,9 @@
     <t>negligible</t>
   </si>
   <si>
+    <t>adj. 微不足道的，可以忽略的</t>
+  </si>
+  <si>
     <t>adjective: so small as to be meaningless; insignificant</t>
   </si>
   <si>
@@ -3389,6 +3757,9 @@
     <t>nettlesome</t>
   </si>
   <si>
+    <t>adj. 令人激恼的；易怒的；烦人的</t>
+  </si>
+  <si>
     <t>adjective: causing irritation or annoyance</t>
   </si>
   <si>
@@ -3398,6 +3769,9 @@
     <t>nonplussed</t>
   </si>
   <si>
+    <t>v. 迷惑；为难</t>
+  </si>
+  <si>
     <t>verb: unsure how to act or respond</t>
   </si>
   <si>
@@ -3407,6 +3781,9 @@
     <t>objurgate</t>
   </si>
   <si>
+    <t>vt. 痛骂；训斥</t>
+  </si>
+  <si>
     <t>verb: express strong disapproval of</t>
   </si>
   <si>
@@ -3416,6 +3793,9 @@
     <t>obtain</t>
   </si>
   <si>
+    <t>vi. 获得；流行</t>
+  </si>
+  <si>
     <t>adjective: be valid, applicable, or true</t>
   </si>
   <si>
@@ -3425,6 +3805,9 @@
     <t>opulence</t>
   </si>
   <si>
+    <t>n. 富裕；丰富</t>
+  </si>
+  <si>
     <t>noun: wealth as evidenced by sumptuous living</t>
   </si>
   <si>
@@ -3434,6 +3817,21 @@
     <t>ornate</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>华丽的；装饰的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: marked by elaborate rhetoric and elaborated with decorative details</t>
   </si>
   <si>
@@ -3452,6 +3850,21 @@
     <t>palimpsest</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重写本</t>
+    </r>
+  </si>
+  <si>
     <t>noun: something that has been changed numerous times but on which traces of former iterations can still be seen</t>
   </si>
   <si>
@@ -3470,6 +3883,21 @@
     <t>parochial</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狭小的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: narrowly restricted in scope or outlook</t>
   </si>
   <si>
@@ -3479,6 +3907,21 @@
     <t>parvenu</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴发户，新贵</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a person who has suddenly become wealthy, but not socially accepted as part of a higher class</t>
   </si>
   <si>
@@ -3488,6 +3931,21 @@
     <t>pastoral</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师的；牧人的；田园生活的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: relating to the countryside in a pleasant sense</t>
   </si>
   <si>
@@ -3497,6 +3955,21 @@
     <t>pecuniary</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金钱的；应罚款的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: relating to or involving money</t>
   </si>
   <si>
@@ -3506,6 +3979,21 @@
     <t>pedantic</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迂腐的；学究式的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: marked by a narrow focus on or display of learning especially its trivial aspects</t>
   </si>
   <si>
@@ -3515,6 +4003,21 @@
     <t>peevish</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易怒的，暴躁的；带怒气的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: easily irritated or annoyed</t>
   </si>
   <si>
@@ -3522,6 +4025,21 @@
   </si>
   <si>
     <t>penurious</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吝啬的；缺乏的；贫困的</t>
+    </r>
   </si>
   <si>
     <t>adjective: lacking money; poor
@@ -3535,6 +4053,21 @@
     <t>perceive</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>察觉，感觉；理解；认知</t>
+    </r>
+  </si>
+  <si>
     <t>verb: to be aware of, to sense or feel</t>
   </si>
   <si>
@@ -3544,6 +4077,21 @@
     <t>percipient</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目光敏锐的；有洞察力的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: highly perceptive</t>
   </si>
   <si>
@@ -3553,6 +4101,21 @@
     <t>perennial</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多年生的；常年的；四季不断的；常在的；反复的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: lasting an indefinitely long time; eternal; everlasting</t>
   </si>
   <si>
@@ -3562,6 +4125,21 @@
     <t>perpetuate</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使不朽；保持</t>
+    </r>
+  </si>
+  <si>
     <t>verb: cause to continue</t>
   </si>
   <si>
@@ -3571,6 +4149,21 @@
     <t>phantasmagorical</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幻影似的；变幻无常的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: illusive; unreal</t>
   </si>
   <si>
@@ -3580,6 +4173,21 @@
     <t>picayune</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不值钱的；眼光狭小的；微不足道的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: trifling or petty (a person)</t>
   </si>
   <si>
@@ -3589,6 +4197,21 @@
     <t>pith</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精髓；核心；骨髓；</t>
+    </r>
+  </si>
+  <si>
     <t>noun: the most essential part of something</t>
   </si>
   <si>
@@ -3598,6 +4221,21 @@
     <t>plodding</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单调乏味的；沉重缓慢的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: (of movement) slow and laborious</t>
   </si>
   <si>
@@ -3607,6 +4245,21 @@
     <t>ploy</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>策略；活动</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a clever plan to turn a situation to one's advantage</t>
   </si>
   <si>
@@ -3616,6 +4269,21 @@
     <t>plucky</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有勇气的，大胆的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: marked by courage and determination</t>
   </si>
   <si>
@@ -3625,6 +4293,21 @@
     <t>poignant</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尖锐的；辛酸的；深刻的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: emotionally touching</t>
   </si>
   <si>
@@ -3634,7 +4317,7 @@
     <t>Pollyannaish</t>
   </si>
   <si>
-    <t>盲目乐观的</t>
+    <t>adj. 盲目乐观的</t>
   </si>
   <si>
     <t>adjective: extremely optimistic</t>
@@ -3646,6 +4329,21 @@
     <t>powwow</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仪式；巫师；医师</t>
+    </r>
+  </si>
+  <si>
     <t>noun: an informal meeting or discussion</t>
   </si>
   <si>
@@ -3655,6 +4353,21 @@
     <t>precocious</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早熟的；过早发育的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: characterized by or characteristic of exceptionally early development or maturity (especially in mental aptitude)</t>
   </si>
   <si>
@@ -3664,6 +4377,21 @@
     <t>preemptive</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先购买的；先发制人的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: done before someone else can do it</t>
   </si>
   <si>
@@ -3683,6 +4411,21 @@
   </si>
   <si>
     <t>presumption</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放肆，傲慢；推测</t>
+    </r>
   </si>
   <si>
     <t>noun: an assumption that is taken for granted
@@ -3696,6 +4439,21 @@
     <t>primacy</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首位；卓越；大主教的职位</t>
+    </r>
+  </si>
+  <si>
     <t>noun: the state of being first in importance</t>
   </si>
   <si>
@@ -3705,6 +4463,21 @@
     <t>profuse</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丰富的；很多的；慷慨的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: plentiful; pouring out in abundance</t>
   </si>
   <si>
@@ -3714,6 +4487,21 @@
     <t>prognostication</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测；预言；预兆</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a statement made about the future</t>
   </si>
   <si>
@@ -3723,6 +4511,21 @@
     <t>prolific</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多产的；丰富的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: intellectually productive</t>
   </si>
   <si>
@@ -3732,6 +4535,21 @@
     <t>prolixity</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冗长；罗嗦</t>
+    </r>
+  </si>
+  <si>
     <t>noun: boring verbosity</t>
   </si>
   <si>
@@ -3742,6 +4560,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3765,6 +4590,21 @@
     <t>puissant</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强大的，强盛的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: powerful</t>
   </si>
   <si>
@@ -3774,6 +4614,21 @@
     <t>pyrrhic</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付出极大代价而获得的</t>
+    </r>
+  </si>
+  <si>
     <t>adjective: describing a victory that comes at such a great cost that the victory is not worthwhile</t>
   </si>
   <si>
@@ -3783,6 +4638,21 @@
     <t>qualm</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疑虑；不安</t>
+    </r>
+  </si>
+  <si>
     <t>noun: uneasiness about the fitness of an action</t>
   </si>
   <si>
@@ -3790,6 +4660,42 @@
   </si>
   <si>
     <t>quip</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>妙语；嘲弄；讽刺语</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嘲弄；</t>
+    </r>
   </si>
   <si>
     <t>noun: a witty saying or remark
@@ -3803,6 +4709,21 @@
     <t>quisling</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卖国贼；内奸</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a traitor</t>
   </si>
   <si>
@@ -3812,6 +4733,21 @@
     <t>raconteur</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健谈者；善谈者</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a person skilled in telling anecdotes</t>
   </si>
   <si>
@@ -3821,6 +4757,21 @@
     <t>raft</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>筏；救生艇；（美）大量</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a large number of something</t>
   </si>
   <si>
@@ -3830,6 +4781,21 @@
     <t>raillery</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逗趣；开玩笑</t>
+    </r>
+  </si>
+  <si>
     <t>noun: light teasing</t>
   </si>
   <si>
@@ -3839,6 +4805,21 @@
     <t>rarefied</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稀薄的；纯化的</t>
+    </r>
+  </si>
+  <si>
     <t>verb: make more subtle or refined</t>
   </si>
   <si>
@@ -3848,6 +4829,21 @@
     <t>rebuke</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指责，非难；</t>
+    </r>
+  </si>
+  <si>
     <t>verb: criticize severely or angrily; censure</t>
   </si>
   <si>
@@ -3857,6 +4853,21 @@
     <t>recapitulation</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概括；重述要点；再现部</t>
+    </r>
+  </si>
+  <si>
     <t>noun: a summary (think of recap)</t>
   </si>
   <si>
@@ -3866,6 +4877,21 @@
     <t>recrimination</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反责，反控；揭丑</t>
+    </r>
+  </si>
+  <si>
     <t>noun: mutual accusations</t>
   </si>
   <si>
@@ -3876,6 +4902,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vi. </t>
     </r>
     <r>
@@ -4777,12 +5810,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4819,14 +5852,76 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
+      <sz val="9"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4841,25 +5936,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4877,64 +5965,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4954,6 +5987,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF313131"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -4970,19 +6009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5000,7 +6033,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5012,19 +6081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5042,12 +6111,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5060,25 +6123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5090,13 +6135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5114,7 +6153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5148,12 +6193,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -5161,6 +6200,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5173,11 +6251,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5200,73 +6304,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5278,10 +6317,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5290,137 +6329,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5445,8 +6484,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5793,10 +6835,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F408"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5814,8 +6856,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>SUM(B3:B500)/406/10</f>
-        <v>0.0997536945812808</v>
+        <f>SUM(B3:B496)/406/10</f>
+        <v>0.140394088669951</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5972,7 +7014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:6">
+    <row r="10" ht="30" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -5992,7 +7034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:6">
+    <row r="11" ht="31.5" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -6012,7 +7054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:6">
+    <row r="12" ht="30" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -8340,7 +9382,9 @@
       <c r="A141" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B141" s="4"/>
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
       <c r="C141" s="4"/>
       <c r="D141" s="3" t="s">
         <v>560</v>
@@ -8356,7 +9400,9 @@
       <c r="A142" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B142" s="4"/>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
       <c r="C142" s="4"/>
       <c r="D142" s="3" t="s">
         <v>564</v>
@@ -8372,7 +9418,9 @@
       <c r="A143" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B143" s="4"/>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
       <c r="C143" s="4"/>
       <c r="D143" s="3" t="s">
         <v>568</v>
@@ -8388,7 +9436,9 @@
       <c r="A144" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B144" s="4"/>
+      <c r="B144" s="4">
+        <v>3</v>
+      </c>
       <c r="C144" s="4"/>
       <c r="D144" s="3" t="s">
         <v>572</v>
@@ -8404,7 +9454,9 @@
       <c r="A145" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
       <c r="C145" s="4"/>
       <c r="D145" s="3" t="s">
         <v>576</v>
@@ -8420,7 +9472,9 @@
       <c r="A146" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B146" s="4"/>
+      <c r="B146" s="4">
+        <v>1</v>
+      </c>
       <c r="C146" s="4"/>
       <c r="D146" s="3" t="s">
         <v>580</v>
@@ -8436,7 +9490,9 @@
       <c r="A147" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B147" s="4"/>
+      <c r="B147" s="4">
+        <v>2</v>
+      </c>
       <c r="C147" s="4"/>
       <c r="D147" s="3" t="s">
         <v>584</v>
@@ -8452,7 +9508,9 @@
       <c r="A148" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B148" s="4"/>
+      <c r="B148" s="4">
+        <v>0</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" s="3" t="s">
         <v>588</v>
@@ -8468,7 +9526,9 @@
       <c r="A149" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B149" s="4"/>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
       <c r="C149" s="4"/>
       <c r="D149" s="3" t="s">
         <v>592</v>
@@ -8484,7 +9544,9 @@
       <c r="A150" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
       <c r="C150" s="4"/>
       <c r="D150" s="3" t="s">
         <v>596</v>
@@ -8500,7 +9562,9 @@
       <c r="A151" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B151" s="4"/>
+      <c r="B151" s="4">
+        <v>9</v>
+      </c>
       <c r="C151" s="4"/>
       <c r="D151" s="3" t="s">
         <v>600</v>
@@ -8516,7 +9580,9 @@
       <c r="A152" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B152" s="4"/>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
       <c r="C152" s="4"/>
       <c r="D152" s="3" t="s">
         <v>604</v>
@@ -8532,7 +9598,9 @@
       <c r="A153" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B153" s="4"/>
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
       <c r="C153" s="4"/>
       <c r="D153" s="3" t="s">
         <v>608</v>
@@ -8548,7 +9616,9 @@
       <c r="A154" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B154" s="4"/>
+      <c r="B154" s="4">
+        <v>1</v>
+      </c>
       <c r="C154" s="4"/>
       <c r="D154" s="3" t="s">
         <v>612</v>
@@ -8564,7 +9634,9 @@
       <c r="A155" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B155" s="4"/>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
       <c r="C155" s="4"/>
       <c r="D155" s="3" t="s">
         <v>616</v>
@@ -8580,7 +9652,9 @@
       <c r="A156" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="3" t="s">
         <v>620</v>
@@ -8596,7 +9670,9 @@
       <c r="A157" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B157" s="4"/>
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
       <c r="C157" s="4"/>
       <c r="D157" s="3" t="s">
         <v>624</v>
@@ -8612,7 +9688,9 @@
       <c r="A158" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B158" s="4"/>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="3" t="s">
         <v>628</v>
@@ -8628,7 +9706,9 @@
       <c r="A159" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B159" s="4"/>
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
       <c r="C159" s="4"/>
       <c r="D159" s="3" t="s">
         <v>632</v>
@@ -8644,7 +9724,9 @@
       <c r="A160" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B160" s="4"/>
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
       <c r="C160" s="4"/>
       <c r="D160" s="3" t="s">
         <v>636</v>
@@ -8660,7 +9742,9 @@
       <c r="A161" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B161" s="4"/>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
       <c r="C161" s="4"/>
       <c r="D161" s="3" t="s">
         <v>640</v>
@@ -8676,7 +9760,9 @@
       <c r="A162" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B162" s="4"/>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
       <c r="C162" s="4"/>
       <c r="D162" s="3" t="s">
         <v>644</v>
@@ -8692,7 +9778,9 @@
       <c r="A163" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B163" s="4"/>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
       <c r="C163" s="4"/>
       <c r="D163" s="3" t="s">
         <v>648</v>
@@ -8708,7 +9796,9 @@
       <c r="A164" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B164" s="4"/>
+      <c r="B164" s="4">
+        <v>0</v>
+      </c>
       <c r="C164" s="4"/>
       <c r="D164" s="3" t="s">
         <v>652</v>
@@ -8724,7 +9814,9 @@
       <c r="A165" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B165" s="4"/>
+      <c r="B165" s="4">
+        <v>3</v>
+      </c>
       <c r="C165" s="4"/>
       <c r="D165" s="3" t="s">
         <v>656</v>
@@ -8740,7 +9832,9 @@
       <c r="A166" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B166" s="4"/>
+      <c r="B166" s="4">
+        <v>3</v>
+      </c>
       <c r="C166" s="4"/>
       <c r="D166" s="3" t="s">
         <v>660</v>
@@ -8756,7 +9850,9 @@
       <c r="A167" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="B167" s="4"/>
+      <c r="B167" s="4">
+        <v>3</v>
+      </c>
       <c r="C167" s="4"/>
       <c r="D167" s="3" t="s">
         <v>664</v>
@@ -8772,7 +9868,9 @@
       <c r="A168" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B168" s="4"/>
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
       <c r="C168" s="4"/>
       <c r="D168" s="3" t="s">
         <v>668</v>
@@ -8788,7 +9886,9 @@
       <c r="A169" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B169" s="4"/>
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
       <c r="C169" s="4"/>
       <c r="D169" s="3" t="s">
         <v>672</v>
@@ -8804,7 +9904,9 @@
       <c r="A170" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B170" s="4"/>
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
       <c r="C170" s="4"/>
       <c r="D170" s="3" t="s">
         <v>676</v>
@@ -8820,7 +9922,9 @@
       <c r="A171" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B171" s="4"/>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
       <c r="C171" s="4"/>
       <c r="D171" s="3" t="s">
         <v>680</v>
@@ -8836,3707 +9940,4024 @@
       <c r="A172" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B172" s="4"/>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
       <c r="C172" s="4"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="E172" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="173" ht="15.75" spans="1:6">
       <c r="A173" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B173" s="4"/>
+        <v>687</v>
+      </c>
+      <c r="B173" s="4">
+        <v>10</v>
+      </c>
       <c r="C173" s="4"/>
-      <c r="D173" s="3"/>
+      <c r="D173" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="E173" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" spans="1:6">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="174" ht="30" spans="1:6">
       <c r="A174" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="B174" s="4"/>
+        <v>691</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
       <c r="C174" s="4"/>
-      <c r="D174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>692</v>
+      </c>
       <c r="E174" s="6" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" spans="1:6">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="175" ht="30" spans="1:6">
       <c r="A175" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B175" s="4"/>
+        <v>695</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
       <c r="C175" s="4"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="E175" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" spans="1:6">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="176" ht="30" spans="1:6">
       <c r="A176" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B176" s="4"/>
+        <v>699</v>
+      </c>
+      <c r="B176" s="4">
+        <v>5</v>
+      </c>
       <c r="C176" s="4"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>700</v>
+      </c>
       <c r="E176" s="6" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="177" ht="30" spans="1:6">
       <c r="A177" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="B177" s="4"/>
+        <v>703</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
       <c r="C177" s="4"/>
-      <c r="D177" s="3"/>
+      <c r="D177" s="3" t="s">
+        <v>704</v>
+      </c>
       <c r="E177" s="6" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="178" ht="15.75" spans="1:6">
       <c r="A178" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="B178" s="4"/>
+        <v>707</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
       <c r="C178" s="4"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>708</v>
+      </c>
       <c r="E178" s="6" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="179" ht="30" spans="1:6">
       <c r="A179" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B179" s="4"/>
+        <v>711</v>
+      </c>
+      <c r="B179" s="4">
+        <v>8</v>
+      </c>
       <c r="C179" s="4"/>
-      <c r="D179" s="3"/>
+      <c r="D179" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="E179" s="6" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="180" ht="15.75" spans="1:6">
       <c r="A180" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B180" s="4"/>
+        <v>715</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
       <c r="C180" s="4"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="3" t="s">
+        <v>716</v>
+      </c>
       <c r="E180" s="6" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="181" ht="30" spans="1:6">
       <c r="A181" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B181" s="4"/>
+        <v>719</v>
+      </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
       <c r="C181" s="4"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>720</v>
+      </c>
       <c r="E181" s="6" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="182" ht="30" spans="1:6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" spans="1:6">
       <c r="A182" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B182" s="4"/>
+        <v>723</v>
+      </c>
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
       <c r="C182" s="4"/>
-      <c r="D182" s="3"/>
+      <c r="D182" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="E182" s="6" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" spans="1:6">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="183" ht="30" spans="1:6">
       <c r="A183" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B183" s="4"/>
+        <v>727</v>
+      </c>
+      <c r="B183" s="4">
+        <v>5</v>
+      </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="E183" s="6" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" spans="1:6">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="184" ht="30" spans="1:6">
       <c r="A184" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B184" s="4"/>
+        <v>731</v>
+      </c>
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
       <c r="C184" s="4"/>
-      <c r="D184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>732</v>
+      </c>
       <c r="E184" s="6" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="185" ht="15.75" spans="1:6">
       <c r="A185" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="B185" s="4"/>
+        <v>735</v>
+      </c>
+      <c r="B185" s="4">
+        <v>3</v>
+      </c>
       <c r="C185" s="4"/>
       <c r="D185" s="3"/>
       <c r="E185" s="6" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" spans="1:6">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="186" ht="30" spans="1:6">
       <c r="A186" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="B186" s="4"/>
+        <v>738</v>
+      </c>
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
       <c r="C186" s="4"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="8" t="s">
+        <v>739</v>
+      </c>
       <c r="E186" s="6" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="187" ht="30" spans="1:6">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" spans="1:6">
       <c r="A187" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B187" s="4"/>
+        <v>742</v>
+      </c>
+      <c r="B187" s="4">
+        <v>2</v>
+      </c>
       <c r="C187" s="4"/>
       <c r="D187" s="3"/>
       <c r="E187" s="6" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
     </row>
     <row r="188" ht="15.75" spans="1:6">
       <c r="A188" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="B188" s="4"/>
+        <v>745</v>
+      </c>
+      <c r="B188" s="4">
+        <v>0</v>
+      </c>
       <c r="C188" s="4"/>
       <c r="D188" s="3"/>
       <c r="E188" s="6" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" spans="1:6">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="189" ht="30" spans="1:6">
       <c r="A189" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B189" s="4"/>
+        <v>748</v>
+      </c>
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
       <c r="C189" s="4"/>
       <c r="D189" s="3"/>
       <c r="E189" s="6" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="190" ht="30" spans="1:6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" spans="1:6">
       <c r="A190" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B190" s="4"/>
+        <v>751</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
       <c r="C190" s="4"/>
       <c r="D190" s="3"/>
       <c r="E190" s="6" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
     </row>
     <row r="191" ht="15.75" spans="1:6">
       <c r="A191" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="B191" s="4"/>
+        <v>754</v>
+      </c>
+      <c r="B191" s="4">
+        <v>3</v>
+      </c>
       <c r="C191" s="4"/>
       <c r="D191" s="3"/>
       <c r="E191" s="6" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" spans="1:6">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="192" ht="30" spans="1:6">
       <c r="A192" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B192" s="4"/>
+        <v>757</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
       <c r="C192" s="4"/>
       <c r="D192" s="3"/>
       <c r="E192" s="6" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="193" ht="30" spans="1:6">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" spans="1:6">
       <c r="A193" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="B193" s="4"/>
+        <v>760</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1</v>
+      </c>
       <c r="C193" s="4"/>
       <c r="D193" s="3"/>
       <c r="E193" s="6" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" spans="1:6">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="194" ht="30" spans="1:6">
       <c r="A194" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B194" s="4"/>
+        <v>763</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1</v>
+      </c>
       <c r="C194" s="4"/>
       <c r="D194" s="3"/>
       <c r="E194" s="6" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
     </row>
     <row r="195" ht="30" spans="1:6">
       <c r="A195" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B195" s="4"/>
+        <v>766</v>
+      </c>
+      <c r="B195" s="4">
+        <v>5</v>
+      </c>
       <c r="C195" s="4"/>
       <c r="D195" s="3"/>
       <c r="E195" s="6" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="196" ht="30" spans="1:6">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" spans="1:6">
       <c r="A196" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B196" s="4"/>
+        <v>769</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
       <c r="C196" s="4"/>
-      <c r="D196" s="3"/>
+      <c r="D196" s="8" t="s">
+        <v>770</v>
+      </c>
       <c r="E196" s="6" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="197" ht="15.75" spans="1:6">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="197" ht="45" spans="1:6">
       <c r="A197" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="B197" s="4"/>
+        <v>773</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
       <c r="C197" s="4"/>
       <c r="D197" s="3"/>
       <c r="E197" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="198" ht="45" spans="1:6">
+        <v>774</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="198" ht="30" spans="1:6">
       <c r="A198" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="B198" s="4"/>
+        <v>776</v>
+      </c>
+      <c r="B198" s="4">
+        <v>3</v>
+      </c>
       <c r="C198" s="4"/>
       <c r="D198" s="3"/>
       <c r="E198" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>760</v>
+        <v>777</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="199" ht="30" spans="1:6">
       <c r="A199" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="B199" s="4"/>
+        <v>779</v>
+      </c>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
       <c r="C199" s="4"/>
       <c r="D199" s="3"/>
       <c r="E199" s="6" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="200" ht="30" spans="1:6">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="200" ht="44.25" spans="1:6">
       <c r="A200" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B200" s="4"/>
+        <v>782</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1</v>
+      </c>
       <c r="C200" s="4"/>
-      <c r="D200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="E200" s="6" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
     </row>
     <row r="201" ht="30" spans="1:6">
       <c r="A201" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="B201" s="4"/>
+        <v>786</v>
+      </c>
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
       <c r="C201" s="4"/>
-      <c r="D201" s="3"/>
+      <c r="D201" s="8" t="s">
+        <v>787</v>
+      </c>
       <c r="E201" s="6" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
     </row>
     <row r="202" ht="30" spans="1:6">
       <c r="A202" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="B202" s="4"/>
+        <v>790</v>
+      </c>
+      <c r="B202" s="4">
+        <v>2</v>
+      </c>
       <c r="C202" s="4"/>
       <c r="D202" s="3"/>
       <c r="E202" s="6" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="203" ht="30" spans="1:6">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" spans="1:6">
       <c r="A203" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B203" s="4"/>
+        <v>793</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
       <c r="C203" s="4"/>
       <c r="D203" s="3"/>
       <c r="E203" s="6" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
     </row>
     <row r="204" ht="15.75" spans="1:6">
       <c r="A204" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="B204" s="4"/>
+        <v>796</v>
+      </c>
+      <c r="B204" s="4">
+        <v>1</v>
+      </c>
       <c r="C204" s="4"/>
-      <c r="D204" s="3"/>
+      <c r="D204" s="8" t="s">
+        <v>797</v>
+      </c>
       <c r="E204" s="6" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
     </row>
     <row r="205" ht="15.75" spans="1:6">
       <c r="A205" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="B205" s="4"/>
+        <v>800</v>
+      </c>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
       <c r="C205" s="4"/>
       <c r="D205" s="3"/>
       <c r="E205" s="6" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
     </row>
     <row r="206" ht="15.75" spans="1:6">
       <c r="A206" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B206" s="4"/>
+        <v>803</v>
+      </c>
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
       <c r="C206" s="4"/>
       <c r="D206" s="3"/>
       <c r="E206" s="6" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="207" ht="15.75" spans="1:6">
       <c r="A207" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B207" s="4"/>
+        <v>806</v>
+      </c>
+      <c r="B207" s="4">
+        <v>2</v>
+      </c>
       <c r="C207" s="4"/>
       <c r="D207" s="3"/>
       <c r="E207" s="6" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
     </row>
     <row r="208" ht="15.75" spans="1:6">
       <c r="A208" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B208" s="4"/>
+        <v>809</v>
+      </c>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
       <c r="C208" s="4"/>
       <c r="D208" s="3"/>
       <c r="E208" s="6" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
     </row>
     <row r="209" ht="15.75" spans="1:6">
       <c r="A209" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B209" s="4"/>
+        <v>812</v>
+      </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
       <c r="C209" s="4"/>
       <c r="D209" s="3"/>
       <c r="E209" s="6" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" spans="1:6">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="210" ht="30" spans="1:6">
       <c r="A210" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B210" s="4"/>
+        <v>815</v>
+      </c>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
       <c r="C210" s="4"/>
       <c r="D210" s="3"/>
       <c r="E210" s="6" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
     </row>
     <row r="211" ht="15.75" spans="1:6">
       <c r="A211" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="B211" s="4"/>
+        <v>818</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
       <c r="C211" s="4"/>
       <c r="D211" s="3"/>
       <c r="E211" s="6" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
     </row>
     <row r="212" ht="30" spans="1:6">
       <c r="A212" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B212" s="4"/>
+        <v>821</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
       <c r="C212" s="4"/>
       <c r="D212" s="3"/>
       <c r="E212" s="6" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" spans="1:6">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="213" ht="30" spans="1:6">
       <c r="A213" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="B213" s="4"/>
+        <v>824</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
       <c r="C213" s="4"/>
       <c r="D213" s="3"/>
       <c r="E213" s="6" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
     </row>
     <row r="214" ht="30" spans="1:6">
       <c r="A214" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B214" s="4"/>
+        <v>827</v>
+      </c>
+      <c r="B214" s="4">
+        <v>5</v>
+      </c>
       <c r="C214" s="4"/>
       <c r="D214" s="3"/>
       <c r="E214" s="6" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="215" ht="30" spans="1:6">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" spans="1:6">
       <c r="A215" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B215" s="4"/>
+        <v>830</v>
+      </c>
+      <c r="B215" s="4">
+        <v>2</v>
+      </c>
       <c r="C215" s="4"/>
       <c r="D215" s="3"/>
       <c r="E215" s="6" t="s">
-        <v>807</v>
+        <v>831</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="216" ht="30" spans="1:6">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" spans="1:6">
       <c r="A216" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="B216" s="4"/>
+        <v>833</v>
+      </c>
+      <c r="B216" s="4">
+        <v>2</v>
+      </c>
       <c r="C216" s="4"/>
       <c r="D216" s="3"/>
       <c r="E216" s="6" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
     </row>
     <row r="217" ht="15.75" spans="1:6">
       <c r="A217" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="B217" s="4"/>
+        <v>836</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
       <c r="C217" s="4"/>
       <c r="D217" s="3"/>
       <c r="E217" s="6" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" spans="1:6">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="218" ht="30" spans="1:6">
       <c r="A218" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B218" s="4"/>
+        <v>839</v>
+      </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
       <c r="C218" s="4"/>
       <c r="D218" s="3"/>
       <c r="E218" s="6" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
     </row>
     <row r="219" ht="15.75" spans="1:6">
       <c r="A219" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="B219" s="4"/>
+        <v>842</v>
+      </c>
+      <c r="B219" s="4">
+        <v>10</v>
+      </c>
       <c r="C219" s="4"/>
       <c r="D219" s="3"/>
       <c r="E219" s="6" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="220" ht="30" spans="1:6">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" spans="1:6">
       <c r="A220" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="B220" s="4"/>
+        <v>845</v>
+      </c>
+      <c r="B220" s="4">
+        <v>6</v>
+      </c>
       <c r="C220" s="4"/>
       <c r="D220" s="3"/>
       <c r="E220" s="6" t="s">
-        <v>822</v>
+        <v>846</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
     </row>
     <row r="221" ht="15.75" spans="1:6">
       <c r="A221" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B221" s="4"/>
+        <v>848</v>
+      </c>
+      <c r="B221" s="4">
+        <v>4</v>
+      </c>
       <c r="C221" s="4"/>
       <c r="D221" s="3"/>
       <c r="E221" s="6" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>826</v>
+        <v>850</v>
       </c>
     </row>
     <row r="222" ht="15.75" spans="1:6">
       <c r="A222" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B222" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
       <c r="C222" s="4"/>
       <c r="D222" s="3"/>
       <c r="E222" s="6" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" spans="1:6">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="223" ht="30" spans="1:6">
       <c r="A223" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B223" s="4"/>
+        <v>854</v>
+      </c>
+      <c r="B223" s="4">
+        <v>7</v>
+      </c>
       <c r="C223" s="4"/>
       <c r="D223" s="3"/>
       <c r="E223" s="6" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" spans="1:6">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="224" ht="30" spans="1:6">
       <c r="A224" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="B224" s="4"/>
+        <v>857</v>
+      </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
       <c r="C224" s="4"/>
       <c r="D224" s="3"/>
       <c r="E224" s="6" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="225" ht="30" spans="1:6">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" spans="1:6">
       <c r="A225" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B225" s="4"/>
+        <v>860</v>
+      </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
       <c r="C225" s="4"/>
       <c r="D225" s="3"/>
       <c r="E225" s="6" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="226" ht="30" spans="1:6">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" spans="1:6">
       <c r="A226" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="B226" s="4"/>
+        <v>863</v>
+      </c>
+      <c r="B226" s="4">
+        <v>4</v>
+      </c>
       <c r="C226" s="4"/>
       <c r="D226" s="3"/>
       <c r="E226" s="6" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="227" ht="30" spans="1:6">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" spans="1:6">
       <c r="A227" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="B227" s="4"/>
+        <v>866</v>
+      </c>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
       <c r="C227" s="4"/>
       <c r="D227" s="3"/>
       <c r="E227" s="6" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
     </row>
     <row r="228" ht="15.75" spans="1:6">
       <c r="A228" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="B228" s="4"/>
+        <v>869</v>
+      </c>
+      <c r="B228" s="4">
+        <v>8</v>
+      </c>
       <c r="C228" s="4"/>
       <c r="D228" s="3"/>
       <c r="E228" s="6" t="s">
-        <v>843</v>
+        <v>870</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>844</v>
+        <v>871</v>
       </c>
     </row>
     <row r="229" ht="15.75" spans="1:6">
       <c r="A229" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="B229" s="4"/>
+        <v>872</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
       <c r="C229" s="4"/>
       <c r="D229" s="3"/>
       <c r="E229" s="6" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
     </row>
     <row r="230" ht="15.75" spans="1:6">
       <c r="A230" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B230" s="4"/>
+        <v>875</v>
+      </c>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
       <c r="C230" s="4"/>
       <c r="D230" s="3"/>
       <c r="E230" s="6" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" spans="1:6">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="231" ht="30" spans="1:6">
       <c r="A231" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="B231" s="4"/>
+        <v>878</v>
+      </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
       <c r="C231" s="4"/>
       <c r="D231" s="3"/>
       <c r="E231" s="6" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" spans="1:6">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="232" ht="30" spans="1:6">
       <c r="A232" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B232" s="4"/>
+        <v>881</v>
+      </c>
+      <c r="B232" s="4">
+        <v>2</v>
+      </c>
       <c r="C232" s="4"/>
       <c r="D232" s="3"/>
       <c r="E232" s="6" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>856</v>
+        <v>883</v>
       </c>
     </row>
     <row r="233" ht="15.75" spans="1:6">
       <c r="A233" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="B233" s="4"/>
+        <v>884</v>
+      </c>
+      <c r="B233" s="4">
+        <v>3</v>
+      </c>
       <c r="C233" s="4"/>
       <c r="D233" s="3"/>
       <c r="E233" s="6" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>859</v>
+        <v>886</v>
       </c>
     </row>
     <row r="234" ht="30" spans="1:6">
       <c r="A234" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="B234" s="4"/>
+        <v>887</v>
+      </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
       <c r="C234" s="4"/>
       <c r="D234" s="3"/>
       <c r="E234" s="6" t="s">
-        <v>861</v>
+        <v>888</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
     </row>
     <row r="235" ht="30" spans="1:6">
       <c r="A235" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="B235" s="4"/>
+        <v>890</v>
+      </c>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
       <c r="C235" s="4"/>
       <c r="D235" s="3"/>
       <c r="E235" s="6" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" spans="1:6">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="236" ht="30" spans="1:6">
       <c r="A236" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B236" s="4"/>
+        <v>893</v>
+      </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
       <c r="C236" s="4"/>
       <c r="D236" s="3"/>
       <c r="E236" s="6" t="s">
-        <v>867</v>
+        <v>894</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="237" ht="30" spans="1:6">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" spans="1:6">
       <c r="A237" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="B237" s="4"/>
+        <v>896</v>
+      </c>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
       <c r="C237" s="4"/>
       <c r="D237" s="3"/>
       <c r="E237" s="6" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="238" ht="30" spans="1:6">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" spans="1:6">
       <c r="A238" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="B238" s="4"/>
+        <v>899</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
       <c r="C238" s="4"/>
       <c r="D238" s="3"/>
       <c r="E238" s="6" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="239" ht="30" spans="1:6">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" spans="1:6">
       <c r="A239" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="B239" s="4"/>
+        <v>902</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
       <c r="C239" s="4"/>
       <c r="D239" s="3"/>
       <c r="E239" s="6" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" spans="1:6">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="240" ht="30" spans="1:6">
       <c r="A240" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B240" s="4"/>
+        <v>905</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
       <c r="C240" s="4"/>
       <c r="D240" s="3"/>
       <c r="E240" s="6" t="s">
-        <v>879</v>
+        <v>906</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" spans="1:6">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="241" ht="30" spans="1:6">
       <c r="A241" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="B241" s="4"/>
+        <v>908</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
       <c r="C241" s="4"/>
       <c r="D241" s="3"/>
       <c r="E241" s="6" t="s">
-        <v>882</v>
+        <v>909</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>883</v>
+        <v>910</v>
       </c>
     </row>
     <row r="242" ht="15.75" spans="1:6">
       <c r="A242" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="B242" s="4"/>
+        <v>911</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
       <c r="C242" s="4"/>
       <c r="D242" s="3"/>
       <c r="E242" s="6" t="s">
-        <v>885</v>
+        <v>912</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>886</v>
+        <v>913</v>
       </c>
     </row>
     <row r="243" ht="30" spans="1:6">
       <c r="A243" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="B243" s="4"/>
+        <v>914</v>
+      </c>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
       <c r="C243" s="4"/>
       <c r="D243" s="3"/>
       <c r="E243" s="6" t="s">
-        <v>888</v>
+        <v>915</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="244" ht="30" spans="1:6">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" spans="1:6">
       <c r="A244" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B244" s="4"/>
+        <v>917</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
       <c r="C244" s="4"/>
       <c r="D244" s="3"/>
       <c r="E244" s="6" t="s">
-        <v>891</v>
+        <v>918</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="245" ht="15.75" spans="1:6">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="245" ht="30" spans="1:6">
       <c r="A245" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="B245" s="4"/>
+        <v>920</v>
+      </c>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
       <c r="C245" s="4"/>
       <c r="D245" s="3"/>
       <c r="E245" s="6" t="s">
-        <v>894</v>
+        <v>921</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="246" ht="30" spans="1:6">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" spans="1:6">
       <c r="A246" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="B246" s="4"/>
+        <v>923</v>
+      </c>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
       <c r="C246" s="4"/>
       <c r="D246" s="3"/>
       <c r="E246" s="6" t="s">
-        <v>897</v>
+        <v>924</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>898</v>
+        <v>925</v>
       </c>
     </row>
     <row r="247" ht="15.75" spans="1:6">
       <c r="A247" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="B247" s="4"/>
+        <v>926</v>
+      </c>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
       <c r="C247" s="4"/>
       <c r="D247" s="3"/>
       <c r="E247" s="6" t="s">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="248" ht="30" spans="1:6">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" spans="1:6">
       <c r="A248" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="B248" s="4"/>
+        <v>929</v>
+      </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
       <c r="C248" s="4"/>
       <c r="D248" s="3"/>
       <c r="E248" s="6" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
     </row>
     <row r="249" ht="15.75" spans="1:6">
       <c r="A249" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="B249" s="4"/>
+        <v>932</v>
+      </c>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
       <c r="C249" s="4"/>
       <c r="D249" s="3"/>
       <c r="E249" s="6" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
     </row>
     <row r="250" ht="15.75" spans="1:6">
       <c r="A250" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="B250" s="4"/>
+        <v>935</v>
+      </c>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
       <c r="C250" s="4"/>
       <c r="D250" s="3"/>
       <c r="E250" s="6" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>910</v>
+        <v>937</v>
       </c>
     </row>
     <row r="251" ht="15.75" spans="1:6">
       <c r="A251" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="B251" s="4"/>
+        <v>938</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
       <c r="C251" s="4"/>
       <c r="D251" s="3"/>
       <c r="E251" s="6" t="s">
-        <v>912</v>
+        <v>939</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="252" ht="15.75" spans="1:6">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="252" ht="30" spans="1:6">
       <c r="A252" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="B252" s="4"/>
+        <v>941</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
       <c r="C252" s="4"/>
       <c r="D252" s="3"/>
       <c r="E252" s="6" t="s">
-        <v>915</v>
+        <v>942</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>916</v>
+        <v>943</v>
       </c>
     </row>
     <row r="253" ht="15.75" spans="1:6">
       <c r="A253" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="B253" s="4"/>
+        <v>944</v>
+      </c>
+      <c r="B253" s="4">
+        <v>2</v>
+      </c>
       <c r="C253" s="4"/>
       <c r="D253" s="3"/>
       <c r="E253" s="6" t="s">
-        <v>918</v>
+        <v>945</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
     </row>
     <row r="254" ht="15.75" spans="1:6">
       <c r="A254" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B254" s="4"/>
+        <v>947</v>
+      </c>
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
       <c r="C254" s="4"/>
       <c r="D254" s="3"/>
       <c r="E254" s="6" t="s">
-        <v>921</v>
+        <v>948</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="255" ht="30" spans="1:6">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="255" ht="45" spans="1:6">
       <c r="A255" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B255" s="4"/>
+        <v>950</v>
+      </c>
+      <c r="B255" s="4">
+        <v>10</v>
+      </c>
       <c r="C255" s="4"/>
       <c r="D255" s="3"/>
       <c r="E255" s="6" t="s">
-        <v>924</v>
+        <v>951</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>925</v>
+        <v>952</v>
       </c>
     </row>
     <row r="256" ht="15.75" spans="1:6">
       <c r="A256" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="B256" s="4"/>
+        <v>953</v>
+      </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
       <c r="C256" s="4"/>
       <c r="D256" s="3"/>
       <c r="E256" s="6" t="s">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>928</v>
+        <v>955</v>
       </c>
     </row>
     <row r="257" ht="15.75" spans="1:6">
       <c r="A257" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="B257" s="4"/>
+        <v>956</v>
+      </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
       <c r="C257" s="4"/>
       <c r="D257" s="3"/>
       <c r="E257" s="6" t="s">
-        <v>930</v>
+        <v>957</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="258" ht="45" spans="1:6">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="258" ht="30" spans="1:6">
       <c r="A258" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="B258" s="4"/>
+        <v>959</v>
+      </c>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
       <c r="C258" s="4"/>
       <c r="D258" s="3"/>
       <c r="E258" s="6" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
     </row>
     <row r="259" ht="15.75" spans="1:6">
       <c r="A259" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B259" s="4"/>
+        <v>962</v>
+      </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
       <c r="C259" s="4"/>
       <c r="D259" s="3"/>
       <c r="E259" s="6" t="s">
-        <v>936</v>
+        <v>372</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="260" ht="15.75" spans="1:6">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="260" ht="30" spans="1:6">
       <c r="A260" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B260" s="4"/>
+        <v>964</v>
+      </c>
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
       <c r="C260" s="4"/>
       <c r="D260" s="3"/>
       <c r="E260" s="6" t="s">
-        <v>939</v>
+        <v>965</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
     </row>
     <row r="261" ht="30" spans="1:6">
       <c r="A261" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="B261" s="4"/>
+        <v>967</v>
+      </c>
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
       <c r="C261" s="4"/>
       <c r="D261" s="3"/>
       <c r="E261" s="6" t="s">
-        <v>942</v>
+        <v>968</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="262" ht="15.75" spans="1:6">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="262" ht="30" spans="1:6">
       <c r="A262" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="B262" s="4"/>
+        <v>970</v>
+      </c>
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
       <c r="C262" s="4"/>
       <c r="D262" s="3"/>
       <c r="E262" s="6" t="s">
-        <v>372</v>
+        <v>971</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
     </row>
     <row r="263" ht="30" spans="1:6">
       <c r="A263" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="B263" s="4"/>
+        <v>973</v>
+      </c>
+      <c r="B263" s="4">
+        <v>0</v>
+      </c>
       <c r="C263" s="4"/>
       <c r="D263" s="3"/>
       <c r="E263" s="6" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="264" ht="30" spans="1:6">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="264" ht="15.75" spans="1:6">
       <c r="A264" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="B264" s="4"/>
+        <v>976</v>
+      </c>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
       <c r="C264" s="4"/>
-      <c r="D264" s="3"/>
+      <c r="D264" s="8" t="s">
+        <v>977</v>
+      </c>
       <c r="E264" s="6" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="265" ht="30" spans="1:6">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="265" ht="15.75" spans="1:6">
       <c r="A265" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="B265" s="4"/>
+        <v>980</v>
+      </c>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
       <c r="C265" s="4"/>
       <c r="D265" s="3"/>
       <c r="E265" s="6" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
     </row>
     <row r="266" ht="30" spans="1:6">
       <c r="A266" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="B266" s="4"/>
+        <v>983</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
       <c r="C266" s="4"/>
       <c r="D266" s="3"/>
       <c r="E266" s="6" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="267" ht="15.75" spans="1:6">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="267" ht="30" spans="1:6">
       <c r="A267" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="B267" s="4"/>
+        <v>986</v>
+      </c>
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
       <c r="C267" s="4"/>
       <c r="D267" s="3"/>
       <c r="E267" s="6" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="268" ht="15.75" spans="1:6">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="268" ht="30" spans="1:6">
       <c r="A268" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="B268" s="4"/>
+        <v>989</v>
+      </c>
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
       <c r="C268" s="4"/>
       <c r="D268" s="3"/>
       <c r="E268" s="6" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
     </row>
     <row r="269" ht="30" spans="1:6">
       <c r="A269" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="B269" s="4"/>
+        <v>992</v>
+      </c>
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
       <c r="C269" s="4"/>
       <c r="D269" s="3"/>
       <c r="E269" s="6" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
     </row>
     <row r="270" ht="30" spans="1:6">
       <c r="A270" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="B270" s="4"/>
+        <v>995</v>
+      </c>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
       <c r="C270" s="4"/>
       <c r="D270" s="3"/>
       <c r="E270" s="6" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
     </row>
     <row r="271" ht="30" spans="1:6">
       <c r="A271" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="B271" s="4"/>
+        <v>998</v>
+      </c>
+      <c r="B271" s="4">
+        <v>1</v>
+      </c>
       <c r="C271" s="4"/>
       <c r="D271" s="3"/>
       <c r="E271" s="6" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="272" ht="30" spans="1:6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="272" ht="15.75" spans="1:6">
       <c r="A272" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="B272" s="4"/>
+        <v>1001</v>
+      </c>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
       <c r="C272" s="4"/>
       <c r="D272" s="3"/>
       <c r="E272" s="6" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="273" ht="30" spans="1:6">
       <c r="A273" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="B273" s="4"/>
+        <v>1004</v>
+      </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
       <c r="C273" s="4"/>
       <c r="D273" s="3"/>
       <c r="E273" s="6" t="s">
-        <v>977</v>
+        <v>1005</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="274" ht="30" spans="1:6">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="274" ht="15.75" spans="1:6">
       <c r="A274" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="B274" s="4"/>
+        <v>1007</v>
+      </c>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
       <c r="C274" s="4"/>
       <c r="D274" s="3"/>
       <c r="E274" s="6" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="275" ht="15.75" spans="1:6">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="275" ht="30" spans="1:6">
       <c r="A275" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B275" s="4"/>
+        <v>1010</v>
+      </c>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
       <c r="C275" s="4"/>
-      <c r="D275" s="3"/>
+      <c r="D275" s="3" t="s">
+        <v>1011</v>
+      </c>
       <c r="E275" s="6" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="276" ht="30" spans="1:6">
       <c r="A276" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="B276" s="4"/>
+        <v>1014</v>
+      </c>
+      <c r="B276" s="4">
+        <v>2</v>
+      </c>
       <c r="C276" s="4"/>
-      <c r="D276" s="3"/>
+      <c r="D276" s="3" t="s">
+        <v>1015</v>
+      </c>
       <c r="E276" s="6" t="s">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="277" ht="15.75" spans="1:6">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="277" ht="30" spans="1:6">
       <c r="A277" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="B277" s="4"/>
+        <v>1018</v>
+      </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
       <c r="C277" s="4"/>
-      <c r="D277" s="3"/>
+      <c r="D277" s="3" t="s">
+        <v>1019</v>
+      </c>
       <c r="E277" s="6" t="s">
-        <v>989</v>
+        <v>1020</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>990</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="278" ht="30" spans="1:6">
       <c r="A278" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="B278" s="4"/>
+        <v>1022</v>
+      </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
       <c r="C278" s="4"/>
-      <c r="D278" s="3"/>
+      <c r="D278" s="3" t="s">
+        <v>1023</v>
+      </c>
       <c r="E278" s="6" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="279" ht="30" spans="1:6">
       <c r="A279" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="B279" s="4"/>
+        <v>1026</v>
+      </c>
+      <c r="B279" s="4">
+        <v>10</v>
+      </c>
       <c r="C279" s="4"/>
       <c r="D279" s="3"/>
       <c r="E279" s="6" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="280" ht="15.75" spans="1:6">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="280" ht="30" spans="1:6">
       <c r="A280" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="B280" s="4"/>
+        <v>1029</v>
+      </c>
+      <c r="B280" s="4">
+        <v>6</v>
+      </c>
       <c r="C280" s="4"/>
-      <c r="D280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>1030</v>
+      </c>
       <c r="E280" s="6" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="281" ht="15.75" spans="1:6">
       <c r="A281" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="B281" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
       <c r="C281" s="4"/>
-      <c r="D281" s="3"/>
+      <c r="D281" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="E281" s="6" t="s">
-        <v>998</v>
+        <v>1035</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>999</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="282" ht="30" spans="1:6">
       <c r="A282" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B282" s="4"/>
+        <v>1037</v>
+      </c>
+      <c r="B282" s="4">
+        <v>5</v>
+      </c>
       <c r="C282" s="4"/>
-      <c r="D282" s="3"/>
+      <c r="D282" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="E282" s="6" t="s">
-        <v>1001</v>
+        <v>1039</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="283" ht="30" spans="1:6">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="283" ht="44.25" spans="1:6">
       <c r="A283" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B283" s="4"/>
+        <v>1041</v>
+      </c>
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
       <c r="C283" s="4"/>
-      <c r="D283" s="3"/>
+      <c r="D283" s="3" t="s">
+        <v>1042</v>
+      </c>
       <c r="E283" s="6" t="s">
-        <v>1004</v>
+        <v>1043</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>1005</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="284" ht="30" spans="1:6">
       <c r="A284" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B284" s="4"/>
+        <v>1045</v>
+      </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
       <c r="C284" s="4"/>
-      <c r="D284" s="3"/>
+      <c r="D284" s="3" t="s">
+        <v>1046</v>
+      </c>
       <c r="E284" s="6" t="s">
-        <v>1007</v>
+        <v>1047</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="285" ht="15.75" spans="1:6">
       <c r="A285" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B285" s="4"/>
+        <v>1049</v>
+      </c>
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
       <c r="C285" s="4"/>
-      <c r="D285" s="3"/>
+      <c r="D285" s="8" t="s">
+        <v>1050</v>
+      </c>
       <c r="E285" s="6" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="286" ht="30" spans="1:6">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" spans="1:6">
       <c r="A286" s="3" t="s">
-        <v>1012</v>
+        <v>1053</v>
       </c>
       <c r="B286" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C286" s="4"/>
-      <c r="D286" s="3"/>
+      <c r="D286" s="8" t="s">
+        <v>1054</v>
+      </c>
       <c r="E286" s="6" t="s">
-        <v>1013</v>
+        <v>1055</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="287" ht="30" spans="1:6">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" spans="1:6">
       <c r="A287" s="3" t="s">
-        <v>1015</v>
+        <v>1057</v>
       </c>
       <c r="B287" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="3"/>
+      <c r="D287" s="8" t="s">
+        <v>1058</v>
+      </c>
       <c r="E287" s="6" t="s">
-        <v>1016</v>
+        <v>1059</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="288" ht="30" spans="1:6">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" spans="1:6">
       <c r="A288" s="3" t="s">
-        <v>1018</v>
+        <v>1061</v>
       </c>
       <c r="B288" s="4">
         <v>0</v>
       </c>
       <c r="C288" s="4"/>
-      <c r="D288" s="3"/>
+      <c r="D288" s="8" t="s">
+        <v>1062</v>
+      </c>
       <c r="E288" s="6" t="s">
-        <v>1019</v>
+        <v>1063</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>1020</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="289" ht="15.75" spans="1:6">
       <c r="A289" s="3" t="s">
-        <v>1021</v>
+        <v>1065</v>
       </c>
       <c r="B289" s="4">
         <v>0</v>
       </c>
       <c r="C289" s="4"/>
-      <c r="D289" s="3"/>
+      <c r="D289" s="8" t="s">
+        <v>1066</v>
+      </c>
       <c r="E289" s="6" t="s">
-        <v>1022</v>
+        <v>1067</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>1023</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="290" ht="15.75" spans="1:6">
       <c r="A290" s="3" t="s">
-        <v>1024</v>
+        <v>1069</v>
       </c>
       <c r="B290" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C290" s="4"/>
-      <c r="D290" s="3"/>
+      <c r="D290" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="E290" s="6" t="s">
-        <v>1025</v>
+        <v>1071</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="291" ht="15.75" spans="1:6">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="291" ht="30" spans="1:6">
       <c r="A291" s="3" t="s">
-        <v>1027</v>
+        <v>1073</v>
       </c>
       <c r="B291" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C291" s="4"/>
-      <c r="D291" s="3"/>
+      <c r="D291" s="8" t="s">
+        <v>1074</v>
+      </c>
       <c r="E291" s="6" t="s">
-        <v>1028</v>
+        <v>1075</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>1029</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="292" ht="15.75" spans="1:6">
       <c r="A292" s="3" t="s">
-        <v>1030</v>
+        <v>1077</v>
       </c>
       <c r="B292" s="4">
         <v>0</v>
       </c>
       <c r="C292" s="4"/>
-      <c r="D292" s="3"/>
+      <c r="D292" s="8" t="s">
+        <v>1078</v>
+      </c>
       <c r="E292" s="6" t="s">
-        <v>1031</v>
+        <v>1079</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="293" ht="15.75" spans="1:6">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="293" ht="30" spans="1:6">
       <c r="A293" s="3" t="s">
-        <v>1033</v>
+        <v>1081</v>
       </c>
       <c r="B293" s="4">
         <v>0</v>
       </c>
       <c r="C293" s="4"/>
-      <c r="D293" s="3"/>
+      <c r="D293" s="3" t="s">
+        <v>1082</v>
+      </c>
       <c r="E293" s="6" t="s">
-        <v>1034</v>
+        <v>1083</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="294" ht="15.75" spans="1:6">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="294" ht="30" spans="1:6">
       <c r="A294" s="3" t="s">
-        <v>1036</v>
+        <v>1085</v>
       </c>
       <c r="B294" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="3"/>
       <c r="E294" s="6" t="s">
-        <v>1037</v>
+        <v>1086</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>1038</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="295" ht="30" spans="1:6">
       <c r="A295" s="3" t="s">
-        <v>1039</v>
+        <v>1088</v>
       </c>
       <c r="B295" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C295" s="4"/>
-      <c r="D295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>1089</v>
+      </c>
       <c r="E295" s="6" t="s">
-        <v>1040</v>
+        <v>1090</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>1041</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="296" ht="15.75" spans="1:6">
       <c r="A296" s="3" t="s">
-        <v>1042</v>
+        <v>1092</v>
       </c>
       <c r="B296" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="3"/>
       <c r="E296" s="6" t="s">
-        <v>1043</v>
+        <v>1093</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>1044</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="297" ht="30" spans="1:6">
       <c r="A297" s="3" t="s">
-        <v>1045</v>
+        <v>1095</v>
       </c>
       <c r="B297" s="4">
         <v>0</v>
       </c>
       <c r="C297" s="4"/>
-      <c r="D297" s="3"/>
+      <c r="D297" s="3" t="s">
+        <v>1096</v>
+      </c>
       <c r="E297" s="6" t="s">
-        <v>1046</v>
+        <v>1097</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>1047</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="298" ht="30" spans="1:6">
       <c r="A298" s="3" t="s">
-        <v>1048</v>
+        <v>1099</v>
       </c>
       <c r="B298" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C298" s="4"/>
-      <c r="D298" s="3"/>
+      <c r="D298" s="3" t="s">
+        <v>1100</v>
+      </c>
       <c r="E298" s="6" t="s">
-        <v>1049</v>
+        <v>1101</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>1050</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="299" ht="30" spans="1:6">
       <c r="A299" s="3" t="s">
-        <v>1051</v>
+        <v>1103</v>
       </c>
       <c r="B299" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C299" s="4"/>
-      <c r="D299" s="3"/>
+      <c r="D299" s="3" t="s">
+        <v>1104</v>
+      </c>
       <c r="E299" s="6" t="s">
-        <v>1052</v>
+        <v>1105</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="300" ht="15.75" spans="1:6">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="300" ht="30" spans="1:6">
       <c r="A300" s="3" t="s">
-        <v>1054</v>
+        <v>1107</v>
       </c>
       <c r="B300" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C300" s="4"/>
-      <c r="D300" s="3"/>
+      <c r="D300" s="3" t="s">
+        <v>1108</v>
+      </c>
       <c r="E300" s="6" t="s">
-        <v>1055</v>
+        <v>1109</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>1056</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="301" ht="30" spans="1:6">
       <c r="A301" s="3" t="s">
-        <v>1057</v>
+        <v>1111</v>
       </c>
       <c r="B301" s="4">
         <v>0</v>
       </c>
       <c r="C301" s="4"/>
-      <c r="D301" s="3"/>
+      <c r="D301" s="3" t="s">
+        <v>1112</v>
+      </c>
       <c r="E301" s="6" t="s">
-        <v>1058</v>
+        <v>1113</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>1059</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="302" ht="30" spans="1:6">
       <c r="A302" s="3" t="s">
-        <v>1060</v>
+        <v>1115</v>
       </c>
       <c r="B302" s="4">
         <v>0</v>
       </c>
       <c r="C302" s="4"/>
-      <c r="D302" s="3"/>
+      <c r="D302" s="3" t="s">
+        <v>1116</v>
+      </c>
       <c r="E302" s="6" t="s">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="303" ht="30" spans="1:6">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="303" ht="45" spans="1:6">
       <c r="A303" s="3" t="s">
-        <v>1063</v>
+        <v>1119</v>
       </c>
       <c r="B303" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C303" s="4"/>
-      <c r="D303" s="3"/>
+      <c r="D303" s="3" t="s">
+        <v>1120</v>
+      </c>
       <c r="E303" s="6" t="s">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="304" ht="15.75" spans="1:6">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="304" ht="30" spans="1:6">
       <c r="A304" s="3" t="s">
-        <v>1066</v>
+        <v>1123</v>
       </c>
       <c r="B304" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C304" s="4"/>
-      <c r="D304" s="3"/>
+      <c r="D304" s="3" t="s">
+        <v>1124</v>
+      </c>
       <c r="E304" s="6" t="s">
-        <v>1067</v>
+        <v>1125</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>1068</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="305" ht="30" spans="1:6">
       <c r="A305" s="3" t="s">
-        <v>1069</v>
+        <v>1127</v>
       </c>
       <c r="B305" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C305" s="4"/>
-      <c r="D305" s="3"/>
+      <c r="D305" s="3" t="s">
+        <v>1128</v>
+      </c>
       <c r="E305" s="6" t="s">
-        <v>1070</v>
+        <v>1129</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="306" ht="15.75" spans="1:6">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="306" ht="44.25" spans="1:6">
       <c r="A306" s="3" t="s">
-        <v>1072</v>
+        <v>1131</v>
       </c>
       <c r="B306" s="4">
         <v>0</v>
       </c>
       <c r="C306" s="4"/>
-      <c r="D306" s="3"/>
+      <c r="D306" s="3" t="s">
+        <v>1132</v>
+      </c>
       <c r="E306" s="6" t="s">
-        <v>1073</v>
+        <v>1133</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="307" ht="45" spans="1:6">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" spans="1:6">
       <c r="A307" s="3" t="s">
-        <v>1075</v>
+        <v>1135</v>
       </c>
       <c r="B307" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C307" s="4"/>
-      <c r="D307" s="3"/>
+      <c r="D307" s="3" t="s">
+        <v>1136</v>
+      </c>
       <c r="E307" s="6" t="s">
-        <v>1076</v>
+        <v>1137</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="308" ht="15.75" spans="1:6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="308" ht="30" spans="1:6">
       <c r="A308" s="3" t="s">
-        <v>1078</v>
+        <v>1139</v>
       </c>
       <c r="B308" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C308" s="4"/>
-      <c r="D308" s="3"/>
+      <c r="D308" s="3" t="s">
+        <v>1140</v>
+      </c>
       <c r="E308" s="6" t="s">
-        <v>1079</v>
+        <v>1141</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="309" ht="15.75" spans="1:6">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="309" ht="30" spans="1:6">
       <c r="A309" s="3" t="s">
-        <v>1081</v>
+        <v>1143</v>
       </c>
       <c r="B309" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C309" s="4"/>
-      <c r="D309" s="3"/>
+      <c r="D309" s="3" t="s">
+        <v>1144</v>
+      </c>
       <c r="E309" s="6" t="s">
-        <v>1082</v>
+        <v>1145</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="310" ht="15.75" spans="1:6">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="310" ht="30" spans="1:6">
       <c r="A310" s="3" t="s">
-        <v>1084</v>
+        <v>1147</v>
       </c>
       <c r="B310" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C310" s="4"/>
-      <c r="D310" s="3"/>
+      <c r="D310" s="3" t="s">
+        <v>1148</v>
+      </c>
       <c r="E310" s="6" t="s">
-        <v>1085</v>
+        <v>1149</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="311" ht="15.75" spans="1:6">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="311" ht="30" spans="1:6">
       <c r="A311" s="3" t="s">
-        <v>1087</v>
+        <v>1151</v>
       </c>
       <c r="B311" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C311" s="4"/>
-      <c r="D311" s="3"/>
+      <c r="D311" s="3" t="s">
+        <v>1152</v>
+      </c>
       <c r="E311" s="6" t="s">
-        <v>1088</v>
+        <v>1153</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>1089</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="312" ht="30" spans="1:6">
       <c r="A312" s="3" t="s">
-        <v>1090</v>
+        <v>1155</v>
       </c>
       <c r="B312" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C312" s="4"/>
-      <c r="D312" s="3"/>
+      <c r="D312" s="3" t="s">
+        <v>1156</v>
+      </c>
       <c r="E312" s="6" t="s">
-        <v>1091</v>
+        <v>1157</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>1092</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="313" ht="30" spans="1:6">
       <c r="A313" s="3" t="s">
-        <v>1093</v>
+        <v>1159</v>
       </c>
       <c r="B313" s="4">
         <v>0</v>
       </c>
       <c r="C313" s="4"/>
-      <c r="D313" s="3"/>
+      <c r="D313" s="3" t="s">
+        <v>1160</v>
+      </c>
       <c r="E313" s="6" t="s">
-        <v>1094</v>
+        <v>1161</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>1095</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="314" ht="30" spans="1:6">
       <c r="A314" s="3" t="s">
-        <v>1096</v>
+        <v>1163</v>
       </c>
       <c r="B314" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C314" s="4"/>
-      <c r="D314" s="3"/>
+      <c r="D314" s="3" t="s">
+        <v>1164</v>
+      </c>
       <c r="E314" s="6" t="s">
-        <v>1097</v>
+        <v>1165</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>1098</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="315" ht="30" spans="1:6">
       <c r="A315" s="3" t="s">
-        <v>1099</v>
+        <v>1167</v>
       </c>
       <c r="B315" s="4">
-        <v>0</v>
-      </c>
-      <c r="C315" s="4"/>
-      <c r="D315" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>1168</v>
+      </c>
       <c r="E315" s="6" t="s">
-        <v>1100</v>
+        <v>1169</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>1101</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="316" ht="30" spans="1:6">
       <c r="A316" s="3" t="s">
-        <v>1102</v>
+        <v>1171</v>
       </c>
       <c r="B316" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C316" s="4"/>
-      <c r="D316" s="3"/>
+      <c r="D316" s="3" t="s">
+        <v>1172</v>
+      </c>
       <c r="E316" s="6" t="s">
-        <v>1103</v>
+        <v>1173</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>1104</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="317" ht="30" spans="1:6">
       <c r="A317" s="3" t="s">
-        <v>1105</v>
+        <v>1175</v>
       </c>
       <c r="B317" s="4">
         <v>0</v>
       </c>
       <c r="C317" s="4"/>
-      <c r="D317" s="3"/>
+      <c r="D317" s="3" t="s">
+        <v>1176</v>
+      </c>
       <c r="E317" s="6" t="s">
-        <v>1106</v>
+        <v>1177</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>1107</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="318" ht="30" spans="1:6">
       <c r="A318" s="3" t="s">
-        <v>1108</v>
+        <v>1179</v>
       </c>
       <c r="B318" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C318" s="4"/>
-      <c r="D318" s="3"/>
+      <c r="D318" s="3" t="s">
+        <v>1180</v>
+      </c>
       <c r="E318" s="6" t="s">
-        <v>1109</v>
+        <v>1181</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>1110</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="319" ht="30" spans="1:6">
       <c r="A319" s="3" t="s">
-        <v>1111</v>
+        <v>1183</v>
       </c>
       <c r="B319" s="4">
-        <v>1</v>
-      </c>
-      <c r="C319" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D319" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C319" s="4"/>
+      <c r="D319" s="10" t="s">
+        <v>1184</v>
+      </c>
       <c r="E319" s="6" t="s">
-        <v>1113</v>
+        <v>1185</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="320" ht="30" spans="1:6">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="320" ht="60" spans="1:6">
       <c r="A320" s="3" t="s">
-        <v>1115</v>
+        <v>1187</v>
       </c>
       <c r="B320" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C320" s="4"/>
-      <c r="D320" s="3"/>
+      <c r="D320" s="3" t="s">
+        <v>1188</v>
+      </c>
       <c r="E320" s="6" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F320" s="6" t="s">
-        <v>1117</v>
+        <v>1189</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="321" ht="30" spans="1:6">
       <c r="A321" s="3" t="s">
-        <v>1118</v>
+        <v>1191</v>
       </c>
       <c r="B321" s="4">
         <v>0</v>
       </c>
       <c r="C321" s="4"/>
-      <c r="D321" s="3"/>
+      <c r="D321" s="3" t="s">
+        <v>1192</v>
+      </c>
       <c r="E321" s="6" t="s">
-        <v>1119</v>
+        <v>1193</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="322" ht="15.75" spans="1:6">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="322" ht="30" spans="1:6">
       <c r="A322" s="3" t="s">
-        <v>1121</v>
+        <v>1195</v>
       </c>
       <c r="B322" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C322" s="4"/>
-      <c r="D322" s="3"/>
+      <c r="D322" s="3" t="s">
+        <v>1196</v>
+      </c>
       <c r="E322" s="6" t="s">
-        <v>1122</v>
+        <v>1197</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>1123</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="323" ht="30" spans="1:6">
       <c r="A323" s="3" t="s">
-        <v>1124</v>
+        <v>1199</v>
       </c>
       <c r="B323" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="9" t="s">
-        <v>1125</v>
+      <c r="D323" s="3" t="s">
+        <v>1200</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>1126</v>
+        <v>1201</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="324" ht="60" spans="1:6">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" spans="1:6">
       <c r="A324" s="3" t="s">
-        <v>1128</v>
+        <v>1203</v>
       </c>
       <c r="B324" s="4">
         <v>3</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="D324" s="3"/>
+      <c r="D324" s="3" t="s">
+        <v>1204</v>
+      </c>
       <c r="E324" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F324" s="7" t="s">
-        <v>1130</v>
+        <v>1205</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="325" ht="15.75" spans="1:6">
       <c r="A325" s="3" t="s">
-        <v>1131</v>
+        <v>1207</v>
       </c>
       <c r="B325" s="4">
         <v>0</v>
       </c>
       <c r="C325" s="4"/>
-      <c r="D325" s="3"/>
+      <c r="D325" s="3" t="s">
+        <v>1208</v>
+      </c>
       <c r="E325" s="6" t="s">
-        <v>1132</v>
+        <v>1209</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>1133</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="326" ht="30" spans="1:6">
       <c r="A326" s="3" t="s">
-        <v>1134</v>
+        <v>1211</v>
       </c>
       <c r="B326" s="4">
         <v>0</v>
       </c>
       <c r="C326" s="4"/>
-      <c r="D326" s="3"/>
+      <c r="D326" s="3" t="s">
+        <v>1212</v>
+      </c>
       <c r="E326" s="6" t="s">
-        <v>1135</v>
+        <v>1213</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="327" ht="30" spans="1:6">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" spans="1:6">
       <c r="A327" s="3" t="s">
-        <v>1137</v>
+        <v>1215</v>
       </c>
       <c r="B327" s="4">
         <v>0</v>
       </c>
       <c r="C327" s="4"/>
-      <c r="D327" s="3"/>
+      <c r="D327" s="3" t="s">
+        <v>1216</v>
+      </c>
       <c r="E327" s="6" t="s">
-        <v>1138</v>
+        <v>1217</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="328" ht="15.75" spans="1:6">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="328" ht="30" spans="1:6">
       <c r="A328" s="3" t="s">
-        <v>1140</v>
+        <v>1219</v>
       </c>
       <c r="B328" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C328" s="4"/>
-      <c r="D328" s="3"/>
+      <c r="D328" s="3" t="s">
+        <v>1220</v>
+      </c>
       <c r="E328" s="6" t="s">
-        <v>1141</v>
+        <v>1221</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>1142</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="329" ht="15.75" spans="1:6">
       <c r="A329" s="3" t="s">
-        <v>1143</v>
+        <v>1223</v>
       </c>
       <c r="B329" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C329" s="4"/>
-      <c r="D329" s="3"/>
+      <c r="D329" s="3" t="s">
+        <v>1224</v>
+      </c>
       <c r="E329" s="6" t="s">
-        <v>1144</v>
+        <v>1225</v>
       </c>
       <c r="F329" s="6" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="330" ht="30" spans="1:6">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="330" ht="47.25" spans="1:6">
       <c r="A330" s="3" t="s">
-        <v>1146</v>
+        <v>1227</v>
       </c>
       <c r="B330" s="4">
         <v>0</v>
       </c>
       <c r="C330" s="4"/>
       <c r="D330" s="3" t="s">
-        <v>1147</v>
+        <v>1228</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F330" s="6" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="331" ht="15.75" spans="1:6">
+        <v>1229</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="331" ht="30" spans="1:6">
       <c r="A331" s="3" t="s">
-        <v>1150</v>
+        <v>1231</v>
       </c>
       <c r="B331" s="4">
         <v>0</v>
       </c>
       <c r="C331" s="4"/>
-      <c r="D331" s="3"/>
+      <c r="D331" s="3" t="s">
+        <v>1232</v>
+      </c>
       <c r="E331" s="6" t="s">
-        <v>1151</v>
+        <v>1233</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>1152</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="332" ht="30" spans="1:6">
       <c r="A332" s="3" t="s">
-        <v>1153</v>
+        <v>1235</v>
       </c>
       <c r="B332" s="4">
         <v>0</v>
       </c>
       <c r="C332" s="4"/>
-      <c r="D332" s="3"/>
+      <c r="D332" s="3" t="s">
+        <v>1236</v>
+      </c>
       <c r="E332" s="6" t="s">
-        <v>1154</v>
+        <v>1237</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="333" ht="15.75" spans="1:6">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="333" ht="30" spans="1:6">
       <c r="A333" s="3" t="s">
-        <v>1156</v>
+        <v>1239</v>
       </c>
       <c r="B333" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C333" s="4"/>
-      <c r="D333" s="3"/>
+      <c r="D333" s="3" t="s">
+        <v>1240</v>
+      </c>
       <c r="E333" s="6" t="s">
-        <v>1157</v>
+        <v>1241</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="334" ht="45" spans="1:6">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" spans="1:6">
       <c r="A334" s="3" t="s">
-        <v>1159</v>
+        <v>1243</v>
       </c>
       <c r="B334" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C334" s="4"/>
-      <c r="D334" s="3"/>
+      <c r="D334" s="3" t="s">
+        <v>1244</v>
+      </c>
       <c r="E334" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F334" s="7" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="335" ht="30" spans="1:6">
+        <v>1245</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" spans="1:6">
       <c r="A335" s="3" t="s">
-        <v>1162</v>
+        <v>1247</v>
       </c>
       <c r="B335" s="4">
         <v>0</v>
       </c>
       <c r="C335" s="4"/>
-      <c r="D335" s="3"/>
+      <c r="D335" s="3" t="s">
+        <v>1248</v>
+      </c>
       <c r="E335" s="6" t="s">
-        <v>1163</v>
+        <v>1249</v>
       </c>
       <c r="F335" s="6" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="336" ht="30" spans="1:6">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" spans="1:6">
       <c r="A336" s="3" t="s">
-        <v>1165</v>
+        <v>1251</v>
       </c>
       <c r="B336" s="4">
         <v>0</v>
       </c>
       <c r="C336" s="4"/>
-      <c r="D336" s="3"/>
+      <c r="D336" s="3" t="s">
+        <v>1252</v>
+      </c>
       <c r="E336" s="6" t="s">
-        <v>1166</v>
+        <v>1253</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="337" ht="15.75" spans="1:6">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="337" ht="30" spans="1:6">
       <c r="A337" s="3" t="s">
-        <v>1168</v>
+        <v>1255</v>
       </c>
       <c r="B337" s="4">
         <v>0</v>
       </c>
       <c r="C337" s="4"/>
-      <c r="D337" s="3"/>
+      <c r="D337" s="3" t="s">
+        <v>1256</v>
+      </c>
       <c r="E337" s="6" t="s">
-        <v>1169</v>
+        <v>1257</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>1170</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="338" ht="15.75" spans="1:6">
       <c r="A338" s="3" t="s">
-        <v>1171</v>
+        <v>1259</v>
       </c>
       <c r="B338" s="4">
+        <v>0</v>
+      </c>
+      <c r="C338" s="4"/>
+      <c r="D338" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="339" ht="30" spans="1:6">
+      <c r="A339" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B339" s="4">
+        <v>0</v>
+      </c>
+      <c r="C339" s="4"/>
+      <c r="D339" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F339" s="6" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="340" ht="63" spans="1:6">
+      <c r="A340" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B340" s="4">
         <v>3</v>
       </c>
-      <c r="C338" s="4"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F338" s="6" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="339" ht="15.75" spans="1:6">
-      <c r="A339" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B339" s="4">
-        <v>0</v>
-      </c>
-      <c r="C339" s="4"/>
-      <c r="D339" s="3"/>
-      <c r="E339" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F339" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="340" ht="15.75" spans="1:6">
-      <c r="A340" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B340" s="4">
-        <v>0</v>
-      </c>
       <c r="C340" s="4"/>
-      <c r="D340" s="3"/>
+      <c r="D340" s="3" t="s">
+        <v>1268</v>
+      </c>
       <c r="E340" s="6" t="s">
-        <v>1178</v>
+        <v>1269</v>
       </c>
       <c r="F340" s="6" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="341" ht="15.75" spans="1:6">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="341" ht="45" spans="1:6">
       <c r="A341" s="3" t="s">
-        <v>1180</v>
+        <v>1271</v>
       </c>
       <c r="B341" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C341" s="4"/>
-      <c r="D341" s="3"/>
+      <c r="D341" s="10" t="s">
+        <v>1272</v>
+      </c>
       <c r="E341" s="6" t="s">
-        <v>1181</v>
+        <v>1273</v>
       </c>
       <c r="F341" s="6" t="s">
-        <v>1182</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="342" ht="15.75" spans="1:6">
       <c r="A342" s="3" t="s">
-        <v>1183</v>
+        <v>1275</v>
       </c>
       <c r="B342" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C342" s="4"/>
-      <c r="D342" s="3"/>
+      <c r="D342" s="10" t="s">
+        <v>1276</v>
+      </c>
       <c r="E342" s="6" t="s">
-        <v>1184</v>
+        <v>1277</v>
       </c>
       <c r="F342" s="6" t="s">
-        <v>1185</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="343" ht="30" spans="1:6">
       <c r="A343" s="3" t="s">
-        <v>1186</v>
+        <v>1279</v>
       </c>
       <c r="B343" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C343" s="4"/>
       <c r="D343" s="3" t="s">
-        <v>1187</v>
+        <v>1280</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>1188</v>
+        <v>1281</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="344" ht="63" spans="1:6">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="344" ht="30" spans="1:6">
       <c r="A344" s="3" t="s">
-        <v>1190</v>
+        <v>1283</v>
       </c>
       <c r="B344" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="3" t="s">
-        <v>1191</v>
+        <v>1284</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>1192</v>
+        <v>1285</v>
       </c>
       <c r="F344" s="6" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="345" ht="45" spans="1:6">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="345" ht="30" spans="1:6">
       <c r="A345" s="3" t="s">
-        <v>1194</v>
+        <v>1287</v>
       </c>
       <c r="B345" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C345" s="4"/>
-      <c r="D345" s="9" t="s">
-        <v>1195</v>
+      <c r="D345" s="3" t="s">
+        <v>1288</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>1196</v>
+        <v>1289</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="346" ht="15.75" spans="1:6">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="346" ht="30" spans="1:6">
       <c r="A346" s="3" t="s">
-        <v>1198</v>
+        <v>1291</v>
       </c>
       <c r="B346" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C346" s="4"/>
-      <c r="D346" s="9" t="s">
-        <v>1199</v>
+      <c r="D346" s="3" t="s">
+        <v>1292</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>1200</v>
+        <v>1293</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="347" ht="30" spans="1:6">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" spans="1:6">
       <c r="A347" s="3" t="s">
-        <v>1202</v>
+        <v>1295</v>
       </c>
       <c r="B347" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="3" t="s">
-        <v>1203</v>
+        <v>1296</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>1204</v>
+        <v>1297</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="348" ht="30" spans="1:6">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="348" ht="36" customHeight="1" spans="1:6">
       <c r="A348" s="3" t="s">
-        <v>1206</v>
+        <v>1299</v>
       </c>
       <c r="B348" s="4">
         <v>0</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="3" t="s">
-        <v>1207</v>
+        <v>1300</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>1208</v>
+        <v>1301</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>1209</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="349" ht="30" spans="1:6">
       <c r="A349" s="3" t="s">
-        <v>1210</v>
+        <v>1303</v>
       </c>
       <c r="B349" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C349" s="4"/>
       <c r="D349" s="3" t="s">
-        <v>1211</v>
+        <v>1304</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>1212</v>
+        <v>1305</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1213</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="350" ht="30" spans="1:6">
       <c r="A350" s="3" t="s">
-        <v>1214</v>
+        <v>1307</v>
       </c>
       <c r="B350" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="3" t="s">
-        <v>1215</v>
+        <v>470</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>1216</v>
+        <v>1308</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>1217</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="351" ht="15.75" spans="1:6">
       <c r="A351" s="3" t="s">
-        <v>1218</v>
+        <v>1310</v>
       </c>
       <c r="B351" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C351" s="4"/>
       <c r="D351" s="3" t="s">
-        <v>1219</v>
+        <v>1311</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>1220</v>
+        <v>1312</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="352" ht="36" customHeight="1" spans="1:6">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="352" ht="29.25" spans="1:6">
       <c r="A352" s="3" t="s">
-        <v>1222</v>
+        <v>1314</v>
       </c>
       <c r="B352" s="4">
         <v>0</v>
       </c>
       <c r="C352" s="4"/>
       <c r="D352" s="3" t="s">
-        <v>1223</v>
+        <v>1315</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>1224</v>
+        <v>1316</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1225</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="353" ht="30" spans="1:6">
       <c r="A353" s="3" t="s">
-        <v>1226</v>
+        <v>1318</v>
       </c>
       <c r="B353" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C353" s="4"/>
       <c r="D353" s="3" t="s">
-        <v>1227</v>
+        <v>83</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>1228</v>
+        <v>1319</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="354" ht="30" spans="1:6">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="354" ht="31.5" spans="1:6">
       <c r="A354" s="3" t="s">
-        <v>1230</v>
+        <v>1321</v>
       </c>
       <c r="B354" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="3" t="s">
-        <v>470</v>
+        <v>1322</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>1231</v>
+        <v>1323</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="355" ht="15.75" spans="1:6">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="355" ht="36.75" customHeight="1" spans="1:6">
       <c r="A355" s="3" t="s">
-        <v>1233</v>
+        <v>1325</v>
       </c>
       <c r="B355" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C355" s="4"/>
       <c r="D355" s="3" t="s">
-        <v>1234</v>
+        <v>1326</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>1235</v>
+        <v>1327</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="356" ht="29.25" spans="1:6">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="356" ht="36" customHeight="1" spans="1:6">
       <c r="A356" s="3" t="s">
-        <v>1237</v>
+        <v>1329</v>
       </c>
       <c r="B356" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="3" t="s">
-        <v>1238</v>
+        <v>1330</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>1239</v>
+        <v>1331</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>1240</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="357" ht="30" spans="1:6">
       <c r="A357" s="3" t="s">
-        <v>1241</v>
+        <v>1333</v>
       </c>
       <c r="B357" s="4">
         <v>0</v>
       </c>
       <c r="C357" s="4"/>
       <c r="D357" s="3" t="s">
-        <v>83</v>
+        <v>1334</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>1242</v>
+        <v>1335</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="358" ht="31.5" spans="1:6">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="358" ht="30" spans="1:6">
       <c r="A358" s="3" t="s">
-        <v>1244</v>
+        <v>1337</v>
       </c>
       <c r="B358" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" s="4"/>
       <c r="D358" s="3" t="s">
-        <v>1245</v>
+        <v>1338</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>1246</v>
+        <v>1339</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="359" ht="36.75" customHeight="1" spans="1:6">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="359" ht="30" spans="1:6">
       <c r="A359" s="3" t="s">
-        <v>1248</v>
+        <v>1341</v>
       </c>
       <c r="B359" s="4">
         <v>0</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="3" t="s">
-        <v>1249</v>
+        <v>1342</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>1250</v>
+        <v>1343</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="360" ht="36" customHeight="1" spans="1:6">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="360" ht="15.75" spans="1:6">
       <c r="A360" s="3" t="s">
-        <v>1252</v>
+        <v>1345</v>
       </c>
       <c r="B360" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C360" s="4"/>
       <c r="D360" s="3" t="s">
-        <v>1253</v>
+        <v>1346</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>1254</v>
+        <v>1347</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>1255</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="361" ht="30" spans="1:6">
       <c r="A361" s="3" t="s">
-        <v>1256</v>
+        <v>1349</v>
       </c>
       <c r="B361" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C361" s="4"/>
       <c r="D361" s="3" t="s">
-        <v>1257</v>
+        <v>1350</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>1258</v>
+        <v>1351</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="362" ht="30" spans="1:6">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="362" ht="45" spans="1:6">
       <c r="A362" s="3" t="s">
-        <v>1260</v>
+        <v>1353</v>
       </c>
       <c r="B362" s="4">
         <v>0</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="3" t="s">
-        <v>1261</v>
+        <v>1354</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>1262</v>
+        <v>1355</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>1263</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="363" ht="30" spans="1:6">
       <c r="A363" s="3" t="s">
-        <v>1264</v>
+        <v>1357</v>
       </c>
       <c r="B363" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="3" t="s">
-        <v>1265</v>
+        <v>1358</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>1266</v>
+        <v>1359</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="364" ht="15.75" spans="1:6">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="364" ht="30" spans="1:6">
       <c r="A364" s="3" t="s">
-        <v>1268</v>
+        <v>1361</v>
       </c>
       <c r="B364" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C364" s="4"/>
       <c r="D364" s="3" t="s">
-        <v>1269</v>
+        <v>1362</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>1270</v>
+        <v>1363</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="365" ht="30" spans="1:6">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="365" ht="40.5" customHeight="1" spans="1:6">
       <c r="A365" s="3" t="s">
-        <v>1272</v>
+        <v>1365</v>
       </c>
       <c r="B365" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C365" s="4"/>
       <c r="D365" s="3" t="s">
-        <v>1273</v>
+        <v>1366</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>1274</v>
+        <v>1367</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="366" ht="45" spans="1:6">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="366" ht="31.5" spans="1:6">
       <c r="A366" s="3" t="s">
-        <v>1276</v>
+        <v>1369</v>
       </c>
       <c r="B366" s="4">
         <v>0</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="3" t="s">
-        <v>1277</v>
+        <v>1370</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>1278</v>
+        <v>1371</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>1279</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="367" ht="30" spans="1:6">
       <c r="A367" s="3" t="s">
-        <v>1280</v>
+        <v>1373</v>
       </c>
       <c r="B367" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="3" t="s">
-        <v>1281</v>
+        <v>252</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>1282</v>
+        <v>1374</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="368" ht="30" spans="1:6">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="368" ht="15.75" spans="1:6">
       <c r="A368" s="3" t="s">
-        <v>1284</v>
+        <v>1376</v>
       </c>
       <c r="B368" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C368" s="4"/>
       <c r="D368" s="3" t="s">
-        <v>1285</v>
+        <v>1377</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>1286</v>
+        <v>1378</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="369" ht="40.5" customHeight="1" spans="1:6">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="369" ht="15.75" spans="1:6">
       <c r="A369" s="3" t="s">
-        <v>1288</v>
+        <v>1380</v>
       </c>
       <c r="B369" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" s="4"/>
       <c r="D369" s="3" t="s">
-        <v>1289</v>
+        <v>1381</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>1290</v>
+        <v>1382</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="370" ht="31.5" spans="1:6">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="370" ht="15.75" spans="1:6">
       <c r="A370" s="3" t="s">
-        <v>1292</v>
+        <v>1384</v>
       </c>
       <c r="B370" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C370" s="4"/>
       <c r="D370" s="3" t="s">
-        <v>1293</v>
+        <v>1385</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>1294</v>
+        <v>1386</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>1295</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="371" ht="30" spans="1:6">
       <c r="A371" s="3" t="s">
-        <v>1296</v>
+        <v>1388</v>
       </c>
       <c r="B371" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" s="4"/>
       <c r="D371" s="3" t="s">
-        <v>252</v>
+        <v>1389</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>1297</v>
+        <v>1390</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="372" ht="15.75" spans="1:6">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="372" ht="45" spans="1:6">
       <c r="A372" s="3" t="s">
-        <v>1299</v>
+        <v>1392</v>
       </c>
       <c r="B372" s="4">
         <v>0</v>
       </c>
       <c r="C372" s="4"/>
       <c r="D372" s="3" t="s">
-        <v>1300</v>
+        <v>1393</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>1301</v>
+        <v>1394</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>1302</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="373" ht="15.75" spans="1:6">
       <c r="A373" s="3" t="s">
-        <v>1303</v>
+        <v>1396</v>
       </c>
       <c r="B373" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="3" t="s">
-        <v>1304</v>
+        <v>1397</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>1305</v>
+        <v>1398</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="374" ht="15.75" spans="1:6">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="374" ht="31.5" spans="1:6">
       <c r="A374" s="3" t="s">
-        <v>1307</v>
+        <v>1400</v>
       </c>
       <c r="B374" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C374" s="4"/>
       <c r="D374" s="3" t="s">
-        <v>1308</v>
+        <v>1401</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>1309</v>
+        <v>1402</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="375" ht="30" spans="1:6">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="375" ht="15.75" spans="1:6">
       <c r="A375" s="3" t="s">
-        <v>1311</v>
+        <v>1404</v>
       </c>
       <c r="B375" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" s="4"/>
       <c r="D375" s="3" t="s">
-        <v>1312</v>
+        <v>1405</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>1313</v>
+        <v>1406</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="376" ht="45" spans="1:6">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="376" ht="15.75" spans="1:6">
       <c r="A376" s="3" t="s">
-        <v>1315</v>
+        <v>1408</v>
       </c>
       <c r="B376" s="4">
         <v>0</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="3" t="s">
-        <v>1316</v>
+        <v>1409</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>1317</v>
+        <v>1410</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>1318</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="377" ht="15.75" spans="1:6">
       <c r="A377" s="3" t="s">
-        <v>1319</v>
+        <v>1412</v>
       </c>
       <c r="B377" s="4">
         <v>0</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="3" t="s">
-        <v>1320</v>
+        <v>117</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>1321</v>
+        <v>1413</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="378" ht="31.5" spans="1:6">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="378" ht="15.75" spans="1:6">
       <c r="A378" s="3" t="s">
-        <v>1323</v>
+        <v>1415</v>
       </c>
       <c r="B378" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="3" t="s">
-        <v>1324</v>
+        <v>1416</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>1325</v>
+        <v>1417</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="379" ht="15.75" spans="1:6">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="379" ht="21" customHeight="1" spans="1:6">
       <c r="A379" s="3" t="s">
-        <v>1327</v>
+        <v>1419</v>
       </c>
       <c r="B379" s="4">
         <v>0</v>
       </c>
       <c r="C379" s="4"/>
       <c r="D379" s="3" t="s">
-        <v>1328</v>
+        <v>1420</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>1329</v>
+        <v>1421</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="380" ht="15.75" spans="1:6">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="380" ht="38.25" customHeight="1" spans="1:6">
       <c r="A380" s="3" t="s">
-        <v>1331</v>
+        <v>1423</v>
       </c>
       <c r="B380" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C380" s="4"/>
-      <c r="D380" s="3" t="s">
-        <v>1332</v>
+      <c r="D380" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>1333</v>
+        <v>1424</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="381" ht="15.75" spans="1:6">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="381" ht="38.25" customHeight="1" spans="1:6">
       <c r="A381" s="3" t="s">
-        <v>1335</v>
+        <v>1426</v>
       </c>
       <c r="B381" s="4">
         <v>0</v>
       </c>
       <c r="C381" s="4"/>
       <c r="D381" s="3" t="s">
-        <v>117</v>
+        <v>1427</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>1336</v>
+        <v>1428</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="382" ht="15.75" spans="1:6">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="382" ht="30" spans="1:6">
       <c r="A382" s="3" t="s">
-        <v>1338</v>
+        <v>1430</v>
       </c>
       <c r="B382" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="3" t="s">
-        <v>1339</v>
+        <v>1431</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>1340</v>
+        <v>1432</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="383" ht="21" customHeight="1" spans="1:6">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="383" ht="30" spans="1:6">
       <c r="A383" s="3" t="s">
-        <v>1342</v>
+        <v>1434</v>
       </c>
       <c r="B383" s="4">
         <v>0</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="3" t="s">
-        <v>1343</v>
+        <v>1435</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>1344</v>
+        <v>1436</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="384" ht="38.25" customHeight="1" spans="1:6">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="384" ht="15.75" spans="1:6">
       <c r="A384" s="3" t="s">
-        <v>1346</v>
+        <v>1438</v>
       </c>
       <c r="B384" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C384" s="4"/>
-      <c r="D384" s="9" t="s">
-        <v>316</v>
+      <c r="D384" s="3" t="s">
+        <v>1439</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>1347</v>
+        <v>1440</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="385" ht="38.25" customHeight="1" spans="1:6">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="385" ht="45" spans="1:6">
       <c r="A385" s="3" t="s">
-        <v>1349</v>
+        <v>1442</v>
       </c>
       <c r="B385" s="4">
         <v>0</v>
       </c>
       <c r="C385" s="4"/>
       <c r="D385" s="3" t="s">
-        <v>1350</v>
+        <v>1443</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>1351</v>
+        <v>1444</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>1352</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="386" ht="30" spans="1:6">
       <c r="A386" s="3" t="s">
-        <v>1353</v>
+        <v>1446</v>
       </c>
       <c r="B386" s="4">
         <v>0</v>
       </c>
       <c r="C386" s="4"/>
       <c r="D386" s="3" t="s">
-        <v>1354</v>
+        <v>1447</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>1356</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="387" ht="30" spans="1:6">
       <c r="A387" s="3" t="s">
-        <v>1357</v>
+        <v>1450</v>
       </c>
       <c r="B387" s="4">
         <v>0</v>
       </c>
       <c r="C387" s="4"/>
       <c r="D387" s="3" t="s">
-        <v>1358</v>
+        <v>1451</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>1359</v>
+        <v>1452</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="388" ht="15.75" spans="1:6">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="388" ht="30" spans="1:6">
       <c r="A388" s="3" t="s">
-        <v>1361</v>
+        <v>1454</v>
       </c>
       <c r="B388" s="4">
         <v>0</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="3" t="s">
-        <v>1362</v>
+        <v>1455</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>1363</v>
+        <v>1456</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="389" ht="45" spans="1:6">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="389" ht="30" spans="1:6">
       <c r="A389" s="3" t="s">
-        <v>1365</v>
+        <v>1458</v>
       </c>
       <c r="B389" s="4">
         <v>0</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="3" t="s">
-        <v>1366</v>
+        <v>1459</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>1367</v>
+        <v>1460</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>1368</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="390" ht="30" spans="1:6">
       <c r="A390" s="3" t="s">
-        <v>1369</v>
+        <v>1462</v>
       </c>
       <c r="B390" s="4">
         <v>0</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="3" t="s">
-        <v>1370</v>
+        <v>1463</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>1371</v>
+        <v>1464</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="391" ht="30" spans="1:6">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="391" ht="31.5" spans="1:6">
       <c r="A391" s="3" t="s">
-        <v>1373</v>
+        <v>1466</v>
       </c>
       <c r="B391" s="4">
         <v>0</v>
       </c>
       <c r="C391" s="4"/>
       <c r="D391" s="3" t="s">
-        <v>1374</v>
+        <v>1467</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>1375</v>
+        <v>1468</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>1376</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="392" ht="30" spans="1:6">
       <c r="A392" s="3" t="s">
-        <v>1377</v>
+        <v>1470</v>
       </c>
       <c r="B392" s="4">
         <v>0</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="3" t="s">
-        <v>1378</v>
+        <v>1471</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>1379</v>
+        <v>1472</v>
       </c>
       <c r="F392" s="6" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="393" ht="30" spans="1:6">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="393" ht="31.5" spans="1:6">
       <c r="A393" s="3" t="s">
-        <v>1381</v>
+        <v>1474</v>
       </c>
       <c r="B393" s="4">
         <v>0</v>
       </c>
       <c r="C393" s="4"/>
       <c r="D393" s="3" t="s">
-        <v>1382</v>
+        <v>1475</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>1383</v>
+        <v>1476</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="394" ht="30" spans="1:6">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="394" ht="31.5" spans="1:6">
       <c r="A394" s="3" t="s">
-        <v>1385</v>
+        <v>1478</v>
       </c>
       <c r="B394" s="4">
         <v>0</v>
       </c>
       <c r="C394" s="4"/>
       <c r="D394" s="3" t="s">
-        <v>1386</v>
+        <v>1479</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>1387</v>
+        <v>1480</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="395" ht="31.5" spans="1:6">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="395" ht="38.25" customHeight="1" spans="1:6">
       <c r="A395" s="3" t="s">
-        <v>1389</v>
+        <v>1482</v>
       </c>
       <c r="B395" s="4">
         <v>0</v>
       </c>
       <c r="C395" s="4"/>
       <c r="D395" s="3" t="s">
-        <v>1390</v>
+        <v>1483</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>1391</v>
+        <v>1484</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>1392</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="396" ht="30" spans="1:6">
       <c r="A396" s="3" t="s">
-        <v>1393</v>
+        <v>1486</v>
       </c>
       <c r="B396" s="4">
         <v>0</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="3" t="s">
-        <v>1394</v>
+        <v>1487</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>1395</v>
+        <v>1488</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="397" ht="31.5" spans="1:6">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="397" ht="30" spans="1:6">
       <c r="A397" s="3" t="s">
-        <v>1397</v>
+        <v>1490</v>
       </c>
       <c r="B397" s="4">
         <v>0</v>
       </c>
       <c r="C397" s="4"/>
       <c r="D397" s="3" t="s">
-        <v>1398</v>
+        <v>1491</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>1399</v>
+        <v>1492</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="398" ht="31.5" spans="1:6">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="398" ht="45.75" customHeight="1" spans="1:6">
       <c r="A398" s="3" t="s">
-        <v>1401</v>
+        <v>1494</v>
       </c>
       <c r="B398" s="4">
         <v>0</v>
       </c>
       <c r="C398" s="4"/>
       <c r="D398" s="3" t="s">
-        <v>1402</v>
+        <v>1495</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>1403</v>
+        <v>1496</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="399" ht="38.25" customHeight="1" spans="1:6">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="399" ht="30" spans="1:6">
       <c r="A399" s="3" t="s">
-        <v>1405</v>
+        <v>1498</v>
       </c>
       <c r="B399" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="3" t="s">
-        <v>1406</v>
+        <v>1499</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>1407</v>
+        <v>1500</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>1408</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="400" ht="30" spans="1:6">
       <c r="A400" s="3" t="s">
-        <v>1409</v>
+        <v>1502</v>
       </c>
       <c r="B400" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C400" s="4"/>
       <c r="D400" s="3" t="s">
-        <v>1410</v>
+        <v>1503</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>1411</v>
+        <v>1504</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>1412</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="401" ht="30" spans="1:6">
       <c r="A401" s="3" t="s">
-        <v>1413</v>
+        <v>1506</v>
       </c>
       <c r="B401" s="4">
         <v>0</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="3" t="s">
-        <v>1414</v>
+        <v>1507</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>1415</v>
+        <v>1508</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="402" ht="45.75" customHeight="1" spans="1:6">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="402" ht="15.75" spans="1:6">
       <c r="A402" s="3" t="s">
-        <v>1417</v>
+        <v>1510</v>
       </c>
       <c r="B402" s="4">
         <v>0</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="3" t="s">
-        <v>1418</v>
+        <v>1511</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>1419</v>
+        <v>1512</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>1420</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="403" ht="30" spans="1:6">
       <c r="A403" s="3" t="s">
-        <v>1421</v>
+        <v>1514</v>
       </c>
       <c r="B403" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="3" t="s">
-        <v>1422</v>
+        <v>1515</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>1423</v>
+        <v>1516</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="404" ht="30" spans="1:6">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="404" ht="37.5" customHeight="1" spans="1:6">
       <c r="A404" s="3" t="s">
-        <v>1425</v>
+        <v>1518</v>
       </c>
       <c r="B404" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C404" s="4"/>
       <c r="D404" s="3" t="s">
-        <v>1426</v>
+        <v>1519</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>1427</v>
+        <v>1520</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="405" ht="30" spans="1:6">
-      <c r="A405" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B405" s="4">
-        <v>0</v>
-      </c>
-      <c r="C405" s="4"/>
-      <c r="D405" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E405" s="6" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F405" s="6" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="406" ht="15.75" spans="1:6">
-      <c r="A406" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B406" s="4">
-        <v>0</v>
-      </c>
-      <c r="C406" s="4"/>
-      <c r="D406" s="3" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E406" s="6" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F406" s="6" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="407" ht="30" spans="1:6">
-      <c r="A407" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B407" s="4">
-        <v>0</v>
-      </c>
-      <c r="C407" s="4"/>
-      <c r="D407" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E407" s="6" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F407" s="6" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="408" ht="37.5" customHeight="1" spans="1:6">
-      <c r="A408" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B408" s="4">
-        <v>0</v>
-      </c>
-      <c r="C408" s="4"/>
-      <c r="D408" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="E408" s="6" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F408" s="6" t="s">
-        <v>1444</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F408">
-    <sortState ref="A2:F408">
+  <autoFilter ref="A2:F404">
+    <sortState ref="A2:F404">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/英语词库/magoosh1000.xlsx
+++ b/英语词库/magoosh1000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="22680" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
@@ -3818,6 +3818,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">应用app落lo入别的公司，我们要 </t>
     </r>
     <r>
@@ -3849,6 +3854,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Apollo 跳gee 是这首歌的 </t>
     </r>
     <r>
@@ -3870,6 +3880,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">阿波罗apo的这the哥g们m句句都是 </t>
     </r>
     <r>
@@ -3896,6 +3911,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">apollo有个理论theo关于死si神s 是怎么被 </t>
     </r>
     <r>
@@ -3933,6 +3953,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">app应用中 你的ur房客tenant不过是 </t>
     </r>
     <r>
@@ -4467,6 +4492,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">你能can做到did </t>
     </r>
     <r>
@@ -4513,6 +4543,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>测ce试惹re得大脑brain 不高兴， 不</t>
     </r>
     <r>
@@ -4540,6 +4575,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>不是is贞洁的chaste人 就要受到</t>
     </r>
     <r>
@@ -4566,6 +4606,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">检查员检查过的， 发现他过去是个 </t>
     </r>
     <r>
@@ -4630,6 +4675,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">恶e人客ke气地 </t>
     </r>
     <r>
@@ -4665,6 +4715,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">一a个不no会致死dy的 </t>
     </r>
     <r>
@@ -4711,6 +4766,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Apollo声明state自己要背叛 当</t>
     </r>
     <r>
@@ -4752,6 +4812,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">咆哮rant过度，到 </t>
     </r>
     <r>
@@ -4783,6 +4848,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">到达arrive街景vista参观时， 就像个 </t>
     </r>
     <r>
@@ -4809,6 +4879,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>蚂蚁ant很自大arrogant, 吃饭时要都要</t>
     </r>
     <r>
@@ -4843,6 +4918,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">art狡猾词根想出一个如果if使用冰冻的 </t>
     </r>
     <r>
@@ -5407,6 +5487,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">正在成为一个 </t>
     </r>
     <r>
@@ -5474,6 +5559,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>他要做个拱门不是在</t>
     </r>
     <r>
@@ -5500,6 +5590,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">同样as在一边side </t>
     </r>
     <r>
@@ -5534,6 +5629,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">反对averse当好色se之徒，他t选择 </t>
     </r>
     <r>
@@ -5587,6 +5687,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>乞求你不要再说这问题了， 我</t>
     </r>
     <r>
@@ -5613,6 +5718,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">你的举止behave </t>
     </r>
     <r>
@@ -5777,23 +5887,29 @@
   </si>
   <si>
     <r>
-      <t>狗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 还会去 </t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 还会去 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>追赶 丑女人 卑鄙的人</t>
     </r>
   </si>
@@ -5811,6 +5927,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">上升ascend到某个状态， 就是 </t>
     </r>
     <r>
@@ -6777,10 +6898,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -6810,9 +6931,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6826,37 +6954,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6870,19 +6975,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6901,13 +7020,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6916,16 +7028,9 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6934,6 +7039,22 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6993,7 +7114,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7005,7 +7144,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7017,43 +7198,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7065,7 +7246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7077,67 +7276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7149,31 +7294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7184,30 +7305,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7235,27 +7332,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7278,8 +7382,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7293,6 +7399,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7301,10 +7422,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7313,137 +7434,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7463,9 +7584,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7824,9 +7942,9 @@
   <dimension ref="A1:G404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7845,11 +7963,11 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(B2:B3080)/(COUNT(B2:B3080)-1)/10</f>
-        <v>0.184039900249377</v>
+        <v>0.184788029925187</v>
       </c>
       <c r="C1" s="5" t="str">
         <f>"基本掌握: "&amp;D1&amp;"; 完全不会:"&amp;F1&amp;" 模糊:"&amp;E1</f>
-        <v>基本掌握: 43; 完全不会:248 模糊:360</v>
+        <v>基本掌握: 43; 完全不会:247 模糊:360</v>
       </c>
       <c r="D1" s="1">
         <f>COUNTIF(B:B,"&gt;=6")</f>
@@ -7861,7 +7979,7 @@
       </c>
       <c r="F1" s="1">
         <f>COUNTIF(B:B,"&lt;2")</f>
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -9276,7 +9394,7 @@
         <v>315</v>
       </c>
       <c r="B80" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
@@ -12214,7 +12332,7 @@
       <c r="B250" s="5">
         <v>2</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="1" t="s">
         <v>933</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -12234,7 +12352,7 @@
       <c r="B251" s="5">
         <v>2</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="1" t="s">
         <v>937</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -12254,7 +12372,7 @@
       <c r="B252" s="5">
         <v>2</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="1" t="s">
         <v>940</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -12274,7 +12392,7 @@
       <c r="B253" s="5">
         <v>2</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="1" t="s">
         <v>945</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -12294,7 +12412,7 @@
       <c r="B254" s="5">
         <v>2</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="1" t="s">
         <v>950</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -12826,7 +12944,7 @@
       <c r="B284" s="5">
         <v>3</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="D284" s="1" t="s">
@@ -12864,7 +12982,7 @@
       <c r="B286" s="5">
         <v>3</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="1" t="s">
         <v>1075</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -12884,7 +13002,7 @@
       <c r="B287" s="5">
         <v>3</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="D287" s="1" t="s">
@@ -12904,7 +13022,7 @@
       <c r="B288" s="5">
         <v>3</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="1" t="s">
         <v>1085</v>
       </c>
       <c r="D288" s="1" t="s">
@@ -12964,7 +13082,7 @@
       <c r="B291" s="5">
         <v>3</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="D291" s="1" t="s">
@@ -12984,7 +13102,7 @@
       <c r="B292" s="5">
         <v>3</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="D292" s="1" t="s">
@@ -13004,7 +13122,7 @@
       <c r="B293" s="5">
         <v>3</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="D293" s="1" t="s">
@@ -13044,7 +13162,7 @@
       <c r="B295" s="5">
         <v>3</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="D295" s="1" t="s">
@@ -13064,7 +13182,7 @@
       <c r="B296" s="5">
         <v>3</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="1" t="s">
         <v>1124</v>
       </c>
       <c r="D296" s="1" t="s">
@@ -13084,7 +13202,7 @@
       <c r="B297" s="5">
         <v>3</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="D297" s="1" t="s">
@@ -13104,7 +13222,7 @@
       <c r="B298" s="5">
         <v>3</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="D298" s="1" t="s">
@@ -13606,7 +13724,7 @@
       <c r="B326" s="5">
         <v>4</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="1" t="s">
         <v>1244</v>
       </c>
       <c r="D326" s="1" t="s">
@@ -13626,7 +13744,7 @@
       <c r="B327" s="5">
         <v>4</v>
       </c>
-      <c r="C327" s="8" t="s">
+      <c r="C327" s="7" t="s">
         <v>1249</v>
       </c>
       <c r="D327" s="1" t="s">
@@ -13666,7 +13784,7 @@
       <c r="B329" s="5">
         <v>4</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="1" t="s">
         <v>1259</v>
       </c>
       <c r="D329" s="1" t="s">
@@ -13686,7 +13804,7 @@
       <c r="B330" s="5">
         <v>4</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="D330" s="1" t="s">
@@ -13706,7 +13824,7 @@
       <c r="B331" s="5">
         <v>4</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C331" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="D331" s="1" t="s">
@@ -13726,7 +13844,7 @@
       <c r="B332" s="5">
         <v>4</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C332" s="1" t="s">
         <v>1274</v>
       </c>
       <c r="D332" s="1" t="s">
@@ -13746,7 +13864,7 @@
       <c r="B333" s="5">
         <v>4</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C333" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="D333" s="1" t="s">
@@ -13892,7 +14010,7 @@
       <c r="B341" s="5">
         <v>5</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="8" t="s">
         <v>1312</v>
       </c>
       <c r="D341" s="1" t="s">
@@ -13912,7 +14030,7 @@
       <c r="B342" s="5">
         <v>5</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C342" s="1" t="s">
         <v>1317</v>
       </c>
       <c r="D342" s="1" t="s">
@@ -15035,7 +15153,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F404">
-    <sortState ref="A3:F404">
+    <sortState ref="A2:F404">
       <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>

--- a/英语词库/magoosh1000.xlsx
+++ b/英语词库/magoosh1000.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="22680" windowHeight="9930"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598">
   <si>
     <t>记忆进度</t>
   </si>
@@ -1185,6 +1185,10 @@
     <t>fete</t>
   </si>
   <si>
+    <t>n. 祭祀；庆祝；节日；游乐会
+vt. 宴请；招待</t>
+  </si>
+  <si>
     <t>verb: to celebrate a person</t>
   </si>
   <si>
@@ -1194,6 +1198,9 @@
     <t>finagle</t>
   </si>
   <si>
+    <t>v. 欺瞒；哄骗</t>
+  </si>
+  <si>
     <t>verb: achieve something by means of trickery or devious methods</t>
   </si>
   <si>
@@ -1203,6 +1210,9 @@
     <t>firebrand</t>
   </si>
   <si>
+    <t>n. 火把；煽动叛乱者；放火者</t>
+  </si>
+  <si>
     <t>noun: someone who deliberately creates trouble</t>
   </si>
   <si>
@@ -1212,6 +1222,9 @@
     <t>flippant</t>
   </si>
   <si>
+    <t>adj. 轻率的；嘴碎的；没礼貌的</t>
+  </si>
+  <si>
     <t>adjective: showing inappropriate levity</t>
   </si>
   <si>
@@ -1231,6 +1244,9 @@
   </si>
   <si>
     <t>forthcoming</t>
+  </si>
+  <si>
+    <t>adj. 即将来临的</t>
   </si>
   <si>
     <t>adjective: available when required or as promised
@@ -1244,6 +1260,9 @@
     <t>fractious</t>
   </si>
   <si>
+    <t>adj. 易怒的；倔强的，难以对待的</t>
+  </si>
+  <si>
     <t>adjective: irritable and is likely to cause disruption</t>
   </si>
   <si>
@@ -1265,6 +1284,11 @@
     <t>guffaw</t>
   </si>
   <si>
+    <t>n. 哄笑；狂笑
+vi. 哄笑
+vt. 大笑着</t>
+  </si>
+  <si>
     <t>verb: laugh boisterously</t>
   </si>
   <si>
@@ -1274,6 +1298,9 @@
     <t>gumption</t>
   </si>
   <si>
+    <t>n. 进取心；气概；精力</t>
+  </si>
+  <si>
     <t>noun: resourcefulness and determination</t>
   </si>
   <si>
@@ -1283,6 +1310,9 @@
     <t>hagiographic</t>
   </si>
   <si>
+    <t>理想化(或偶像化)的</t>
+  </si>
+  <si>
     <t>adjective: excessively flattering toward someone's life or work</t>
   </si>
   <si>
@@ -1292,6 +1322,9 @@
     <t>hamstrung</t>
   </si>
   <si>
+    <t>v. 残废</t>
+  </si>
+  <si>
     <t>verb: made ineffective or powerless</t>
   </si>
   <si>
@@ -1301,6 +1334,10 @@
     <t>harried</t>
   </si>
   <si>
+    <t>adj. 被掠夺的；受折磨的
+v. 烦扰；掠夺；强使前进</t>
+  </si>
+  <si>
     <t>adjective: troubled persistently especially with petty annoyances</t>
   </si>
   <si>
@@ -1346,6 +1383,9 @@
     <t>ignoble</t>
   </si>
   <si>
+    <t>adj. 不光彩的；卑鄙的；卑贱</t>
+  </si>
+  <si>
     <t>adjective: dishonorable</t>
   </si>
   <si>
@@ -1364,6 +1404,9 @@
     <t>implausible</t>
   </si>
   <si>
+    <t>adj. 难以置信的，不像真实的</t>
+  </si>
+  <si>
     <t>adjective: describing a statement that is not believable</t>
   </si>
   <si>
@@ -1373,6 +1416,10 @@
     <t>imponderable</t>
   </si>
   <si>
+    <t>adj. 无重量的；无法计算的
+n. 无法衡量的事物</t>
+  </si>
+  <si>
     <t>adjective: impossible to estimate or figure out</t>
   </si>
   <si>
@@ -1526,6 +1573,9 @@
     <t>inviolate</t>
   </si>
   <si>
+    <t>adj. 无污点的；未亵渎的，未受侵犯的</t>
+  </si>
+  <si>
     <t>adjective: must be kept sacred</t>
   </si>
   <si>
@@ -1553,6 +1603,9 @@
     <t>irresolute</t>
   </si>
   <si>
+    <t>adj. 优柔寡断的；踌躇不定的；无决断的</t>
+  </si>
+  <si>
     <t>adjective: uncertain how to act or proceed</t>
   </si>
   <si>
@@ -1616,6 +1669,12 @@
     <t>largess</t>
   </si>
   <si>
+    <t>大的large 慷慨赠予</t>
+  </si>
+  <si>
+    <t>n. 慷慨的赠予；赠品</t>
+  </si>
+  <si>
     <t>noun: extreme generosity and giving</t>
   </si>
   <si>
@@ -1632,6 +1691,9 @@
   </si>
   <si>
     <t>laudable</t>
+  </si>
+  <si>
+    <t>adj. 值得赞赏的</t>
   </si>
   <si>
     <t>adjective: worthy of high praise</t>
@@ -3684,6 +3746,11 @@
     <t>flummox</t>
   </si>
   <si>
+    <t>n. 失败
+vt. 使狼狈；使混乱；使惶惑
+vi. 出现错误；失败</t>
+  </si>
+  <si>
     <t>verb: be a mystery or bewildering to</t>
   </si>
   <si>
@@ -3693,6 +3760,9 @@
     <t>flux</t>
   </si>
   <si>
+    <t>流量；变迁；不稳定；流出</t>
+  </si>
+  <si>
     <t>noun: a state of uncertainty about what should be done (usually following some important event)</t>
   </si>
   <si>
@@ -3743,6 +3813,9 @@
   </si>
   <si>
     <t>maxim</t>
+  </si>
+  <si>
+    <t>n. 格言；准则；座右铭</t>
   </si>
   <si>
     <t>noun: a short saying expressing a general truth</t>
@@ -4249,6 +4322,11 @@
     <t>ferret</t>
   </si>
   <si>
+    <t>vt. 搜出，查获；驱出；用雪貂猎取
+vi. 搜索，侦破
+n. 雪貂；白鼬；侦探</t>
+  </si>
+  <si>
     <t>verb: to search for something persistently</t>
   </si>
   <si>
@@ -4258,6 +4336,10 @@
     <t>glean</t>
   </si>
   <si>
+    <t>vt. 收集（资料）；拾（落穗）
+vi. 收集；拾落穗</t>
+  </si>
+  <si>
     <t>verb: collect information bit by bit</t>
   </si>
   <si>
@@ -4267,6 +4349,9 @@
     <t>hail</t>
   </si>
   <si>
+    <t>冰雹；致敬；招呼；一阵</t>
+  </si>
+  <si>
     <t>verb: enthusiastically acclaim or celebrate something</t>
   </si>
   <si>
@@ -4276,6 +4361,10 @@
     <t>hound</t>
   </si>
   <si>
+    <t>vt. 追猎；烦扰；激励
+n. 猎犬；卑劣的人</t>
+  </si>
+  <si>
     <t>verb: to pursue relentlessly</t>
   </si>
   <si>
@@ -4285,6 +4374,9 @@
     <t>iconoclastic</t>
   </si>
   <si>
+    <t>adj. 打破旧习的；偶像破坏的</t>
+  </si>
+  <si>
     <t>adjective: defying tradition or convention</t>
   </si>
   <si>
@@ -4294,6 +4386,9 @@
     <t>incongruous</t>
   </si>
   <si>
+    <t>adj. 不协调的；不一致的；不和谐的</t>
+  </si>
+  <si>
     <t>adjective: lacking in harmony or compatibility or appropriateness</t>
   </si>
   <si>
@@ -4301,6 +4396,9 @@
   </si>
   <si>
     <t>juxtapose</t>
+  </si>
+  <si>
+    <t>vt. 并列；并置</t>
   </si>
   <si>
     <t>verb: place side by side</t>
@@ -5173,6 +5271,9 @@
     <t>factitious</t>
   </si>
   <si>
+    <t>adj. 人为的，人工的；不自然的；虚假的</t>
+  </si>
+  <si>
     <t>adjective: artificial; not natural</t>
   </si>
   <si>
@@ -5182,6 +5283,9 @@
     <t>fleece</t>
   </si>
   <si>
+    <t>n. 羊毛 vt. 欺诈，剥削</t>
+  </si>
+  <si>
     <t>verb: to deceive</t>
   </si>
   <si>
@@ -5191,6 +5295,9 @@
     <t>fortuitous</t>
   </si>
   <si>
+    <t>adj. 偶然的，意外的；幸运的</t>
+  </si>
+  <si>
     <t>adjective: occurring by happy chance; having no cause or apparent cause</t>
   </si>
   <si>
@@ -5198,6 +5305,9 @@
   </si>
   <si>
     <t>indifference</t>
+  </si>
+  <si>
+    <t>n. 漠不关心；冷淡；不重视</t>
   </si>
   <si>
     <t>noun: the trait of seeming not to care</t>
@@ -5856,6 +5966,9 @@
     <t>impermeable</t>
   </si>
   <si>
+    <t>adj. 不渗透性的；（对水等）不能渗透的</t>
+  </si>
+  <si>
     <t>adjective: does not allow fluids to pass through</t>
   </si>
   <si>
@@ -5863,6 +5976,9 @@
   </si>
   <si>
     <t>impregnable</t>
+  </si>
+  <si>
+    <t>adj. 无法攻取的；不受影响的；要塞坚固的</t>
   </si>
   <si>
     <t>adjective: immune to attack; incapable of being tampered with</t>
@@ -6126,6 +6242,9 @@
     <t>foolhardy</t>
   </si>
   <si>
+    <t>adj. 有勇无谋的；蛮干</t>
+  </si>
+  <si>
     <t>adjective: marked by defiant disregard for danger or consequences</t>
   </si>
   <si>
@@ -6133,6 +6252,9 @@
   </si>
   <si>
     <t>heyday</t>
+  </si>
+  <si>
+    <t>n. 全盛期</t>
   </si>
   <si>
     <t>noun: the pinnacle or top of a time period or career</t>
@@ -6376,6 +6498,9 @@
     <t>impartial</t>
   </si>
   <si>
+    <t>adj. 公平的，公正的；不偏不倚的</t>
+  </si>
+  <si>
     <t>adjective: free from undue bias or preconceived opinions</t>
   </si>
   <si>
@@ -6449,6 +6574,9 @@
     <t>implicate</t>
   </si>
   <si>
+    <t>vt. 使卷入；涉及；暗指；影响</t>
+  </si>
+  <si>
     <t>verb: convey a meaning; imply
 verb: to indicate in wrongdoing, usually a crime</t>
   </si>
@@ -6557,6 +6685,9 @@
   </si>
   <si>
     <t>impute</t>
+  </si>
+  <si>
+    <t>vt. 归罪于，归咎于；嫁祸于</t>
   </si>
   <si>
     <t>verb: attribute (responsibility or fault) to something</t>
@@ -6898,10 +7029,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -6931,8 +7062,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6954,6 +7086,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6967,59 +7121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -7028,9 +7129,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7046,15 +7147,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7114,25 +7245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7150,13 +7275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7168,13 +7299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7192,13 +7329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7210,19 +7347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7234,31 +7365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7276,25 +7401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7305,6 +7436,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7333,39 +7473,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -7376,17 +7483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7414,6 +7510,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7422,10 +7553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7434,133 +7565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7942,9 +8073,9 @@
   <dimension ref="A1:G404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7963,23 +8094,23 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(B2:B3080)/(COUNT(B2:B3080)-1)/10</f>
-        <v>0.184788029925187</v>
+        <v>0.196508728179551</v>
       </c>
       <c r="C1" s="5" t="str">
         <f>"基本掌握: "&amp;D1&amp;"; 完全不会:"&amp;F1&amp;" 模糊:"&amp;E1</f>
-        <v>基本掌握: 43; 完全不会:247 模糊:360</v>
+        <v>基本掌握: 44; 完全不会:234 模糊:359</v>
       </c>
       <c r="D1" s="1">
         <f>COUNTIF(B:B,"&gt;=6")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1">
         <f>COUNTIF(B:B,"&lt;=5")</f>
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="1">
         <f>COUNTIF(B:B,"&lt;2")</f>
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -9415,213 +9546,235 @@
         <v>0</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
       </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B85" s="5">
         <v>0</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B86" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B91" s="5">
         <v>0</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B92" s="5">
         <v>0</v>
       </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B93" s="5">
         <v>0</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B94" s="5">
         <v>0</v>
@@ -9629,15 +9782,15 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -9645,15 +9798,15 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -9661,15 +9814,15 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -9677,31 +9830,33 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B98" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
@@ -9709,47 +9864,51 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -9757,15 +9916,15 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
@@ -9773,15 +9932,15 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -9789,15 +9948,15 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -9805,15 +9964,15 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
@@ -9821,15 +9980,15 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
@@ -9837,15 +9996,15 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
@@ -9853,15 +10012,15 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
@@ -9869,15 +10028,15 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
@@ -9885,15 +10044,15 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
@@ -9901,15 +10060,15 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
@@ -9917,15 +10076,15 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
@@ -9933,31 +10092,31 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B114" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
@@ -9965,15 +10124,15 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B116" s="5">
         <v>0</v>
@@ -9981,15 +10140,15 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -9997,31 +10156,33 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
       </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="E118" s="1" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
@@ -10029,15 +10190,15 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
@@ -10045,31 +10206,33 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B122" s="5">
         <v>0</v>
@@ -10077,15 +10240,15 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
@@ -10093,15 +10256,15 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -10109,15 +10272,15 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
@@ -10125,15 +10288,15 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
@@ -10141,15 +10304,15 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
@@ -10157,31 +10320,35 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="B128" s="5">
-        <v>0</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="E128" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
@@ -10189,31 +10356,33 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B130" s="5">
         <v>0</v>
       </c>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="E130" s="1" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -10221,15 +10390,15 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
@@ -10237,15 +10406,15 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -10253,15 +10422,15 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -10269,33 +10438,33 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="B135" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
@@ -10303,15 +10472,15 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
@@ -10319,15 +10488,15 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
@@ -10335,15 +10504,15 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
@@ -10351,15 +10520,15 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
@@ -10367,15 +10536,15 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
@@ -10383,15 +10552,15 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
@@ -10399,15 +10568,15 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -10415,951 +10584,951 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="B147" s="5">
         <v>0</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" ht="18" customHeight="1" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="B148" s="5">
         <v>0</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="B149" s="5">
         <v>0</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="B152" s="5">
         <v>0</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" ht="18" customHeight="1" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B159" s="5">
         <v>0</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="B160" s="5">
         <v>0</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="B161" s="5">
         <v>0</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="162" ht="18" customHeight="1" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B162" s="5">
         <v>0</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="163" ht="18" customHeight="1" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="B163" s="5">
         <v>0</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="B165" s="5">
         <v>0</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B166" s="5">
         <v>0</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="B168" s="5">
         <v>0</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:6">
       <c r="A170" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="B170" s="5">
         <v>0</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="B171" s="5">
         <v>0</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" ht="18" customHeight="1" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="B172" s="5">
         <v>0</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="173" ht="18" customHeight="1" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="B173" s="5">
         <v>0</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" ht="18" customHeight="1" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="B174" s="5">
         <v>0</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
     </row>
     <row r="175" ht="18" customHeight="1" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="B175" s="5">
         <v>0</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="B176" s="5">
         <v>0</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="B177" s="5">
         <v>0</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="B179" s="5">
         <v>0</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="B180" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="B181" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="B182" s="5">
         <v>0</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="B183" s="5">
         <v>0</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
     </row>
     <row r="184" ht="18" customHeight="1" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" ht="18" customHeight="1" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="B185" s="5">
         <v>0</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:6">
       <c r="A186" s="1" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="B186" s="5">
         <v>0</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:6">
       <c r="A187" s="1" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="B187" s="5">
         <v>0</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:6">
       <c r="A188" s="1" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="B188" s="5">
         <v>0</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:6">
       <c r="A189" s="1" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="B189" s="5">
         <v>0</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:6">
       <c r="A190" s="1" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="B190" s="5">
         <v>0</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="B191" s="5">
         <v>0</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B192" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
     </row>
     <row r="194" ht="18" customHeight="1" spans="1:6">
       <c r="A194" s="1" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="195" ht="18" customHeight="1" spans="1:6">
       <c r="A195" s="1" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="B195" s="5">
         <v>0</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:6">
       <c r="A196" s="1" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
@@ -11369,2321 +11538,2349 @@
         <v>32</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:6">
       <c r="A197" s="1" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="B197" s="5">
         <v>0</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:6">
       <c r="A198" s="1" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B198" s="5">
         <v>0</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199" ht="18" customHeight="1" spans="1:6">
       <c r="A199" s="1" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="B199" s="5">
         <v>0</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="200" ht="18" customHeight="1" spans="1:6">
       <c r="A200" s="1" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="B200" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
     </row>
     <row r="201" ht="18" customHeight="1" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="B201" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:6">
       <c r="A202" s="1" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="B202" s="5">
         <v>0</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="B203" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="B204" s="5">
         <v>0</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="B205" s="5">
         <v>0</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="B206" s="5">
         <v>0</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
     </row>
     <row r="207" ht="18" customHeight="1" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="B207" s="5">
         <v>0</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
     </row>
     <row r="208" ht="18" customHeight="1" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="B208" s="5">
         <v>0</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="B209" s="5">
         <v>0</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="B210" s="5">
         <v>0</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="B211" s="5">
         <v>0</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
     </row>
     <row r="212" ht="18" customHeight="1" spans="1:6">
       <c r="A212" s="1" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="B212" s="5">
         <v>0</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
     </row>
     <row r="213" ht="18" customHeight="1" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="B213" s="5">
         <v>0</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
     </row>
     <row r="214" ht="18" customHeight="1" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="B214" s="5">
         <v>0</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="B215" s="5">
         <v>0</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="B216" s="5">
         <v>0</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="B217" s="5">
         <v>0</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="B218" s="5">
         <v>0</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:6">
       <c r="A219" s="1" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="B219" s="5">
         <v>0</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:6">
       <c r="A220" s="1" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="B220" s="5">
         <v>0</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
     </row>
     <row r="221" ht="18" customHeight="1" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="B221" s="5">
         <v>0</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:6">
       <c r="A222" s="1" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="B222" s="5">
         <v>0</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:6">
       <c r="A223" s="1" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="B223" s="5">
         <v>0</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:6">
       <c r="A224" s="1" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="B224" s="5">
         <v>0</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
     </row>
     <row r="225" ht="18" customHeight="1" spans="1:6">
       <c r="A225" s="1" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="B225" s="5">
         <v>0</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
     </row>
     <row r="226" ht="18" customHeight="1" spans="1:6">
       <c r="A226" s="1" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="B226" s="5">
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:6">
       <c r="A227" s="1" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="B227" s="5">
         <v>1</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:6">
       <c r="A228" s="1" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="B228" s="5">
         <v>1</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:6">
       <c r="A229" s="1" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="B229" s="5">
         <v>1</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
     </row>
     <row r="230" ht="18" customHeight="1" spans="1:6">
       <c r="A230" s="1" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="B230" s="5">
         <v>1</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="231" ht="18" customHeight="1" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="B231" s="5">
         <v>1</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
     </row>
     <row r="232" ht="18" customHeight="1" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="B232" s="5">
         <v>1</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="B233" s="5">
         <v>1</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="B234" s="5">
         <v>1</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="B235" s="5">
         <v>1</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="B236" s="5">
         <v>1</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="B237" s="5">
         <v>1</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
     </row>
     <row r="238" ht="18" customHeight="1" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="B238" s="5">
         <v>1</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
     </row>
     <row r="239" ht="18" customHeight="1" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="B239" s="5">
         <v>1</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="B240" s="5">
         <v>1</v>
       </c>
       <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="D240" s="7" t="s">
+        <v>915</v>
+      </c>
       <c r="E240" s="1" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="B241" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>919</v>
+      </c>
       <c r="E241" s="1" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:6">
       <c r="A242" s="1" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="B242" s="5">
         <v>1</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>903</v>
+        <v>924</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
     </row>
     <row r="243" ht="18" customHeight="1" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="B243" s="5">
         <v>1</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
     </row>
     <row r="244" ht="18" customHeight="1" spans="1:6">
       <c r="A244" s="1" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="B244" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>931</v>
+      </c>
       <c r="E244" s="1" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
     </row>
     <row r="245" ht="18" customHeight="1" spans="1:6">
       <c r="A245" s="1" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="B245" s="5">
         <v>1</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
     </row>
     <row r="246" ht="18" customHeight="1" spans="1:6">
       <c r="A246" s="1" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="B246" s="5">
         <v>1</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:6">
       <c r="A247" s="1" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="B247" s="5">
         <v>1</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>923</v>
+        <v>945</v>
       </c>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="B248" s="5">
         <v>1</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="B249" s="5">
         <v>1</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="B250" s="5">
         <v>2</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>936</v>
+        <v>958</v>
       </c>
       <c r="B251" s="5">
         <v>2</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:6">
       <c r="A252" s="1" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
       <c r="B253" s="5">
         <v>2</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="B254" s="5">
         <v>2</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="B255" s="5">
         <v>2</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
     </row>
     <row r="256" ht="18" customHeight="1" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="B256" s="5">
         <v>2</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:6">
       <c r="A257" s="1" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="B257" s="5">
         <v>2</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:6">
       <c r="A258" s="1" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="B258" s="5">
         <v>2</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:6">
       <c r="A259" s="1" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="B259" s="5">
         <v>2</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:6">
       <c r="A260" s="1" t="s">
-        <v>976</v>
+        <v>998</v>
       </c>
       <c r="B260" s="5">
         <v>2</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
-        <v>977</v>
+        <v>999</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>978</v>
+        <v>1000</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>980</v>
+        <v>1002</v>
       </c>
       <c r="B261" s="5">
         <v>2</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>983</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:6">
       <c r="A262" s="1" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="B262" s="5">
         <v>2</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>986</v>
+        <v>1008</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>987</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="263" ht="18" customHeight="1" spans="1:6">
       <c r="A263" s="1" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
       <c r="B263" s="5">
         <v>2</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1" t="s">
-        <v>989</v>
+        <v>1011</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>990</v>
+        <v>1012</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>991</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="264" ht="18" customHeight="1" spans="1:6">
       <c r="A264" s="1" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="B264" s="5">
         <v>2</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>995</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:6">
       <c r="A265" s="1" t="s">
-        <v>996</v>
+        <v>1018</v>
       </c>
       <c r="B265" s="5">
         <v>2</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1" t="s">
-        <v>997</v>
+        <v>1019</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>999</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:6">
       <c r="A266" s="1" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="B266" s="5">
         <v>2</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1" t="s">
-        <v>1001</v>
+        <v>1023</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1003</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:6">
       <c r="A267" s="1" t="s">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B267" s="5">
         <v>2</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1" t="s">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1006</v>
+        <v>1028</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1007</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:6">
       <c r="A268" s="1" t="s">
-        <v>1008</v>
+        <v>1030</v>
       </c>
       <c r="B268" s="5">
         <v>2</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1" t="s">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1011</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:6">
       <c r="A269" s="1" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="B269" s="5">
         <v>2</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:6">
       <c r="A270" s="1" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
       <c r="B270" s="5">
         <v>2</v>
       </c>
       <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
+      <c r="D270" s="7" t="s">
+        <v>1039</v>
+      </c>
       <c r="E270" s="1" t="s">
-        <v>1017</v>
+        <v>1040</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1018</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="B271" s="5">
         <v>2</v>
       </c>
       <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
+      <c r="D271" s="7" t="s">
+        <v>1043</v>
+      </c>
       <c r="E271" s="1" t="s">
-        <v>1020</v>
+        <v>1044</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1021</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="272" ht="18" customHeight="1" spans="1:6">
       <c r="A272" s="1" t="s">
-        <v>1022</v>
+        <v>1046</v>
       </c>
       <c r="B272" s="5">
         <v>2</v>
       </c>
       <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>1047</v>
+      </c>
       <c r="E272" s="1" t="s">
-        <v>1023</v>
+        <v>1048</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1024</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="B273" s="5">
         <v>2</v>
       </c>
       <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="D273" s="7" t="s">
+        <v>1051</v>
+      </c>
       <c r="E273" s="1" t="s">
-        <v>1026</v>
+        <v>1052</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1027</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>1028</v>
+        <v>1054</v>
       </c>
       <c r="B274" s="5">
         <v>2</v>
       </c>
       <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>1055</v>
+      </c>
       <c r="E274" s="1" t="s">
-        <v>1029</v>
+        <v>1056</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>1031</v>
+        <v>1058</v>
       </c>
       <c r="B275" s="5">
         <v>2</v>
       </c>
       <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
+      <c r="D275" s="7" t="s">
+        <v>1059</v>
+      </c>
       <c r="E275" s="1" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="B276" s="5">
         <v>2</v>
       </c>
       <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
+      <c r="D276" s="1" t="s">
+        <v>1063</v>
+      </c>
       <c r="E276" s="1" t="s">
-        <v>1035</v>
+        <v>1064</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1036</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>1037</v>
+        <v>1066</v>
       </c>
       <c r="B277" s="5">
         <v>2</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1" t="s">
-        <v>1038</v>
+        <v>1067</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1039</v>
+        <v>1068</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:6">
       <c r="A278" s="1" t="s">
-        <v>1041</v>
+        <v>1070</v>
       </c>
       <c r="B278" s="5">
         <v>2</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1" t="s">
-        <v>1042</v>
+        <v>1071</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1043</v>
+        <v>1072</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1044</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:6">
       <c r="A279" s="1" t="s">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="B279" s="5">
         <v>2</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1047</v>
+        <v>1076</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1048</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:6">
       <c r="A280" s="1" t="s">
-        <v>1049</v>
+        <v>1078</v>
       </c>
       <c r="B280" s="5">
         <v>2</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1" t="s">
-        <v>1050</v>
+        <v>1079</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1051</v>
+        <v>1080</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>1053</v>
+        <v>1082</v>
       </c>
       <c r="B281" s="5">
         <v>2</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1" t="s">
-        <v>1054</v>
+        <v>1083</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1055</v>
+        <v>1084</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1056</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="282" ht="18" customHeight="1" spans="1:6">
       <c r="A282" s="1" t="s">
-        <v>1057</v>
+        <v>1086</v>
       </c>
       <c r="B282" s="5">
         <v>2</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1060</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="283" ht="18" customHeight="1" spans="1:6">
       <c r="A283" s="1" t="s">
-        <v>1061</v>
+        <v>1090</v>
       </c>
       <c r="B283" s="5">
         <v>2</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1" t="s">
-        <v>1062</v>
+        <v>1091</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1063</v>
+        <v>1092</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="284" ht="18" customHeight="1" spans="1:6">
       <c r="A284" s="1" t="s">
-        <v>1065</v>
+        <v>1094</v>
       </c>
       <c r="B284" s="5">
         <v>3</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1066</v>
+        <v>1095</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1067</v>
+        <v>1096</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1068</v>
+        <v>1097</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1069</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="285" ht="18" customHeight="1" spans="1:6">
       <c r="A285" s="1" t="s">
-        <v>1070</v>
+        <v>1099</v>
       </c>
       <c r="B285" s="5">
         <v>3</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1" t="s">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1072</v>
+        <v>1101</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="286" ht="18" customHeight="1" spans="1:6">
       <c r="A286" s="1" t="s">
-        <v>1074</v>
+        <v>1103</v>
       </c>
       <c r="B286" s="5">
         <v>3</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1075</v>
+        <v>1104</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1076</v>
+        <v>1105</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1077</v>
+        <v>1106</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="287" ht="18" customHeight="1" spans="1:6">
       <c r="A287" s="1" t="s">
-        <v>1079</v>
+        <v>1108</v>
       </c>
       <c r="B287" s="5">
         <v>3</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1080</v>
+        <v>1109</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1081</v>
+        <v>1110</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1083</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="288" ht="18" customHeight="1" spans="1:6">
       <c r="A288" s="1" t="s">
-        <v>1084</v>
+        <v>1113</v>
       </c>
       <c r="B288" s="5">
         <v>3</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1085</v>
+        <v>1114</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1087</v>
+        <v>1116</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1088</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:6">
       <c r="A289" s="1" t="s">
-        <v>1089</v>
+        <v>1118</v>
       </c>
       <c r="B289" s="5">
         <v>3</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1091</v>
+        <v>1120</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1092</v>
+        <v>1121</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1093</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:6">
       <c r="A290" s="1" t="s">
-        <v>1094</v>
+        <v>1123</v>
       </c>
       <c r="B290" s="5">
         <v>3</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="B291" s="5">
         <v>3</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1102</v>
+        <v>1131</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1103</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:6">
       <c r="A292" s="1" t="s">
-        <v>1104</v>
+        <v>1133</v>
       </c>
       <c r="B292" s="5">
         <v>3</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1105</v>
+        <v>1134</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1106</v>
+        <v>1135</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1107</v>
+        <v>1136</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:6">
       <c r="A293" s="1" t="s">
-        <v>1109</v>
+        <v>1138</v>
       </c>
       <c r="B293" s="5">
         <v>3</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1110</v>
+        <v>1139</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1111</v>
+        <v>1140</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1112</v>
+        <v>1141</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1113</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="294" ht="18" customHeight="1" spans="1:6">
       <c r="A294" s="1" t="s">
-        <v>1114</v>
+        <v>1143</v>
       </c>
       <c r="B294" s="5">
         <v>3</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1115</v>
+        <v>1144</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1116</v>
+        <v>1145</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1117</v>
+        <v>1146</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="295" ht="18" customHeight="1" spans="1:6">
       <c r="A295" s="1" t="s">
-        <v>1119</v>
+        <v>1148</v>
       </c>
       <c r="B295" s="5">
         <v>3</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1120</v>
+        <v>1149</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1121</v>
+        <v>1150</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1122</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="296" ht="18" customHeight="1" spans="1:6">
       <c r="A296" s="1" t="s">
-        <v>1123</v>
+        <v>1152</v>
       </c>
       <c r="B296" s="5">
         <v>3</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1125</v>
+        <v>1154</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1126</v>
+        <v>1155</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1127</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:6">
       <c r="A297" s="1" t="s">
-        <v>1128</v>
+        <v>1157</v>
       </c>
       <c r="B297" s="5">
         <v>3</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1129</v>
+        <v>1158</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1130</v>
+        <v>1159</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1131</v>
+        <v>1160</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1132</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:6">
       <c r="A298" s="1" t="s">
-        <v>1133</v>
+        <v>1162</v>
       </c>
       <c r="B298" s="5">
         <v>3</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1134</v>
+        <v>1163</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1135</v>
+        <v>1164</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1136</v>
+        <v>1165</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:6">
       <c r="A299" s="1" t="s">
-        <v>1138</v>
+        <v>1167</v>
       </c>
       <c r="B299" s="5">
         <v>3</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
-        <v>1139</v>
+        <v>1168</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1140</v>
+        <v>1169</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:6">
       <c r="A300" s="1" t="s">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="B300" s="5">
         <v>3</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1145</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>1146</v>
+        <v>1175</v>
       </c>
       <c r="B301" s="5">
         <v>3</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1147</v>
+        <v>1176</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1148</v>
+        <v>1177</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1149</v>
+        <v>1178</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1150</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:6">
       <c r="A302" s="1" t="s">
-        <v>1151</v>
+        <v>1180</v>
       </c>
       <c r="B302" s="5">
         <v>3</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1152</v>
+        <v>1181</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1153</v>
+        <v>1182</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1154</v>
+        <v>1183</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1155</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:6">
       <c r="A303" s="1" t="s">
-        <v>1156</v>
+        <v>1185</v>
       </c>
       <c r="B303" s="5">
         <v>3</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1158</v>
+        <v>1187</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1159</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:6">
       <c r="A304" s="1" t="s">
-        <v>1160</v>
+        <v>1189</v>
       </c>
       <c r="B304" s="5">
         <v>3</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1162</v>
+        <v>1191</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1163</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:6">
       <c r="A305" s="1" t="s">
-        <v>1164</v>
+        <v>1193</v>
       </c>
       <c r="B305" s="5">
         <v>3</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>1165</v>
+        <v>1194</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1166</v>
+        <v>1195</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1167</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:6">
       <c r="A306" s="1" t="s">
-        <v>1168</v>
+        <v>1197</v>
       </c>
       <c r="B306" s="5">
         <v>3</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
-        <v>1169</v>
+        <v>1198</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1170</v>
+        <v>1199</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1171</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:6">
       <c r="A307" s="1" t="s">
-        <v>1172</v>
+        <v>1201</v>
       </c>
       <c r="B307" s="5">
         <v>3</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1174</v>
+        <v>1203</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1175</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:6">
       <c r="A308" s="1" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="B308" s="5">
         <v>3</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
-        <v>1177</v>
+        <v>1206</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1178</v>
+        <v>1207</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1179</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="309" ht="18" customHeight="1" spans="1:6">
       <c r="A309" s="1" t="s">
-        <v>1180</v>
+        <v>1209</v>
       </c>
       <c r="B309" s="5">
         <v>3</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
-        <v>1181</v>
+        <v>1210</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1182</v>
+        <v>1211</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1183</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="310" ht="18" customHeight="1" spans="1:6">
       <c r="A310" s="1" t="s">
-        <v>1184</v>
+        <v>1213</v>
       </c>
       <c r="B310" s="5">
         <v>3</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>1185</v>
+        <v>1214</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1186</v>
+        <v>1215</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1187</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>1188</v>
+        <v>1217</v>
       </c>
       <c r="B311" s="5">
         <v>3</v>
       </c>
       <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
+      <c r="D311" s="1" t="s">
+        <v>1218</v>
+      </c>
       <c r="E311" s="1" t="s">
-        <v>1189</v>
+        <v>1219</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1190</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:6">
       <c r="A312" s="1" t="s">
-        <v>1191</v>
+        <v>1221</v>
       </c>
       <c r="B312" s="5">
         <v>3</v>
       </c>
       <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
+      <c r="D312" s="7" t="s">
+        <v>1222</v>
+      </c>
       <c r="E312" s="1" t="s">
-        <v>1192</v>
+        <v>1223</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1193</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:6">
       <c r="A313" s="1" t="s">
-        <v>1194</v>
+        <v>1225</v>
       </c>
       <c r="B313" s="5">
         <v>3</v>
       </c>
       <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
+      <c r="D313" s="1" t="s">
+        <v>1226</v>
+      </c>
       <c r="E313" s="1" t="s">
-        <v>1195</v>
+        <v>1227</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1196</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:6">
       <c r="A314" s="1" t="s">
-        <v>1197</v>
+        <v>1229</v>
       </c>
       <c r="B314" s="5">
         <v>3</v>
       </c>
       <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
+      <c r="D314" s="1" t="s">
+        <v>1230</v>
+      </c>
       <c r="E314" s="1" t="s">
-        <v>1198</v>
+        <v>1231</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1199</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:6">
       <c r="A315" s="1" t="s">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="B315" s="5">
         <v>3</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1" t="s">
-        <v>1201</v>
+        <v>1234</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1202</v>
+        <v>1235</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1203</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:6">
       <c r="A316" s="1" t="s">
-        <v>1204</v>
+        <v>1237</v>
       </c>
       <c r="B316" s="5">
         <v>3</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>1205</v>
+        <v>1238</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1206</v>
+        <v>1239</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1207</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:6">
       <c r="A317" s="1" t="s">
-        <v>1208</v>
+        <v>1241</v>
       </c>
       <c r="B317" s="5">
         <v>3</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>1209</v>
+        <v>1242</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1210</v>
+        <v>1243</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1211</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:6">
       <c r="A318" s="1" t="s">
-        <v>1212</v>
+        <v>1245</v>
       </c>
       <c r="B318" s="5">
         <v>3</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>1213</v>
+        <v>1246</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1214</v>
+        <v>1247</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1215</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="319" ht="18" customHeight="1" spans="1:6">
       <c r="A319" s="1" t="s">
-        <v>1216</v>
+        <v>1249</v>
       </c>
       <c r="B319" s="5">
         <v>3</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>1217</v>
+        <v>1250</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1218</v>
+        <v>1251</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1219</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="320" ht="18" customHeight="1" spans="1:6">
       <c r="A320" s="1" t="s">
-        <v>1220</v>
+        <v>1253</v>
       </c>
       <c r="B320" s="5">
         <v>3</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>1221</v>
+        <v>1254</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1222</v>
+        <v>1255</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1223</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>1224</v>
+        <v>1257</v>
       </c>
       <c r="B321" s="5">
         <v>3</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>1225</v>
+        <v>1258</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1226</v>
+        <v>1259</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1227</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:6">
       <c r="A322" s="1" t="s">
-        <v>1228</v>
+        <v>1261</v>
       </c>
       <c r="B322" s="5">
         <v>3</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>1229</v>
+        <v>1262</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1230</v>
+        <v>1263</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1231</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:6">
       <c r="A323" s="1" t="s">
-        <v>1232</v>
+        <v>1265</v>
       </c>
       <c r="B323" s="5">
         <v>3</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>1233</v>
+        <v>1266</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1234</v>
+        <v>1267</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1235</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:6">
       <c r="A324" s="1" t="s">
-        <v>1236</v>
+        <v>1269</v>
       </c>
       <c r="B324" s="5">
         <v>3</v>
@@ -13693,359 +13890,363 @@
         <v>148</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1237</v>
+        <v>1270</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1238</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:6">
       <c r="A325" s="1" t="s">
-        <v>1239</v>
+        <v>1272</v>
       </c>
       <c r="B325" s="5">
         <v>3</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>1240</v>
+        <v>1273</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1241</v>
+        <v>1274</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1242</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:6">
       <c r="A326" s="1" t="s">
-        <v>1243</v>
+        <v>1276</v>
       </c>
       <c r="B326" s="5">
         <v>4</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1244</v>
+        <v>1277</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1245</v>
+        <v>1278</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1246</v>
+        <v>1279</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1247</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:6">
       <c r="A327" s="1" t="s">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="B327" s="5">
         <v>4</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>1249</v>
+        <v>1282</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1250</v>
+        <v>1283</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1251</v>
+        <v>1284</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1252</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:6">
       <c r="A328" s="1" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="B328" s="5">
         <v>4</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1255</v>
+        <v>1288</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1256</v>
+        <v>1289</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1257</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="329" ht="18" customHeight="1" spans="1:6">
       <c r="A329" s="1" t="s">
-        <v>1258</v>
+        <v>1291</v>
       </c>
       <c r="B329" s="5">
         <v>4</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1259</v>
+        <v>1292</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1260</v>
+        <v>1293</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1261</v>
+        <v>1294</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1262</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="330" ht="18" customHeight="1" spans="1:6">
       <c r="A330" s="1" t="s">
-        <v>1263</v>
+        <v>1296</v>
       </c>
       <c r="B330" s="5">
         <v>4</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1264</v>
+        <v>1297</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1265</v>
+        <v>1298</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1266</v>
+        <v>1299</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1267</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:6">
       <c r="A331" s="1" t="s">
-        <v>1268</v>
+        <v>1301</v>
       </c>
       <c r="B331" s="5">
         <v>4</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1269</v>
+        <v>1302</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1270</v>
+        <v>1303</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1271</v>
+        <v>1304</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1272</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:6">
       <c r="A332" s="1" t="s">
-        <v>1273</v>
+        <v>1306</v>
       </c>
       <c r="B332" s="5">
         <v>4</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1275</v>
+        <v>1308</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1276</v>
+        <v>1309</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:6">
       <c r="A333" s="1" t="s">
-        <v>1278</v>
+        <v>1311</v>
       </c>
       <c r="B333" s="5">
         <v>4</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1279</v>
+        <v>1312</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1281</v>
+        <v>1314</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1282</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:6">
       <c r="A334" s="1" t="s">
-        <v>1283</v>
+        <v>1316</v>
       </c>
       <c r="B334" s="5">
         <v>4</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1285</v>
+        <v>1318</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:6">
       <c r="A335" s="1" t="s">
-        <v>1287</v>
+        <v>1320</v>
       </c>
       <c r="B335" s="5">
         <v>4</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1291</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:6">
       <c r="A336" s="1" t="s">
-        <v>1292</v>
+        <v>1325</v>
       </c>
       <c r="B336" s="5">
         <v>4</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1294</v>
+        <v>1327</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1296</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:6">
       <c r="A337" s="1" t="s">
-        <v>1297</v>
+        <v>1330</v>
       </c>
       <c r="B337" s="5">
         <v>4</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
-        <v>1298</v>
+        <v>1331</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1300</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:6">
       <c r="A338" s="1" t="s">
-        <v>1301</v>
+        <v>1334</v>
       </c>
       <c r="B338" s="5">
         <v>4</v>
       </c>
       <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>1335</v>
+      </c>
       <c r="E338" s="1" t="s">
-        <v>1302</v>
+        <v>1336</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1303</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="339" ht="18" customHeight="1" spans="1:6">
       <c r="A339" s="1" t="s">
-        <v>1304</v>
+        <v>1338</v>
       </c>
       <c r="B339" s="5">
         <v>4</v>
       </c>
       <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>1339</v>
+      </c>
       <c r="E339" s="1" t="s">
-        <v>1305</v>
+        <v>1340</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1306</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="340" ht="18" customHeight="1" spans="1:6">
       <c r="A340" s="1" t="s">
-        <v>1307</v>
+        <v>1342</v>
       </c>
       <c r="B340" s="5">
         <v>4</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1" t="s">
-        <v>1308</v>
+        <v>1343</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1309</v>
+        <v>1344</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1310</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="341" ht="18" customHeight="1" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>1311</v>
+        <v>1346</v>
       </c>
       <c r="B341" s="5">
         <v>5</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>1312</v>
+        <v>1347</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1313</v>
+        <v>1348</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1314</v>
+        <v>1349</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1315</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:6">
       <c r="A342" s="1" t="s">
-        <v>1316</v>
+        <v>1351</v>
       </c>
       <c r="B342" s="5">
         <v>5</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1317</v>
+        <v>1352</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1318</v>
+        <v>1353</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1319</v>
+        <v>1354</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1320</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:6">
       <c r="A343" s="1" t="s">
-        <v>1321</v>
+        <v>1356</v>
       </c>
       <c r="B343" s="5">
         <v>5</v>
@@ -14055,321 +14256,325 @@
         <v>184</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1322</v>
+        <v>1357</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1323</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:6">
       <c r="A344" s="1" t="s">
-        <v>1324</v>
+        <v>1359</v>
       </c>
       <c r="B344" s="5">
         <v>5</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1325</v>
+        <v>1360</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1326</v>
+        <v>1361</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1327</v>
+        <v>1362</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1328</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:6">
       <c r="A345" s="1" t="s">
-        <v>1329</v>
+        <v>1364</v>
       </c>
       <c r="B345" s="5">
         <v>5</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1330</v>
+        <v>1365</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1331</v>
+        <v>1366</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1332</v>
+        <v>1367</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1333</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:6">
       <c r="A346" s="1" t="s">
-        <v>1334</v>
+        <v>1369</v>
       </c>
       <c r="B346" s="5">
         <v>5</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1" t="s">
-        <v>1335</v>
+        <v>1370</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1336</v>
+        <v>1371</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1337</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:6">
       <c r="A347" s="1" t="s">
-        <v>1338</v>
+        <v>1373</v>
       </c>
       <c r="B347" s="5">
         <v>5</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1" t="s">
-        <v>1339</v>
+        <v>1374</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1340</v>
+        <v>1375</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1341</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:6">
       <c r="A348" s="1" t="s">
-        <v>1342</v>
+        <v>1377</v>
       </c>
       <c r="B348" s="5">
         <v>5</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1" t="s">
-        <v>1343</v>
+        <v>1378</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1344</v>
+        <v>1379</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1345</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:6">
       <c r="A349" s="1" t="s">
-        <v>1346</v>
+        <v>1381</v>
       </c>
       <c r="B349" s="5">
         <v>5</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1" t="s">
-        <v>1347</v>
+        <v>1382</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1348</v>
+        <v>1383</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1349</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:6">
       <c r="A350" s="1" t="s">
-        <v>1350</v>
+        <v>1385</v>
       </c>
       <c r="B350" s="5">
         <v>5</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1" t="s">
-        <v>1351</v>
+        <v>1386</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1352</v>
+        <v>1387</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1353</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>1354</v>
+        <v>1389</v>
       </c>
       <c r="B351" s="5">
         <v>5</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1" t="s">
-        <v>1355</v>
+        <v>1390</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1356</v>
+        <v>1391</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1357</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:6">
       <c r="A352" s="1" t="s">
-        <v>1358</v>
+        <v>1393</v>
       </c>
       <c r="B352" s="5">
         <v>5</v>
       </c>
       <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
+      <c r="D352" s="1" t="s">
+        <v>1394</v>
+      </c>
       <c r="E352" s="1" t="s">
-        <v>1359</v>
+        <v>1395</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1360</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="353" ht="18" customHeight="1" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>1361</v>
+        <v>1397</v>
       </c>
       <c r="B353" s="5">
         <v>5</v>
       </c>
       <c r="C353" s="1"/>
-      <c r="D353" s="1"/>
+      <c r="D353" s="1" t="s">
+        <v>1398</v>
+      </c>
       <c r="E353" s="1" t="s">
-        <v>1362</v>
+        <v>1399</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1363</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="354" ht="18" customHeight="1" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>1364</v>
+        <v>1401</v>
       </c>
       <c r="B354" s="5">
         <v>5</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1" t="s">
-        <v>1365</v>
+        <v>1402</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1366</v>
+        <v>1403</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1367</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="355" ht="18" customHeight="1" spans="1:6">
       <c r="A355" s="1" t="s">
-        <v>1368</v>
+        <v>1405</v>
       </c>
       <c r="B355" s="5">
         <v>5</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1" t="s">
-        <v>1369</v>
+        <v>1406</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1370</v>
+        <v>1407</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1371</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="356" ht="18" customHeight="1" spans="1:6">
       <c r="A356" s="1" t="s">
-        <v>1372</v>
+        <v>1409</v>
       </c>
       <c r="B356" s="5">
         <v>5</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1" t="s">
-        <v>1373</v>
+        <v>1410</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1374</v>
+        <v>1411</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1375</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="357" ht="18" customHeight="1" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>1376</v>
+        <v>1413</v>
       </c>
       <c r="B357" s="5">
         <v>5</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1" t="s">
-        <v>1377</v>
+        <v>1414</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1378</v>
+        <v>1415</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1379</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="358" ht="18" customHeight="1" spans="1:6">
       <c r="A358" s="1" t="s">
-        <v>1380</v>
+        <v>1417</v>
       </c>
       <c r="B358" s="5">
         <v>5</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1" t="s">
-        <v>1381</v>
+        <v>1418</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1382</v>
+        <v>1419</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1383</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="359" ht="18" customHeight="1" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>1384</v>
+        <v>1421</v>
       </c>
       <c r="B359" s="5">
         <v>5</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1" t="s">
-        <v>1385</v>
+        <v>1422</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1386</v>
+        <v>1423</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1387</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="360" ht="18" customHeight="1" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>1388</v>
+        <v>1425</v>
       </c>
       <c r="B360" s="5">
         <v>5</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1" t="s">
-        <v>1389</v>
+        <v>1426</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1390</v>
+        <v>1427</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1391</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="361" ht="18" customHeight="1" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>1392</v>
+        <v>1429</v>
       </c>
       <c r="B361" s="5">
         <v>5</v>
@@ -14379,285 +14584,289 @@
         <v>68</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1393</v>
+        <v>1430</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1394</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="362" ht="18" customHeight="1" spans="1:6">
       <c r="A362" s="1" t="s">
-        <v>1395</v>
+        <v>1432</v>
       </c>
       <c r="B362" s="5">
         <v>6</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1396</v>
+        <v>1433</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>989</v>
+        <v>1011</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1397</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="363" ht="18" customHeight="1" spans="1:6">
       <c r="A363" s="1" t="s">
-        <v>1398</v>
+        <v>1435</v>
       </c>
       <c r="B363" s="5">
         <v>6</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1" t="s">
-        <v>1399</v>
+        <v>1436</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1400</v>
+        <v>1437</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1401</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="364" ht="18" customHeight="1" spans="1:6">
       <c r="A364" s="1" t="s">
-        <v>1402</v>
+        <v>1439</v>
       </c>
       <c r="B364" s="5">
         <v>6</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1403</v>
+        <v>1440</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1404</v>
+        <v>1441</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1405</v>
+        <v>1442</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1406</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="365" ht="18" customHeight="1" spans="1:6">
       <c r="A365" s="1" t="s">
-        <v>1407</v>
+        <v>1444</v>
       </c>
       <c r="B365" s="5">
         <v>6</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1" t="s">
-        <v>1408</v>
+        <v>1445</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1409</v>
+        <v>1446</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1410</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="366" ht="18" customHeight="1" spans="1:6">
       <c r="A366" s="1" t="s">
-        <v>1411</v>
+        <v>1448</v>
       </c>
       <c r="B366" s="5">
         <v>6</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1" t="s">
-        <v>1412</v>
+        <v>1449</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1413</v>
+        <v>1450</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1414</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="367" ht="18" customHeight="1" spans="1:6">
       <c r="A367" s="1" t="s">
-        <v>1415</v>
+        <v>1452</v>
       </c>
       <c r="B367" s="5">
         <v>6</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1" t="s">
-        <v>1245</v>
+        <v>1278</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1416</v>
+        <v>1453</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1417</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="368" ht="18" customHeight="1" spans="1:6">
       <c r="A368" s="1" t="s">
-        <v>1418</v>
+        <v>1455</v>
       </c>
       <c r="B368" s="5">
         <v>6</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1" t="s">
-        <v>1419</v>
+        <v>1456</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1420</v>
+        <v>1457</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1421</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="369" ht="18" customHeight="1" spans="1:6">
       <c r="A369" s="1" t="s">
-        <v>1422</v>
+        <v>1459</v>
       </c>
       <c r="B369" s="5">
         <v>6</v>
       </c>
       <c r="C369" s="1"/>
-      <c r="D369" s="1"/>
+      <c r="D369" s="1" t="s">
+        <v>1460</v>
+      </c>
       <c r="E369" s="1" t="s">
-        <v>1423</v>
+        <v>1461</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1424</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="370" ht="18" customHeight="1" spans="1:6">
       <c r="A370" s="1" t="s">
-        <v>1425</v>
+        <v>1463</v>
       </c>
       <c r="B370" s="5">
         <v>6</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1" t="s">
-        <v>1426</v>
+        <v>1464</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1427</v>
+        <v>1465</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1428</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="371" ht="18" customHeight="1" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>1429</v>
+        <v>1467</v>
       </c>
       <c r="B371" s="5">
         <v>6</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1" t="s">
-        <v>1430</v>
+        <v>1468</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1431</v>
+        <v>1469</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1432</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="372" ht="18" customHeight="1" spans="1:6">
       <c r="A372" s="1" t="s">
-        <v>1433</v>
+        <v>1471</v>
       </c>
       <c r="B372" s="5">
         <v>7</v>
       </c>
       <c r="C372" s="1"/>
-      <c r="D372" s="1"/>
+      <c r="D372" s="1" t="s">
+        <v>1472</v>
+      </c>
       <c r="E372" s="1" t="s">
-        <v>1434</v>
+        <v>1473</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1435</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="373" ht="18" customHeight="1" spans="1:6">
       <c r="A373" s="1" t="s">
-        <v>1436</v>
+        <v>1475</v>
       </c>
       <c r="B373" s="5">
         <v>7</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1" t="s">
-        <v>1437</v>
+        <v>1476</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1438</v>
+        <v>1477</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1439</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="374" ht="18" customHeight="1" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1440</v>
+        <v>1479</v>
       </c>
       <c r="B374" s="5">
         <v>8</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1" t="s">
-        <v>1441</v>
+        <v>1480</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1442</v>
+        <v>1481</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1443</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="375" ht="18" customHeight="1" spans="1:6">
       <c r="A375" s="1" t="s">
-        <v>1444</v>
+        <v>1483</v>
       </c>
       <c r="B375" s="5">
         <v>8</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1" t="s">
-        <v>1445</v>
+        <v>1484</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1446</v>
+        <v>1485</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1447</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="376" ht="18" customHeight="1" spans="1:6">
       <c r="A376" s="1" t="s">
-        <v>1448</v>
+        <v>1487</v>
       </c>
       <c r="B376" s="5">
         <v>8</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1449</v>
+        <v>1488</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1450</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="377" ht="18" customHeight="1" spans="1:6">
       <c r="A377" s="1" t="s">
-        <v>1451</v>
+        <v>1490</v>
       </c>
       <c r="B377" s="5">
         <v>8</v>
@@ -14667,391 +14876,393 @@
         <v>84</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1452</v>
+        <v>1491</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1453</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="378" ht="18" customHeight="1" spans="1:6">
       <c r="A378" s="1" t="s">
-        <v>1454</v>
+        <v>1493</v>
       </c>
       <c r="B378" s="5">
         <v>8</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1" t="s">
-        <v>1455</v>
+        <v>1494</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1456</v>
+        <v>1495</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1457</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="379" ht="18" customHeight="1" spans="1:6">
       <c r="A379" s="1" t="s">
-        <v>1458</v>
+        <v>1497</v>
       </c>
       <c r="B379" s="5">
         <v>8</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1" t="s">
-        <v>1459</v>
+        <v>1498</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1460</v>
+        <v>1499</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1461</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="380" ht="18" customHeight="1" spans="1:6">
       <c r="A380" s="1" t="s">
-        <v>1462</v>
+        <v>1501</v>
       </c>
       <c r="B380" s="5">
         <v>8</v>
       </c>
       <c r="C380" s="1"/>
-      <c r="D380" s="1"/>
+      <c r="D380" s="1" t="s">
+        <v>1502</v>
+      </c>
       <c r="E380" s="1" t="s">
-        <v>1463</v>
+        <v>1503</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1464</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="381" ht="18" customHeight="1" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>1465</v>
+        <v>1505</v>
       </c>
       <c r="B381" s="5">
         <v>8</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1" t="s">
-        <v>1466</v>
+        <v>1506</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1467</v>
+        <v>1507</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1468</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="382" ht="18" customHeight="1" spans="1:6">
       <c r="A382" s="1" t="s">
-        <v>1469</v>
+        <v>1509</v>
       </c>
       <c r="B382" s="5">
         <v>8</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1" t="s">
-        <v>1470</v>
+        <v>1510</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1471</v>
+        <v>1511</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1472</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="383" ht="18" customHeight="1" spans="1:6">
       <c r="A383" s="1" t="s">
-        <v>1473</v>
+        <v>1513</v>
       </c>
       <c r="B383" s="5">
         <v>8</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1" t="s">
-        <v>1474</v>
+        <v>1514</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1475</v>
+        <v>1515</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1476</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="384" ht="18" customHeight="1" spans="1:6">
       <c r="A384" s="1" t="s">
-        <v>1477</v>
+        <v>1517</v>
       </c>
       <c r="B384" s="5">
         <v>8</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1" t="s">
-        <v>1478</v>
+        <v>1518</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1479</v>
+        <v>1519</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1480</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="385" ht="18" customHeight="1" spans="1:6">
       <c r="A385" s="1" t="s">
-        <v>1481</v>
+        <v>1521</v>
       </c>
       <c r="B385" s="5">
         <v>8</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1" t="s">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1483</v>
+        <v>1523</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1484</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="386" ht="18" customHeight="1" spans="1:6">
       <c r="A386" s="1" t="s">
-        <v>1485</v>
+        <v>1525</v>
       </c>
       <c r="B386" s="5">
         <v>8</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1" t="s">
-        <v>1486</v>
+        <v>1526</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1487</v>
+        <v>1527</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1488</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="387" ht="18" customHeight="1" spans="1:6">
       <c r="A387" s="1" t="s">
-        <v>1489</v>
+        <v>1529</v>
       </c>
       <c r="B387" s="5">
         <v>9</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1" t="s">
-        <v>1490</v>
+        <v>1530</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1491</v>
+        <v>1531</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1492</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="388" ht="18" customHeight="1" spans="1:6">
       <c r="A388" s="1" t="s">
-        <v>1493</v>
+        <v>1533</v>
       </c>
       <c r="B388" s="5">
         <v>9</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1" t="s">
-        <v>1494</v>
+        <v>1534</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1495</v>
+        <v>1535</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1496</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="389" ht="18" customHeight="1" spans="1:6">
       <c r="A389" s="1" t="s">
-        <v>1497</v>
+        <v>1537</v>
       </c>
       <c r="B389" s="5">
         <v>9</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1" t="s">
-        <v>1498</v>
+        <v>1538</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1499</v>
+        <v>1539</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1500</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="390" ht="18" customHeight="1" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>1501</v>
+        <v>1541</v>
       </c>
       <c r="B390" s="5">
         <v>10</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1" t="s">
-        <v>1502</v>
+        <v>1542</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1503</v>
+        <v>1543</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1504</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="391" ht="18" customHeight="1" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>1505</v>
+        <v>1545</v>
       </c>
       <c r="B391" s="5">
         <v>10</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1" t="s">
-        <v>1506</v>
+        <v>1546</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1507</v>
+        <v>1547</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1508</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="392" ht="18" customHeight="1" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>1509</v>
+        <v>1549</v>
       </c>
       <c r="B392" s="5">
         <v>10</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1" t="s">
-        <v>1510</v>
+        <v>1550</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1511</v>
+        <v>1551</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1512</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="393" ht="18" customHeight="1" spans="1:6">
       <c r="A393" s="1" t="s">
-        <v>1513</v>
+        <v>1553</v>
       </c>
       <c r="B393" s="5">
         <v>10</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1" t="s">
-        <v>1514</v>
+        <v>1554</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1515</v>
+        <v>1555</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1516</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="394" ht="18" customHeight="1" spans="1:6">
       <c r="A394" s="1" t="s">
-        <v>1517</v>
+        <v>1557</v>
       </c>
       <c r="B394" s="5">
         <v>10</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1" t="s">
-        <v>1518</v>
+        <v>1558</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1519</v>
+        <v>1559</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1520</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="395" ht="18" customHeight="1" spans="1:6">
       <c r="A395" s="1" t="s">
-        <v>1521</v>
+        <v>1561</v>
       </c>
       <c r="B395" s="5">
         <v>10</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1" t="s">
-        <v>1522</v>
+        <v>1562</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1523</v>
+        <v>1563</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1524</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="396" ht="18" customHeight="1" spans="1:6">
       <c r="A396" s="1" t="s">
-        <v>1525</v>
+        <v>1565</v>
       </c>
       <c r="B396" s="5">
         <v>10</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1" t="s">
-        <v>1526</v>
+        <v>1566</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1527</v>
+        <v>1567</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1528</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="397" ht="18" customHeight="1" spans="1:6">
       <c r="A397" s="1" t="s">
-        <v>1529</v>
+        <v>1569</v>
       </c>
       <c r="B397" s="5">
         <v>10</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1" t="s">
-        <v>1530</v>
+        <v>1570</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1531</v>
+        <v>1571</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1532</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="398" ht="18" customHeight="1" spans="1:6">
       <c r="A398" s="1" t="s">
-        <v>1533</v>
+        <v>1573</v>
       </c>
       <c r="B398" s="5">
         <v>10</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1" t="s">
-        <v>1534</v>
+        <v>1574</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1535</v>
+        <v>1575</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1536</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="399" ht="18" customHeight="1" spans="1:6">
       <c r="A399" s="1" t="s">
-        <v>1537</v>
+        <v>1577</v>
       </c>
       <c r="B399" s="5">
         <v>10</v>
@@ -15059,15 +15270,15 @@
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1" t="s">
-        <v>1538</v>
+        <v>1578</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1539</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="400" ht="18" customHeight="1" spans="1:6">
       <c r="A400" s="1" t="s">
-        <v>1540</v>
+        <v>1580</v>
       </c>
       <c r="B400" s="5">
         <v>10</v>
@@ -15075,15 +15286,15 @@
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1" t="s">
-        <v>1541</v>
+        <v>1581</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1542</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="401" ht="18" customHeight="1" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>1543</v>
+        <v>1583</v>
       </c>
       <c r="B401" s="5">
         <v>10</v>
@@ -15091,64 +15302,64 @@
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1" t="s">
-        <v>1544</v>
+        <v>1584</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1545</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="402" ht="18" customHeight="1" spans="1:6">
       <c r="A402" s="1" t="s">
-        <v>1546</v>
+        <v>1586</v>
       </c>
       <c r="B402" s="5">
         <v>10</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1" t="s">
-        <v>1547</v>
+        <v>1587</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1548</v>
+        <v>1588</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1549</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="403" ht="18" customHeight="1" spans="1:6">
       <c r="A403" s="1" t="s">
-        <v>1550</v>
+        <v>1590</v>
       </c>
       <c r="B403" s="5">
         <v>10</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1" t="s">
-        <v>1551</v>
+        <v>1591</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1552</v>
+        <v>1592</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1553</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="404" ht="18" customHeight="1" spans="1:6">
       <c r="A404" s="1" t="s">
-        <v>1554</v>
+        <v>1594</v>
       </c>
       <c r="B404" s="5">
         <v>10</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1" t="s">
-        <v>1555</v>
+        <v>1595</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1556</v>
+        <v>1596</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1557</v>
+        <v>1597</v>
       </c>
     </row>
   </sheetData>

--- a/英语词库/magoosh1000.xlsx
+++ b/英语词库/magoosh1000.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647">
   <si>
     <t>记忆进度</t>
   </si>
@@ -1170,18 +1170,6 @@
     <t>The controversial bill proved factious, as dissension even within parties resulted</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>adj. 凶猛的；毁灭性的</t>
-  </si>
-  <si>
-    <t>adjective: terribly evil</t>
-  </si>
-  <si>
-    <t>For fans of the Harry Potter series, the fell Lord Voldemort, who terrorized poor Harry for seven lengthy installments, has finally been vanquished by the forces of good—unless, that is, JK Rowling decides to come out of retirement.</t>
-  </si>
-  <si>
     <t>fete</t>
   </si>
   <si>
@@ -1241,20 +1229,6 @@
   </si>
   <si>
     <t>After her third pet dog died, Marcia was simply forlorn: this time even the possibility of buying a new dog no longer held any joy.</t>
-  </si>
-  <si>
-    <t>forthcoming</t>
-  </si>
-  <si>
-    <t>adj. 即将来临的</t>
-  </si>
-  <si>
-    <t>adjective: available when required or as promised
-adjective: at ease in talking to others</t>
-  </si>
-  <si>
-    <t>The President announced that the senators were about to reach a compromise, and that he was eager to read the forthcoming details of the bill.
-As a husband, Larry was not forthcoming: if Jill didn't demand to know details, Larry would never share them with her.</t>
   </si>
   <si>
     <t>fractious</t>
@@ -1347,6 +1321,9 @@
     <t>haughty</t>
   </si>
   <si>
+    <t>adj. 傲慢的；自大的</t>
+  </si>
+  <si>
     <t>adjective: having or showing arrogant superiority to and disdain of those one views as unworthy</t>
   </si>
   <si>
@@ -1356,6 +1333,9 @@
     <t>hector</t>
   </si>
   <si>
+    <t>v. 威吓；愚弄</t>
+  </si>
+  <si>
     <t>verb: to bully or intimidate</t>
   </si>
   <si>
@@ -1365,6 +1345,9 @@
     <t>hedge</t>
   </si>
   <si>
+    <t>v. 用树篱笆围住；避免作正面答复</t>
+  </si>
+  <si>
     <t>verb: to limit or qualify a statement; to avoid making a direct statement</t>
   </si>
   <si>
@@ -1374,25 +1357,20 @@
     <t>heretic</t>
   </si>
   <si>
+    <t>n. 异教徒，异端者
+adj. 异端的；异教的</t>
+  </si>
+  <si>
     <t>noun: a person who holds unorthodox opinions in any field (not merely religion)</t>
   </si>
   <si>
     <t>Though everybody at the gym told Mikey to do cardio before weights, Mikey was a heretic and always did the reverse.</t>
   </si>
   <si>
-    <t>ignoble</t>
-  </si>
-  <si>
-    <t>adj. 不光彩的；卑鄙的；卑贱</t>
-  </si>
-  <si>
-    <t>adjective: dishonorable</t>
-  </si>
-  <si>
-    <t>In the 1920s, the World Series was rigged--an ignoble act which baseball took decades to recover from.</t>
-  </si>
-  <si>
     <t>ignominious</t>
+  </si>
+  <si>
+    <t>adj. 可耻的；下流的</t>
   </si>
   <si>
     <t>adjective: (used of conduct or character) deserving or bringing disgrace or shame</t>
@@ -1429,6 +1407,10 @@
     <t>importuned</t>
   </si>
   <si>
+    <t>vi. 强求；胡搅蛮缠
+vt. 强求；一再向某人要求</t>
+  </si>
+  <si>
     <t>verb: beg persistently and urgently</t>
   </si>
   <si>
@@ -1438,6 +1420,12 @@
     <t>improvident</t>
   </si>
   <si>
+    <t>provident</t>
+  </si>
+  <si>
+    <t>adj. 浪费的；无远见的；无先见之明的</t>
+  </si>
+  <si>
     <t>adjective: not given careful consideration</t>
   </si>
   <si>
@@ -1447,6 +1435,9 @@
     <t>inanity</t>
   </si>
   <si>
+    <t>n. 空虚；愚蠢；浅薄</t>
+  </si>
+  <si>
     <t>noun: total lack of meaning or ideas</t>
   </si>
   <si>
@@ -1456,6 +1447,9 @@
     <t>inarticulate</t>
   </si>
   <si>
+    <t>adj. 口齿不清的；说不出话的；[无脊椎] 无关节的</t>
+  </si>
+  <si>
     <t>adjective: without or deprived of the use of speech or words</t>
   </si>
   <si>
@@ -1465,6 +1459,12 @@
     <t>incisive</t>
   </si>
   <si>
+    <t>incise 刻，切</t>
+  </si>
+  <si>
+    <t>adj. 深刻的；敏锐的；锋利的</t>
+  </si>
+  <si>
     <t>adjective: having or demonstrating ability to recognize or draw fine distinctions</t>
   </si>
   <si>
@@ -1474,6 +1474,9 @@
     <t>indignant</t>
   </si>
   <si>
+    <t>adj. 愤愤不平的；义愤的</t>
+  </si>
+  <si>
     <t>adjective: feeling anger over a perceived injustice</t>
   </si>
   <si>
@@ -1483,6 +1486,9 @@
     <t>inequity</t>
   </si>
   <si>
+    <t>n. 不公平，不公正</t>
+  </si>
+  <si>
     <t>noun: injustice by virtue of not conforming with rules or standards</t>
   </si>
   <si>
@@ -1492,6 +1498,9 @@
     <t>inflammatory</t>
   </si>
   <si>
+    <t>adj. 炎症性的；煽动性的；激动的</t>
+  </si>
+  <si>
     <t>adjective: extremely controversial, incendiary</t>
   </si>
   <si>
@@ -1501,6 +1510,9 @@
     <t>inscrutable</t>
   </si>
   <si>
+    <t>adj. 神秘的；不可理解的；不能预测的；不可思议的</t>
+  </si>
+  <si>
     <t>adjective: not easily understood; unfathomable</t>
   </si>
   <si>
@@ -1510,6 +1522,9 @@
     <t>insidious</t>
   </si>
   <si>
+    <t>adj. 阴险的；隐伏的；暗中为害的；狡猾的</t>
+  </si>
+  <si>
     <t>adjective: working in a subtle but destructive way</t>
   </si>
   <si>
@@ -1519,6 +1534,10 @@
     <t>insolvent</t>
   </si>
   <si>
+    <t>n. 破产者；无力偿还者
+adj. 破产的；无力偿还的</t>
+  </si>
+  <si>
     <t>adjective: unable to pay one's bills; bankrupt</t>
   </si>
   <si>
@@ -1528,24 +1547,21 @@
     <t>insouciance</t>
   </si>
   <si>
+    <t>n. 无忧无虑；漫不经心；满不在乎</t>
+  </si>
+  <si>
     <t>noun: lack of concern</t>
   </si>
   <si>
     <t>Surprisingly, Hank had become a high-powered CEO; his high school friends remembered him as "Hanky Panky", who shrugged off each failed class with insouciance.</t>
   </si>
   <si>
-    <t>insufferable</t>
-  </si>
-  <si>
-    <t>adjective: intolerable, difficult to endure</t>
-  </si>
-  <si>
-    <t>Chester always tried to find some area in which he excelled above others; unsurprisingly, his co-workers found him insufferable and chose to exclude him from daily luncheons out.</t>
-  </si>
-  <si>
     <t>internecine</t>
   </si>
   <si>
+    <t>adj. 两败俱伤的；互相残杀的；致命的</t>
+  </si>
+  <si>
     <t>adjective: (of conflict) within a group or organization</t>
   </si>
   <si>
@@ -1555,6 +1571,9 @@
     <t>intimation</t>
   </si>
   <si>
+    <t>n. 暗示；告知；讽示</t>
+  </si>
+  <si>
     <t>noun: an indirect suggestion</t>
   </si>
   <si>
@@ -1564,6 +1583,9 @@
     <t>inviolable</t>
   </si>
   <si>
+    <t>adj. 不可侵犯的；神圣的；不可亵渎的</t>
+  </si>
+  <si>
     <t>adjective: never to be broken, infringed, or dishonored</t>
   </si>
   <si>
@@ -1585,6 +1607,10 @@
     <t>involved</t>
   </si>
   <si>
+    <t>adj. 有关的；卷入的；复杂的
+v. 涉及；使参与；包含（involve的过去式和过去分词）</t>
+  </si>
+  <si>
     <t>adjective: complicated, and difficult to comprehend</t>
   </si>
   <si>
@@ -1594,6 +1620,12 @@
     <t>irrefutable</t>
   </si>
   <si>
+    <t>refute</t>
+  </si>
+  <si>
+    <t>adj. 不能驳倒的；不能回答的</t>
+  </si>
+  <si>
     <t>adjective: impossible to deny or disprove</t>
   </si>
   <si>
@@ -1615,6 +1647,9 @@
     <t>irrevocable</t>
   </si>
   <si>
+    <t>adj. 不可改变的；不能取消的；不能挽回的</t>
+  </si>
+  <si>
     <t>adjective: incapable of being retracted or revoked</t>
   </si>
   <si>
@@ -1624,6 +1659,10 @@
     <t>itinerant</t>
   </si>
   <si>
+    <t>adj. 巡回的；流动的
+n. 巡回者；行商</t>
+  </si>
+  <si>
     <t>adjective: traveling from place to place to work</t>
   </si>
   <si>
@@ -1633,6 +1672,12 @@
     <t>jingoism</t>
   </si>
   <si>
+    <t>军国主义， 进攻主义</t>
+  </si>
+  <si>
+    <t>n. 侵略主义；沙文主义；武力外交政策</t>
+  </si>
+  <si>
     <t>noun: fanatical patriotism</t>
   </si>
   <si>
@@ -1642,6 +1687,9 @@
     <t>junta</t>
   </si>
   <si>
+    <t>n. 团体，派别</t>
+  </si>
+  <si>
     <t>noun: an aggressive takeover by a group (usually military)</t>
   </si>
   <si>
@@ -1651,6 +1699,12 @@
     <t>kowtow</t>
   </si>
   <si>
+    <t>叩头 kou tou</t>
+  </si>
+  <si>
+    <t>vi. 叩头；卑躬屈膝</t>
+  </si>
+  <si>
     <t>verb: to bow or act in a subservient manner</t>
   </si>
   <si>
@@ -1660,30 +1714,24 @@
     <t>lambast</t>
   </si>
   <si>
+    <t xml:space="preserve">lamb羊羔 </t>
+  </si>
+  <si>
+    <t>vt. 鞭打, 狠打, 严厉责骂</t>
+  </si>
+  <si>
     <t>verb: criticize severely or angrily</t>
   </si>
   <si>
     <t>Showing no patience, the manager utterly lambasted the sales team that lost the big account.</t>
   </si>
   <si>
-    <t>largess</t>
-  </si>
-  <si>
-    <t>大的large 慷慨赠予</t>
-  </si>
-  <si>
-    <t>n. 慷慨的赠予；赠品</t>
-  </si>
-  <si>
-    <t>noun: extreme generosity and giving</t>
-  </si>
-  <si>
-    <t>Uncle Frank was known for his largess, so his nephew was sad when he did not receive a present for his birthday.</t>
-  </si>
-  <si>
     <t>lascivious</t>
   </si>
   <si>
+    <t>adj. 好色的；淫荡的；挑动情欲的</t>
+  </si>
+  <si>
     <t>adjective: lecherous; sexually perverted</t>
   </si>
   <si>
@@ -1705,6 +1753,9 @@
     <t>litany</t>
   </si>
   <si>
+    <t>n. 冗长而枯燥的陈述；连祷</t>
+  </si>
+  <si>
     <t>noun: any long and tedious account of something</t>
   </si>
   <si>
@@ -1714,6 +1765,13 @@
     <t>machinate</t>
   </si>
   <si>
+    <t>machine 机器动起来是想 策划、 图谋不轨 吗？</t>
+  </si>
+  <si>
+    <t>vi. 策划；图谋不轨
+vt. 策划；图谋</t>
+  </si>
+  <si>
     <t>verb: engage in plotting or enter into a conspiracy, swear together</t>
   </si>
   <si>
@@ -1723,6 +1781,9 @@
     <t>magisterial</t>
   </si>
   <si>
+    <t>adj. 有权威的；专横的；官吏的</t>
+  </si>
+  <si>
     <t>adjective: offensively self-assured or given to exercising unwarranted power</t>
   </si>
   <si>
@@ -1732,27 +1793,21 @@
     <t>magnanimous</t>
   </si>
   <si>
+    <t>adj. 宽宏大量的；有雅量的；宽大的</t>
+  </si>
+  <si>
     <t>adjective: noble and generous in spirit, especially towards a rival or someone less powerful</t>
   </si>
   <si>
     <t>He was a great sportsman: in defeat he was complementary and in victory he was magnanimous.</t>
   </si>
   <si>
-    <t>maintain</t>
-  </si>
-  <si>
-    <t>vt. 维持；继续；维修；主张</t>
-  </si>
-  <si>
-    <t>verb: to assert</t>
-  </si>
-  <si>
-    <t>The scientist maintained that the extinction of dinosaurs was most likely brought about by a drastic change in climate.</t>
-  </si>
-  <si>
     <t>malady</t>
   </si>
   <si>
+    <t>n. 弊病；疾病；腐败</t>
+  </si>
+  <si>
     <t>noun: a disease or sickness</t>
   </si>
   <si>
@@ -1762,6 +1817,9 @@
     <t>malapropism</t>
   </si>
   <si>
+    <t>n. 文字误用；词语荒唐误用</t>
+  </si>
+  <si>
     <t>noun: the confusion of a word with another word that sounds similar</t>
   </si>
   <si>
@@ -1771,6 +1829,9 @@
     <t>malfeasance</t>
   </si>
   <si>
+    <t>n. 渎职，违法行为；不正当，坏事</t>
+  </si>
+  <si>
     <t>adjective: misconduct or wrongdoing (especially by a public official)</t>
   </si>
   <si>
@@ -1780,6 +1841,9 @@
     <t>malingerer</t>
   </si>
   <si>
+    <t>n. 装病逃差者</t>
+  </si>
+  <si>
     <t>noun: someone shirking their duty by pretending to be sick or incapacitated</t>
   </si>
   <si>
@@ -1789,6 +1853,9 @@
     <t>martial</t>
   </si>
   <si>
+    <t>adj. 军事的；战争的；尚武的</t>
+  </si>
+  <si>
     <t>adjective: suggesting war or military life</t>
   </si>
   <si>
@@ -1796,6 +1863,12 @@
   </si>
   <si>
     <t>maunder</t>
+  </si>
+  <si>
+    <t>蒙的</t>
+  </si>
+  <si>
+    <t>vi. 徘徊；唠叨地讲；胡扯</t>
   </si>
   <si>
     <t>verb: wander aimlessly
@@ -1809,6 +1882,10 @@
     <t>melancholy</t>
   </si>
   <si>
+    <t>adj. 忧郁的；使人悲伤的
+n. 忧郁；悲哀；愁思</t>
+  </si>
+  <si>
     <t>noun: a deep, long-lasting sadness</t>
   </si>
   <si>
@@ -1816,6 +1893,9 @@
   </si>
   <si>
     <t>melee</t>
+  </si>
+  <si>
+    <t>n. 混战，格斗；互殴</t>
   </si>
   <si>
     <t>noun: a wild, confusing fight or struggle</t>
@@ -2849,68 +2929,6 @@
     <t>The police chief rebuked the two officers whose irresponsible decisions almost led to the deaths of seven innocent by-standers.</t>
   </si>
   <si>
-    <t>recapitulation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">n. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概括；重述要点；再现部</t>
-    </r>
-  </si>
-  <si>
-    <t>noun: a summary (think of recap)</t>
-  </si>
-  <si>
-    <t>Every point of the professors lesson was so clear that the students felt his concluding recapitulation was not necessary.</t>
-  </si>
-  <si>
-    <t>recrimination</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">n. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反责，反控；揭丑</t>
-    </r>
-  </si>
-  <si>
-    <t>noun: mutual accusations</t>
-  </si>
-  <si>
-    <t>The two brothers sat and cried, pointing fingers and making elaborate recriminations of the other's guilt</t>
-  </si>
-  <si>
     <t>recrudesce</t>
   </si>
   <si>
@@ -3051,18 +3069,6 @@
     <t>While the banker maintained a semblance of respectability in public, those who knew him well were familiar with his many crimes.</t>
   </si>
   <si>
-    <t>sententious</t>
-  </si>
-  <si>
-    <t>警句的</t>
-  </si>
-  <si>
-    <t>adjective: to be moralizing, usually in a pompous sense</t>
-  </si>
-  <si>
-    <t>The old man, casting his nose up in the air at the group of adolescents, intoned sententiously, “Youth is wasted on the young.”</t>
-  </si>
-  <si>
     <t>simulacrum</t>
   </si>
   <si>
@@ -3151,30 +3157,6 @@
     <t>The ruling political party has begun a campaign to shut down subversive websites that it deems as a threat to "national safety."</t>
   </si>
   <si>
-    <t>temperance</t>
-  </si>
-  <si>
-    <t>节欲</t>
-  </si>
-  <si>
-    <t>noun: the traitn. 特性，特点；品质；少许 of avoiding excesses</t>
-  </si>
-  <si>
-    <t>Welles wasn't known for his temperance--he usually ate enough for two and drank enough for three.</t>
-  </si>
-  <si>
-    <t>tempered</t>
-  </si>
-  <si>
-    <t>缓和的</t>
-  </si>
-  <si>
-    <t>adjective: moderated in effect</t>
-  </si>
-  <si>
-    <t>The wide-eyed optimism of her youth was now tempered after she had worked many years in the criminal justice system.</t>
-  </si>
-  <si>
     <t>thoroughgoing</t>
   </si>
   <si>
@@ -3185,18 +3167,6 @@
   </si>
   <si>
     <t>As a thoroughgoing bibliophile, one who had turned his house into a veritable library, he shocked his friends when he bought a Kindle.</t>
-  </si>
-  <si>
-    <t>transmute</t>
-  </si>
-  <si>
-    <t>变形</t>
-  </si>
-  <si>
-    <t>verb: change or alter in form, appearance, or nature</t>
-  </si>
-  <si>
-    <t>One of the goals of alchemy was to find the substance or process that would transmute lead into gold.</t>
   </si>
   <si>
     <t>truculence
@@ -3757,18 +3727,6 @@
     <t>Mary's behavior completely flummoxes me: I never have any idea what her motivations might be.</t>
   </si>
   <si>
-    <t>flux</t>
-  </si>
-  <si>
-    <t>流量；变迁；不稳定；流出</t>
-  </si>
-  <si>
-    <t>noun: a state of uncertainty about what should be done (usually following some important event)</t>
-  </si>
-  <si>
-    <t>Ever since Elvira resigned as the head of marketing, everything about our sales strategy has been in a state of flux.</t>
-  </si>
-  <si>
     <t>gambit</t>
   </si>
   <si>
@@ -3810,18 +3768,6 @@
   </si>
   <si>
     <t>At first I thought my niece was guileless, but I then found myself buying her ice cream every time we passed a shop.</t>
-  </si>
-  <si>
-    <t>maxim</t>
-  </si>
-  <si>
-    <t>n. 格言；准则；座右铭</t>
-  </si>
-  <si>
-    <t>noun: a short saying expressing a general truth</t>
-  </si>
-  <si>
-    <t>Johnson initially suggests that the secret to business can be summarized in a single maxim but then requires a 300-page book to explain exactly what he means.</t>
   </si>
   <si>
     <t>Pollyannaish</t>
@@ -3884,6 +3830,57 @@
   </si>
   <si>
     <t>The many telltale signs of chronic smoking include yellow teeth, and a persistent, hacking cough.</t>
+  </si>
+  <si>
+    <t>ignoble</t>
+  </si>
+  <si>
+    <t>adj. 不光彩的；卑鄙的；卑贱</t>
+  </si>
+  <si>
+    <t>adjective: dishonorable</t>
+  </si>
+  <si>
+    <t>In the 1920s, the World Series was rigged--an ignoble act which baseball took decades to recover from.</t>
+  </si>
+  <si>
+    <t>largess</t>
+  </si>
+  <si>
+    <t>大的large 慷慨赠予</t>
+  </si>
+  <si>
+    <t>n. 慷慨的赠予；赠品</t>
+  </si>
+  <si>
+    <t>noun: extreme generosity and giving</t>
+  </si>
+  <si>
+    <t>Uncle Frank was known for his largess, so his nephew was sad when he did not receive a present for his birthday.</t>
+  </si>
+  <si>
+    <t>temperance</t>
+  </si>
+  <si>
+    <t>节欲</t>
+  </si>
+  <si>
+    <t>noun: the traitn. 特性，特点；品质；少许 of avoiding excesses</t>
+  </si>
+  <si>
+    <t>Welles wasn't known for his temperance--he usually ate enough for two and drank enough for three.</t>
+  </si>
+  <si>
+    <t>tempered</t>
+  </si>
+  <si>
+    <t>缓和的</t>
+  </si>
+  <si>
+    <t>adjective: moderated in effect</t>
+  </si>
+  <si>
+    <t>The wide-eyed optimism of her youth was now tempered after she had worked many years in the criminal justice system.</t>
   </si>
   <si>
     <t>aplomb
@@ -4586,6 +4583,73 @@
     <t>To stem the tide of applications, the prestigious Ivy requires that each applicant score at least 330 on the Revised GRE.</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>adj. 凶猛的；毁灭性的</t>
+  </si>
+  <si>
+    <t>adjective: terribly evil</t>
+  </si>
+  <si>
+    <t>For fans of the Harry Potter series, the fell Lord Voldemort, who terrorized poor Harry for seven lengthy installments, has finally been vanquished by the forces of good—unless, that is, JK Rowling decides to come out of retirement.</t>
+  </si>
+  <si>
+    <t>recapitulation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概括；重述要点；再现部</t>
+    </r>
+  </si>
+  <si>
+    <t>noun: a summary (think of recap)</t>
+  </si>
+  <si>
+    <t>Every point of the professors lesson was so clear that the students felt his concluding recapitulation was not necessary.</t>
+  </si>
+  <si>
+    <t>transmute</t>
+  </si>
+  <si>
+    <t>变形</t>
+  </si>
+  <si>
+    <t>verb: change or alter in form, appearance, or nature</t>
+  </si>
+  <si>
+    <t>One of the goals of alchemy was to find the substance or process that would transmute lead into gold.</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>流量；变迁；不稳定；流出</t>
+  </si>
+  <si>
+    <t>noun: a state of uncertainty about what should be done (usually following some important event)</t>
+  </si>
+  <si>
+    <t>Ever since Elvira resigned as the head of marketing, everything about our sales strategy has been in a state of flux.</t>
+  </si>
+  <si>
     <t>candid</t>
   </si>
   <si>
@@ -5593,6 +5657,61 @@
     <t>The office building had been constructed in a slapdash manner, so it did not surprise officials when, during a small earthquake, a large crack emerged on the fa ade of the building.</t>
   </si>
   <si>
+    <t>recrimination</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反责，反控；揭丑</t>
+    </r>
+  </si>
+  <si>
+    <t>noun: mutual accusations</t>
+  </si>
+  <si>
+    <t>The two brothers sat and cried, pointing fingers and making elaborate recriminations of the other's guilt</t>
+  </si>
+  <si>
+    <t>sententious</t>
+  </si>
+  <si>
+    <t>警句的</t>
+  </si>
+  <si>
+    <t>adjective: to be moralizing, usually in a pompous sense</t>
+  </si>
+  <si>
+    <t>The old man, casting his nose up in the air at the group of adolescents, intoned sententiously, “Youth is wasted on the young.”</t>
+  </si>
+  <si>
+    <t>maxim</t>
+  </si>
+  <si>
+    <t>n. 格言；准则；座右铭</t>
+  </si>
+  <si>
+    <t>noun: a short saying expressing a general truth</t>
+  </si>
+  <si>
+    <t>Johnson initially suggests that the secret to business can be summarized in a single maxim but then requires a 300-page book to explain exactly what he means.</t>
+  </si>
+  <si>
     <t>becoming</t>
   </si>
   <si>
@@ -5997,6 +6116,32 @@
   </si>
   <si>
     <t>I don't like romanticism for the same reason I don't like melodramatic acting and soap operas—overly sentimental.</t>
+  </si>
+  <si>
+    <t>forthcoming</t>
+  </si>
+  <si>
+    <t>adj. 即将来临的</t>
+  </si>
+  <si>
+    <t>adjective: available when required or as promised
+adjective: at ease in talking to others</t>
+  </si>
+  <si>
+    <t>The President announced that the senators were about to reach a compromise, and that he was eager to read the forthcoming details of the bill.
+As a husband, Larry was not forthcoming: if Jill didn't demand to know details, Larry would never share them with her.</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>vt. 维持；继续；维修；主张</t>
+  </si>
+  <si>
+    <t>verb: to assert</t>
+  </si>
+  <si>
+    <t>The scientist maintained that the extinction of dinosaurs was most likely brought about by a drastic change in climate.</t>
   </si>
   <si>
     <t>dog</t>
@@ -6823,6 +6968,15 @@
   </si>
   <si>
     <t>Journalists favor an economical style of writing, in which no unnecessary words are used and every sentence is as short as possible.</t>
+  </si>
+  <si>
+    <t>insufferable</t>
+  </si>
+  <si>
+    <t>adjective: intolerable, difficult to endure</t>
+  </si>
+  <si>
+    <t>Chester always tried to find some area in which he excelled above others; unsurprisingly, his co-workers found him insufferable and chose to exclude him from daily luncheons out.</t>
   </si>
   <si>
     <t>atavism</t>
@@ -7056,26 +7210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7093,15 +7237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7114,8 +7257,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7129,9 +7311,17 @@
       <scheme val="major"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7153,39 +7343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7226,12 +7386,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF313131"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF313131"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -7251,18 +7405,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7275,49 +7417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7336,6 +7442,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7371,7 +7501,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7389,43 +7561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7441,8 +7595,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7463,15 +7619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7483,39 +7630,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7537,11 +7651,51 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7553,10 +7707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7565,137 +7719,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7720,7 +7874,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8073,9 +8230,9 @@
   <dimension ref="A1:G404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8094,11 +8251,11 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(B2:B3080)/(COUNT(B2:B3080)-1)/10</f>
-        <v>0.196508728179551</v>
+        <v>0.197755610972569</v>
       </c>
       <c r="C1" s="5" t="str">
         <f>"基本掌握: "&amp;D1&amp;"; 完全不会:"&amp;F1&amp;" 模糊:"&amp;E1</f>
-        <v>基本掌握: 44; 完全不会:234 模糊:359</v>
+        <v>基本掌握: 44; 完全不会:232 模糊:359</v>
       </c>
       <c r="D1" s="1">
         <f>COUNTIF(B:B,"&gt;=6")</f>
@@ -8110,7 +8267,7 @@
       </c>
       <c r="F1" s="1">
         <f>COUNTIF(B:B,"&lt;2")</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -9525,10 +9682,10 @@
         <v>315</v>
       </c>
       <c r="B80" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="7" t="s">
         <v>316</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -9546,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -9633,7 +9790,7 @@
         <v>339</v>
       </c>
       <c r="B86" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -9654,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="7" t="s">
         <v>344</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -9690,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -9726,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="7" t="s">
         <v>360</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -9762,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -9780,5489 +9937,5587 @@
         <v>0</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="E96" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B98" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="1" t="s">
-        <v>384</v>
+      <c r="D98" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="7" t="s">
+        <v>392</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="D100" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B101" s="5">
         <v>0</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="7" t="s">
-        <v>395</v>
+      <c r="D101" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B103" s="5">
         <v>0</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="E105" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B106" s="5">
         <v>0</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B107" s="5">
         <v>0</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B108" s="5">
         <v>0</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E108" s="1" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B109" s="5">
         <v>0</v>
       </c>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="7" t="s">
+        <v>434</v>
+      </c>
       <c r="E109" s="1" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B110" s="5">
         <v>0</v>
       </c>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="E110" s="1" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B111" s="5">
         <v>0</v>
       </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B112" s="5">
         <v>0</v>
       </c>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="E112" s="1" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="B113" s="5">
         <v>0</v>
       </c>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B114" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B115" s="5">
         <v>0</v>
       </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="7" t="s">
+        <v>458</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B116" s="5">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="E116" s="1" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
       </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="B118" s="5">
         <v>0</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="B119" s="5">
         <v>0</v>
       </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="7" t="s">
+        <v>475</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="B120" s="5">
         <v>0</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="E120" s="1" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="B121" s="5">
         <v>0</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B122" s="5">
-        <v>0</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="E122" s="1" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B123" s="5">
         <v>0</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="E123" s="1" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="E124" s="1" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
       </c>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="E125" s="1" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="B126" s="5">
         <v>0</v>
       </c>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="E126" s="1" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="B127" s="5">
         <v>0</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>511</v>
+      </c>
       <c r="E127" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="B128" s="5">
-        <v>2</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="B129" s="5">
         <v>0</v>
       </c>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="E129" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="B130" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="E131" s="1" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:6">
       <c r="A132" s="1" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="B132" s="5">
         <v>0</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="E132" s="1" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
       </c>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E133" s="1" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" ht="18" customHeight="1" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
       </c>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="E134" s="1" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
     </row>
     <row r="135" ht="18" customHeight="1" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="B135" s="5">
-        <v>5</v>
-      </c>
-      <c r="C135" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="D135" s="1" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
     </row>
     <row r="136" ht="18" customHeight="1" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="B136" s="5">
         <v>0</v>
       </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="7" t="s">
+        <v>548</v>
+      </c>
       <c r="E136" s="1" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="B137" s="5">
         <v>0</v>
       </c>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="E137" s="1" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="B138" s="5">
         <v>0</v>
       </c>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="B139" s="5">
         <v>0</v>
       </c>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="E139" s="1" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="B140" s="5">
         <v>0</v>
       </c>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="E140" s="1" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="B141" s="5">
         <v>0</v>
       </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142" ht="18" customHeight="1" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="B142" s="5">
         <v>0</v>
       </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="E142" s="1" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
     </row>
     <row r="143" ht="18" customHeight="1" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
       </c>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="E143" s="1" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>529</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="B145" s="5">
         <v>0</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="B146" s="5">
         <v>0</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
     </row>
     <row r="147" ht="18" customHeight="1" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="B147" s="5">
         <v>0</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" ht="18" customHeight="1" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="B148" s="5">
         <v>0</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="B149" s="5">
         <v>0</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="B150" s="5">
         <v>0</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" ht="18" customHeight="1" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
       <c r="B152" s="5">
         <v>0</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" ht="18" customHeight="1" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="B155" s="5">
         <v>0</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="B156" s="5">
         <v>0</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
     </row>
     <row r="157" ht="18" customHeight="1" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
     </row>
     <row r="158" ht="18" customHeight="1" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="B159" s="5">
         <v>0</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="B160" s="5">
         <v>0</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="B161" s="5">
         <v>0</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
     </row>
     <row r="162" ht="18" customHeight="1" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
       <c r="B162" s="5">
         <v>0</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
     </row>
     <row r="163" ht="18" customHeight="1" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="B163" s="5">
         <v>0</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="B165" s="5">
         <v>0</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="B166" s="5">
         <v>0</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>621</v>
+        <v>670</v>
       </c>
     </row>
     <row r="167" ht="18" customHeight="1" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>625</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" ht="18" customHeight="1" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="B168" s="5">
         <v>0</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>627</v>
+        <v>676</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>628</v>
+        <v>677</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>629</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>630</v>
+        <v>679</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>631</v>
+        <v>680</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>633</v>
+        <v>682</v>
       </c>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:6">
       <c r="A170" s="1" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="B170" s="5">
         <v>0</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="B171" s="5">
         <v>0</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="172" ht="18" customHeight="1" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="B172" s="5">
         <v>0</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
     </row>
     <row r="173" ht="18" customHeight="1" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>646</v>
+        <v>695</v>
       </c>
       <c r="B173" s="5">
         <v>0</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>648</v>
+        <v>697</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>649</v>
+        <v>698</v>
       </c>
     </row>
     <row r="174" ht="18" customHeight="1" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
       <c r="B174" s="5">
         <v>0</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
     </row>
     <row r="175" ht="18" customHeight="1" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
       <c r="B175" s="5">
         <v>0</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="B176" s="5">
         <v>0</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>661</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
       <c r="B177" s="5">
         <v>0</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="B179" s="5">
         <v>0</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="B180" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>678</v>
+        <v>727</v>
       </c>
       <c r="B181" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>679</v>
+        <v>728</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="B182" s="5">
         <v>0</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>685</v>
+        <v>734</v>
       </c>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="B183" s="5">
         <v>0</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>687</v>
+        <v>736</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>688</v>
+        <v>737</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>689</v>
+        <v>738</v>
       </c>
     </row>
     <row r="184" ht="18" customHeight="1" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>690</v>
+        <v>739</v>
       </c>
       <c r="B184" s="5">
         <v>0</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>691</v>
+        <v>740</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>692</v>
+        <v>741</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
     </row>
     <row r="185" ht="18" customHeight="1" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="B185" s="5">
         <v>0</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:6">
       <c r="A186" s="1" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="B186" s="5">
         <v>0</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:6">
       <c r="A187" s="1" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="B187" s="5">
         <v>0</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>703</v>
+        <v>32</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>705</v>
+        <v>753</v>
       </c>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:6">
       <c r="A188" s="1" t="s">
-        <v>706</v>
+        <v>754</v>
       </c>
       <c r="B188" s="5">
         <v>0</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:6">
       <c r="A189" s="1" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="B189" s="5">
         <v>0</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:6">
       <c r="A190" s="1" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="B190" s="5">
         <v>0</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="B191" s="5">
         <v>0</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="B192" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
     </row>
     <row r="194" ht="18" customHeight="1" spans="1:6">
       <c r="A194" s="1" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
     </row>
     <row r="195" ht="18" customHeight="1" spans="1:6">
       <c r="A195" s="1" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="B195" s="5">
         <v>0</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:6">
       <c r="A196" s="1" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>32</v>
+        <v>787</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>739</v>
+        <v>788</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>740</v>
+        <v>789</v>
       </c>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:6">
       <c r="A197" s="1" t="s">
-        <v>741</v>
+        <v>790</v>
       </c>
       <c r="B197" s="5">
         <v>0</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>742</v>
+        <v>791</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>744</v>
+        <v>793</v>
       </c>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:6">
       <c r="A198" s="1" t="s">
-        <v>745</v>
+        <v>794</v>
       </c>
       <c r="B198" s="5">
         <v>0</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
-        <v>746</v>
+        <v>795</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>747</v>
+        <v>796</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>748</v>
+        <v>797</v>
       </c>
     </row>
     <row r="199" ht="18" customHeight="1" spans="1:6">
       <c r="A199" s="1" t="s">
-        <v>749</v>
+        <v>798</v>
       </c>
       <c r="B199" s="5">
         <v>0</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
-        <v>750</v>
+        <v>799</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>751</v>
+        <v>800</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>752</v>
+        <v>801</v>
       </c>
     </row>
     <row r="200" ht="18" customHeight="1" spans="1:6">
       <c r="A200" s="1" t="s">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="B200" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>754</v>
+        <v>803</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>755</v>
+        <v>804</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>756</v>
+        <v>805</v>
       </c>
     </row>
     <row r="201" ht="18" customHeight="1" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>757</v>
+        <v>806</v>
       </c>
       <c r="B201" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>758</v>
+        <v>807</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>759</v>
+        <v>808</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>760</v>
+        <v>809</v>
       </c>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:6">
       <c r="A202" s="1" t="s">
-        <v>761</v>
+        <v>810</v>
       </c>
       <c r="B202" s="5">
         <v>0</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>762</v>
+        <v>811</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>763</v>
+        <v>812</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>764</v>
+        <v>813</v>
       </c>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>765</v>
+        <v>814</v>
       </c>
       <c r="B203" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>766</v>
+        <v>815</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>767</v>
+        <v>816</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>768</v>
+        <v>817</v>
       </c>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="B204" s="5">
         <v>0</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>770</v>
+        <v>819</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>771</v>
+        <v>820</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>772</v>
+        <v>821</v>
       </c>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
       <c r="B205" s="5">
         <v>0</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>775</v>
+        <v>824</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>777</v>
+        <v>826</v>
       </c>
       <c r="B206" s="5">
         <v>0</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
-        <v>778</v>
+        <v>827</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>779</v>
+        <v>828</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>780</v>
+        <v>829</v>
       </c>
     </row>
     <row r="207" ht="18" customHeight="1" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>781</v>
+        <v>830</v>
       </c>
       <c r="B207" s="5">
         <v>0</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>782</v>
+        <v>831</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>783</v>
+        <v>832</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>784</v>
+        <v>833</v>
       </c>
     </row>
     <row r="208" ht="18" customHeight="1" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>785</v>
+        <v>834</v>
       </c>
       <c r="B208" s="5">
         <v>0</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>786</v>
+        <v>835</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>787</v>
+        <v>836</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>788</v>
+        <v>837</v>
       </c>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="B209" s="5">
         <v>0</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>790</v>
+        <v>839</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>792</v>
+        <v>841</v>
       </c>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>793</v>
+        <v>842</v>
       </c>
       <c r="B210" s="5">
         <v>0</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>794</v>
+        <v>843</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>795</v>
+        <v>844</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>796</v>
+        <v>845</v>
       </c>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>797</v>
+        <v>846</v>
       </c>
       <c r="B211" s="5">
         <v>0</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>798</v>
+        <v>847</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>799</v>
+        <v>848</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>800</v>
+        <v>849</v>
       </c>
     </row>
     <row r="212" ht="18" customHeight="1" spans="1:6">
       <c r="A212" s="1" t="s">
-        <v>801</v>
+        <v>850</v>
       </c>
       <c r="B212" s="5">
         <v>0</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>802</v>
+        <v>851</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>803</v>
+        <v>852</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>804</v>
+        <v>853</v>
       </c>
     </row>
     <row r="213" ht="18" customHeight="1" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>805</v>
+        <v>854</v>
       </c>
       <c r="B213" s="5">
         <v>0</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>806</v>
+        <v>855</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>807</v>
+        <v>856</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
     </row>
     <row r="214" ht="18" customHeight="1" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>809</v>
+        <v>858</v>
       </c>
       <c r="B214" s="5">
-        <v>0</v>
-      </c>
-      <c r="C214" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>859</v>
+      </c>
       <c r="D214" s="1" t="s">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>811</v>
+        <v>861</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>812</v>
+        <v>862</v>
       </c>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>813</v>
+        <v>863</v>
       </c>
       <c r="B215" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>814</v>
+        <v>864</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>816</v>
+        <v>866</v>
       </c>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>817</v>
+        <v>867</v>
       </c>
       <c r="B216" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>818</v>
+        <v>868</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>819</v>
+        <v>869</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>820</v>
+        <v>870</v>
       </c>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>821</v>
+        <v>871</v>
       </c>
       <c r="B217" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>823</v>
+        <v>873</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>824</v>
+        <v>874</v>
       </c>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>825</v>
+        <v>875</v>
       </c>
       <c r="B218" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>826</v>
+        <v>876</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>827</v>
+        <v>877</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>828</v>
+        <v>878</v>
       </c>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:6">
       <c r="A219" s="1" t="s">
-        <v>829</v>
+        <v>879</v>
       </c>
       <c r="B219" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>830</v>
+        <v>880</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>831</v>
+        <v>881</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
     </row>
     <row r="220" ht="18" customHeight="1" spans="1:6">
       <c r="A220" s="1" t="s">
-        <v>833</v>
+        <v>883</v>
       </c>
       <c r="B220" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>834</v>
+        <v>884</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>835</v>
+        <v>885</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>836</v>
+        <v>886</v>
       </c>
     </row>
     <row r="221" ht="18" customHeight="1" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>837</v>
+        <v>887</v>
       </c>
       <c r="B221" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>838</v>
+        <v>888</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>839</v>
+        <v>889</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>840</v>
+        <v>890</v>
       </c>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:6">
       <c r="A222" s="1" t="s">
-        <v>841</v>
+        <v>891</v>
       </c>
       <c r="B222" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
-        <v>842</v>
+        <v>892</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>843</v>
+        <v>893</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>844</v>
+        <v>894</v>
       </c>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:6">
       <c r="A223" s="1" t="s">
-        <v>845</v>
+        <v>895</v>
       </c>
       <c r="B223" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>846</v>
+        <v>896</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>847</v>
+        <v>897</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>848</v>
+        <v>898</v>
       </c>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:6">
       <c r="A224" s="1" t="s">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="B224" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>851</v>
+        <v>901</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>852</v>
+        <v>902</v>
       </c>
     </row>
     <row r="225" ht="18" customHeight="1" spans="1:6">
       <c r="A225" s="1" t="s">
-        <v>853</v>
+        <v>903</v>
       </c>
       <c r="B225" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>854</v>
+        <v>904</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>855</v>
+        <v>905</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>856</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226" ht="18" customHeight="1" spans="1:6">
       <c r="A226" s="1" t="s">
-        <v>857</v>
+        <v>907</v>
       </c>
       <c r="B226" s="5">
         <v>1</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>858</v>
-      </c>
+      <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>859</v>
+        <v>908</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>860</v>
+        <v>909</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>861</v>
+        <v>910</v>
       </c>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:6">
       <c r="A227" s="1" t="s">
-        <v>862</v>
+        <v>911</v>
       </c>
       <c r="B227" s="5">
         <v>1</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>863</v>
+        <v>912</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>864</v>
+        <v>913</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>865</v>
+        <v>914</v>
       </c>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:6">
       <c r="A228" s="1" t="s">
-        <v>866</v>
+        <v>915</v>
       </c>
       <c r="B228" s="5">
         <v>1</v>
       </c>
       <c r="C228" s="1"/>
-      <c r="D228" s="1" t="s">
-        <v>867</v>
+      <c r="D228" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>868</v>
+        <v>917</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>869</v>
+        <v>918</v>
       </c>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:6">
       <c r="A229" s="1" t="s">
-        <v>870</v>
+        <v>919</v>
       </c>
       <c r="B229" s="5">
         <v>1</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>871</v>
+        <v>920</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>872</v>
+        <v>921</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>873</v>
+        <v>922</v>
       </c>
     </row>
     <row r="230" ht="18" customHeight="1" spans="1:6">
       <c r="A230" s="1" t="s">
-        <v>874</v>
+        <v>923</v>
       </c>
       <c r="B230" s="5">
         <v>1</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>875</v>
+        <v>924</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>876</v>
+        <v>925</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>877</v>
+        <v>926</v>
       </c>
     </row>
     <row r="231" ht="18" customHeight="1" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>878</v>
+        <v>927</v>
       </c>
       <c r="B231" s="5">
         <v>1</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>880</v>
+        <v>929</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>881</v>
+        <v>930</v>
       </c>
     </row>
     <row r="232" ht="18" customHeight="1" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="B232" s="5">
         <v>1</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>883</v>
+        <v>932</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>884</v>
+        <v>933</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>885</v>
+        <v>934</v>
       </c>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>886</v>
+        <v>935</v>
       </c>
       <c r="B233" s="5">
         <v>1</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>887</v>
+        <v>936</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>888</v>
+        <v>937</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>889</v>
+        <v>938</v>
       </c>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>890</v>
+        <v>939</v>
       </c>
       <c r="B234" s="5">
         <v>1</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>891</v>
+        <v>940</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>892</v>
+        <v>941</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>893</v>
+        <v>942</v>
       </c>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>894</v>
+        <v>943</v>
       </c>
       <c r="B235" s="5">
         <v>1</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>895</v>
+        <v>944</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>896</v>
+        <v>945</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>897</v>
+        <v>946</v>
       </c>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>898</v>
+        <v>947</v>
       </c>
       <c r="B236" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>899</v>
+        <v>948</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>900</v>
+        <v>949</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>901</v>
+        <v>950</v>
       </c>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>902</v>
+        <v>951</v>
       </c>
       <c r="B237" s="5">
-        <v>1</v>
-      </c>
-      <c r="C237" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>952</v>
+      </c>
       <c r="D237" s="1" t="s">
-        <v>903</v>
+        <v>953</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>904</v>
+        <v>954</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>905</v>
+        <v>955</v>
       </c>
     </row>
     <row r="238" ht="18" customHeight="1" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>906</v>
+        <v>956</v>
       </c>
       <c r="B238" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
-        <v>907</v>
+        <v>957</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>908</v>
+        <v>958</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>909</v>
+        <v>959</v>
       </c>
     </row>
     <row r="239" ht="18" customHeight="1" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>910</v>
+        <v>960</v>
       </c>
       <c r="B239" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
-        <v>911</v>
+        <v>961</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>912</v>
+        <v>962</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>913</v>
+        <v>963</v>
       </c>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>914</v>
+        <v>964</v>
       </c>
       <c r="B240" s="5">
-        <v>1</v>
-      </c>
-      <c r="C240" s="1"/>
-      <c r="D240" s="7" t="s">
-        <v>915</v>
+        <v>2</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>916</v>
+        <v>966</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>917</v>
+        <v>967</v>
       </c>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>918</v>
+        <v>968</v>
       </c>
       <c r="B241" s="5">
-        <v>3</v>
-      </c>
-      <c r="C241" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>969</v>
+      </c>
       <c r="D241" s="1" t="s">
-        <v>919</v>
+        <v>872</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>920</v>
+        <v>873</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>921</v>
+        <v>970</v>
       </c>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:6">
       <c r="A242" s="1" t="s">
-        <v>922</v>
+        <v>971</v>
       </c>
       <c r="B242" s="5">
-        <v>1</v>
-      </c>
-      <c r="C242" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>972</v>
+      </c>
       <c r="D242" s="1" t="s">
-        <v>923</v>
+        <v>973</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>924</v>
+        <v>974</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>925</v>
+        <v>975</v>
       </c>
     </row>
     <row r="243" ht="18" customHeight="1" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>926</v>
+        <v>976</v>
       </c>
       <c r="B243" s="5">
-        <v>1</v>
-      </c>
-      <c r="C243" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>977</v>
+      </c>
       <c r="D243" s="1" t="s">
-        <v>927</v>
+        <v>978</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>928</v>
+        <v>979</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>929</v>
+        <v>980</v>
       </c>
     </row>
     <row r="244" ht="18" customHeight="1" spans="1:6">
       <c r="A244" s="1" t="s">
-        <v>930</v>
+        <v>981</v>
       </c>
       <c r="B244" s="5">
-        <v>4</v>
-      </c>
-      <c r="C244" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>982</v>
+      </c>
       <c r="D244" s="1" t="s">
-        <v>931</v>
+        <v>983</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>932</v>
+        <v>984</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>933</v>
+        <v>985</v>
       </c>
     </row>
     <row r="245" ht="18" customHeight="1" spans="1:6">
       <c r="A245" s="1" t="s">
-        <v>934</v>
+        <v>986</v>
       </c>
       <c r="B245" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
-        <v>935</v>
+        <v>987</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>936</v>
+        <v>988</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>937</v>
+        <v>989</v>
       </c>
     </row>
     <row r="246" ht="18" customHeight="1" spans="1:6">
       <c r="A246" s="1" t="s">
-        <v>938</v>
+        <v>990</v>
       </c>
       <c r="B246" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
-        <v>939</v>
+        <v>991</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>940</v>
+        <v>992</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>941</v>
+        <v>993</v>
       </c>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:6">
       <c r="A247" s="1" t="s">
-        <v>942</v>
+        <v>994</v>
       </c>
       <c r="B247" s="5">
-        <v>1</v>
-      </c>
-      <c r="C247" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>995</v>
+      </c>
       <c r="D247" s="1" t="s">
-        <v>943</v>
+        <v>996</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>944</v>
+        <v>997</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>945</v>
+        <v>998</v>
       </c>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>946</v>
+        <v>999</v>
       </c>
       <c r="B248" s="5">
-        <v>1</v>
-      </c>
-      <c r="C248" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1000</v>
+      </c>
       <c r="D248" s="1" t="s">
-        <v>947</v>
+        <v>1001</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>948</v>
+        <v>1002</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>949</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>950</v>
+        <v>1004</v>
       </c>
       <c r="B249" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
-        <v>951</v>
+        <v>1005</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>952</v>
+        <v>1006</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>953</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="B250" s="5">
         <v>2</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>955</v>
-      </c>
+      <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>703</v>
+        <v>1009</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>956</v>
+        <v>1010</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>957</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>958</v>
+        <v>1012</v>
       </c>
       <c r="B251" s="5">
         <v>2</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>959</v>
-      </c>
+      <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
-        <v>871</v>
+        <v>1013</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>872</v>
+        <v>1014</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>960</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:6">
       <c r="A252" s="1" t="s">
-        <v>961</v>
+        <v>1016</v>
       </c>
       <c r="B252" s="5">
         <v>2</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>962</v>
-      </c>
+      <c r="C252" s="1"/>
       <c r="D252" s="1" t="s">
-        <v>963</v>
+        <v>1017</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>964</v>
+        <v>1018</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>965</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>966</v>
+        <v>1020</v>
       </c>
       <c r="B253" s="5">
         <v>2</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>967</v>
-      </c>
+      <c r="C253" s="1"/>
       <c r="D253" s="1" t="s">
-        <v>968</v>
+        <v>1021</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>969</v>
+        <v>1022</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>970</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>971</v>
+        <v>1024</v>
       </c>
       <c r="B254" s="5">
         <v>2</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>972</v>
-      </c>
+      <c r="C254" s="1"/>
       <c r="D254" s="1" t="s">
-        <v>973</v>
+        <v>1025</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>974</v>
+        <v>1026</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>975</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>976</v>
+        <v>1028</v>
       </c>
       <c r="B255" s="5">
         <v>2</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
-        <v>977</v>
+        <v>1029</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>978</v>
+        <v>1030</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>979</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="256" ht="18" customHeight="1" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>980</v>
+        <v>1032</v>
       </c>
       <c r="B256" s="5">
         <v>2</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
-        <v>981</v>
+        <v>1033</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>982</v>
+        <v>1034</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>983</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:6">
       <c r="A257" s="1" t="s">
-        <v>984</v>
+        <v>1036</v>
       </c>
       <c r="B257" s="5">
         <v>2</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>985</v>
-      </c>
+      <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
-        <v>986</v>
+        <v>1037</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>987</v>
+        <v>1038</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>988</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:6">
       <c r="A258" s="1" t="s">
-        <v>989</v>
+        <v>1040</v>
       </c>
       <c r="B258" s="5">
         <v>2</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>990</v>
-      </c>
+      <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
-        <v>991</v>
+        <v>1041</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>992</v>
+        <v>1042</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>993</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:6">
       <c r="A259" s="1" t="s">
-        <v>994</v>
+        <v>1044</v>
       </c>
       <c r="B259" s="5">
         <v>2</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
-        <v>995</v>
+        <v>1045</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>996</v>
+        <v>1046</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>997</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:6">
       <c r="A260" s="1" t="s">
-        <v>998</v>
+        <v>1048</v>
       </c>
       <c r="B260" s="5">
         <v>2</v>
       </c>
       <c r="C260" s="1"/>
-      <c r="D260" s="1" t="s">
-        <v>999</v>
+      <c r="D260" s="7" t="s">
+        <v>1049</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1001</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>1002</v>
+        <v>1052</v>
       </c>
       <c r="B261" s="5">
         <v>2</v>
       </c>
       <c r="C261" s="1"/>
-      <c r="D261" s="1" t="s">
-        <v>1003</v>
+      <c r="D261" s="7" t="s">
+        <v>1053</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1004</v>
+        <v>1054</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1005</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:6">
       <c r="A262" s="1" t="s">
-        <v>1006</v>
+        <v>1056</v>
       </c>
       <c r="B262" s="5">
         <v>2</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
-        <v>1007</v>
+        <v>1057</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1008</v>
+        <v>1058</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1009</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="263" ht="18" customHeight="1" spans="1:6">
       <c r="A263" s="1" t="s">
-        <v>1010</v>
+        <v>1060</v>
       </c>
       <c r="B263" s="5">
         <v>2</v>
       </c>
       <c r="C263" s="1"/>
-      <c r="D263" s="1" t="s">
-        <v>1011</v>
+      <c r="D263" s="7" t="s">
+        <v>1061</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1012</v>
+        <v>1062</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1013</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="264" ht="18" customHeight="1" spans="1:6">
       <c r="A264" s="1" t="s">
-        <v>1014</v>
+        <v>1064</v>
       </c>
       <c r="B264" s="5">
         <v>2</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1016</v>
+        <v>1066</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1017</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:6">
       <c r="A265" s="1" t="s">
-        <v>1018</v>
+        <v>1068</v>
       </c>
       <c r="B265" s="5">
         <v>2</v>
       </c>
       <c r="C265" s="1"/>
-      <c r="D265" s="1" t="s">
-        <v>1019</v>
+      <c r="D265" s="7" t="s">
+        <v>1069</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1020</v>
+        <v>1070</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1021</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:6">
       <c r="A266" s="1" t="s">
-        <v>1022</v>
+        <v>1072</v>
       </c>
       <c r="B266" s="5">
         <v>2</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1" t="s">
-        <v>1023</v>
+        <v>1073</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1024</v>
+        <v>1074</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1025</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:6">
       <c r="A267" s="1" t="s">
-        <v>1026</v>
+        <v>1076</v>
       </c>
       <c r="B267" s="5">
         <v>2</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1" t="s">
-        <v>1027</v>
+        <v>1077</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1028</v>
+        <v>1078</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1029</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:6">
       <c r="A268" s="1" t="s">
-        <v>1030</v>
+        <v>1080</v>
       </c>
       <c r="B268" s="5">
         <v>2</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1" t="s">
-        <v>1031</v>
+        <v>1081</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1032</v>
+        <v>1082</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1033</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:6">
       <c r="A269" s="1" t="s">
-        <v>1034</v>
+        <v>1084</v>
       </c>
       <c r="B269" s="5">
         <v>2</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
-        <v>1035</v>
+        <v>1085</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1036</v>
+        <v>1086</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1037</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:6">
       <c r="A270" s="1" t="s">
-        <v>1038</v>
+        <v>1088</v>
       </c>
       <c r="B270" s="5">
         <v>2</v>
       </c>
       <c r="C270" s="1"/>
-      <c r="D270" s="7" t="s">
-        <v>1039</v>
+      <c r="D270" s="1" t="s">
+        <v>1089</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1040</v>
+        <v>1090</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1041</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>1042</v>
+        <v>1092</v>
       </c>
       <c r="B271" s="5">
         <v>2</v>
       </c>
       <c r="C271" s="1"/>
-      <c r="D271" s="7" t="s">
-        <v>1043</v>
+      <c r="D271" s="1" t="s">
+        <v>1093</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1044</v>
+        <v>1094</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1045</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="272" ht="18" customHeight="1" spans="1:6">
       <c r="A272" s="1" t="s">
-        <v>1046</v>
+        <v>1096</v>
       </c>
       <c r="B272" s="5">
         <v>2</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1" t="s">
-        <v>1047</v>
+        <v>1097</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1048</v>
+        <v>1098</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1049</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="B273" s="5">
         <v>2</v>
       </c>
       <c r="C273" s="1"/>
-      <c r="D273" s="7" t="s">
-        <v>1051</v>
+      <c r="D273" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1052</v>
+        <v>1102</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1053</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>1054</v>
+        <v>1104</v>
       </c>
       <c r="B274" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1" t="s">
-        <v>1055</v>
+        <v>1105</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1056</v>
+        <v>1106</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1057</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>1058</v>
+        <v>1108</v>
       </c>
       <c r="B275" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C275" s="1"/>
-      <c r="D275" s="7" t="s">
-        <v>1059</v>
+      <c r="D275" s="1" t="s">
+        <v>1109</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1060</v>
+        <v>1110</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1061</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>1062</v>
+        <v>1112</v>
       </c>
       <c r="B276" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1" t="s">
-        <v>1063</v>
+        <v>1113</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1064</v>
+        <v>1114</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1065</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="B277" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1" t="s">
-        <v>1067</v>
+        <v>1117</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1068</v>
+        <v>1118</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1069</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:6">
       <c r="A278" s="1" t="s">
-        <v>1070</v>
+        <v>1120</v>
       </c>
       <c r="B278" s="5">
-        <v>2</v>
-      </c>
-      <c r="C278" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1121</v>
+      </c>
       <c r="D278" s="1" t="s">
-        <v>1071</v>
+        <v>1122</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1072</v>
+        <v>1123</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1073</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:6">
       <c r="A279" s="1" t="s">
-        <v>1074</v>
+        <v>1125</v>
       </c>
       <c r="B279" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1" t="s">
-        <v>1075</v>
+        <v>1126</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1076</v>
+        <v>1127</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1077</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:6">
       <c r="A280" s="1" t="s">
-        <v>1078</v>
+        <v>1129</v>
       </c>
       <c r="B280" s="5">
-        <v>2</v>
-      </c>
-      <c r="C280" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1130</v>
+      </c>
       <c r="D280" s="1" t="s">
-        <v>1079</v>
+        <v>1131</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1080</v>
+        <v>1132</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1081</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>1082</v>
+        <v>1134</v>
       </c>
       <c r="B281" s="5">
-        <v>2</v>
-      </c>
-      <c r="C281" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1135</v>
+      </c>
       <c r="D281" s="1" t="s">
-        <v>1083</v>
+        <v>1136</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1084</v>
+        <v>1137</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1085</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="282" ht="18" customHeight="1" spans="1:6">
       <c r="A282" s="1" t="s">
-        <v>1086</v>
+        <v>1139</v>
       </c>
       <c r="B282" s="5">
-        <v>2</v>
-      </c>
-      <c r="C282" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1140</v>
+      </c>
       <c r="D282" s="1" t="s">
-        <v>1087</v>
+        <v>1141</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1088</v>
+        <v>1142</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1089</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="283" ht="18" customHeight="1" spans="1:6">
       <c r="A283" s="1" t="s">
-        <v>1090</v>
+        <v>1144</v>
       </c>
       <c r="B283" s="5">
-        <v>2</v>
-      </c>
-      <c r="C283" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1145</v>
+      </c>
       <c r="D283" s="1" t="s">
-        <v>1091</v>
+        <v>1146</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1092</v>
+        <v>1147</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1093</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="284" ht="18" customHeight="1" spans="1:6">
       <c r="A284" s="1" t="s">
-        <v>1094</v>
+        <v>1149</v>
       </c>
       <c r="B284" s="5">
         <v>3</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1095</v>
+        <v>1150</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1096</v>
+        <v>1151</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1097</v>
+        <v>1152</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1098</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="285" ht="18" customHeight="1" spans="1:6">
       <c r="A285" s="1" t="s">
-        <v>1099</v>
+        <v>1154</v>
       </c>
       <c r="B285" s="5">
         <v>3</v>
       </c>
-      <c r="C285" s="1"/>
+      <c r="C285" s="1" t="s">
+        <v>1155</v>
+      </c>
       <c r="D285" s="1" t="s">
-        <v>1100</v>
+        <v>1156</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1101</v>
+        <v>1157</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1102</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="286" ht="18" customHeight="1" spans="1:6">
       <c r="A286" s="1" t="s">
-        <v>1103</v>
+        <v>1159</v>
       </c>
       <c r="B286" s="5">
         <v>3</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1104</v>
+        <v>1160</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1105</v>
+        <v>1161</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1106</v>
+        <v>1162</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1107</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="287" ht="18" customHeight="1" spans="1:6">
       <c r="A287" s="1" t="s">
-        <v>1108</v>
+        <v>1164</v>
       </c>
       <c r="B287" s="5">
         <v>3</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1109</v>
+        <v>1165</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1110</v>
+        <v>1166</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1112</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="288" ht="18" customHeight="1" spans="1:6">
       <c r="A288" s="1" t="s">
-        <v>1113</v>
+        <v>1169</v>
       </c>
       <c r="B288" s="5">
         <v>3</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1114</v>
+        <v>1170</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1115</v>
+        <v>1171</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1116</v>
+        <v>1172</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1117</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:6">
       <c r="A289" s="1" t="s">
-        <v>1118</v>
+        <v>1174</v>
       </c>
       <c r="B289" s="5">
         <v>3</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1119</v>
+        <v>1175</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1120</v>
+        <v>767</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1121</v>
+        <v>1176</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1122</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:6">
       <c r="A290" s="1" t="s">
-        <v>1123</v>
+        <v>1178</v>
       </c>
       <c r="B290" s="5">
         <v>3</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1124</v>
+        <v>1179</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1125</v>
+        <v>1180</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1126</v>
+        <v>1181</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1127</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>1128</v>
+        <v>1183</v>
       </c>
       <c r="B291" s="5">
         <v>3</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1129</v>
+        <v>1184</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1130</v>
+        <v>1185</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1131</v>
+        <v>1186</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1132</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:6">
       <c r="A292" s="1" t="s">
-        <v>1133</v>
+        <v>1188</v>
       </c>
       <c r="B292" s="5">
         <v>3</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1134</v>
+        <v>1189</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1135</v>
+        <v>1190</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1136</v>
+        <v>1191</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1137</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:6">
       <c r="A293" s="1" t="s">
-        <v>1138</v>
+        <v>1193</v>
       </c>
       <c r="B293" s="5">
         <v>3</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>1139</v>
-      </c>
+      <c r="C293" s="1"/>
       <c r="D293" s="1" t="s">
-        <v>1140</v>
+        <v>1194</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1141</v>
+        <v>1195</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1142</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="294" ht="18" customHeight="1" spans="1:6">
       <c r="A294" s="1" t="s">
-        <v>1143</v>
+        <v>1197</v>
       </c>
       <c r="B294" s="5">
         <v>3</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>1144</v>
-      </c>
+      <c r="C294" s="1"/>
       <c r="D294" s="1" t="s">
-        <v>1145</v>
+        <v>1198</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1146</v>
+        <v>1199</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1147</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="295" ht="18" customHeight="1" spans="1:6">
       <c r="A295" s="1" t="s">
-        <v>1148</v>
+        <v>1201</v>
       </c>
       <c r="B295" s="5">
         <v>3</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1149</v>
+        <v>1202</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>762</v>
+        <v>1203</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1150</v>
+        <v>1204</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1151</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="296" ht="18" customHeight="1" spans="1:6">
       <c r="A296" s="1" t="s">
-        <v>1152</v>
+        <v>1206</v>
       </c>
       <c r="B296" s="5">
         <v>3</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1153</v>
+        <v>1207</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1154</v>
+        <v>1208</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1155</v>
+        <v>1209</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1156</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:6">
       <c r="A297" s="1" t="s">
-        <v>1157</v>
+        <v>1211</v>
       </c>
       <c r="B297" s="5">
         <v>3</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>1158</v>
-      </c>
+      <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
-        <v>1159</v>
+        <v>1212</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1160</v>
+        <v>1213</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1161</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:6">
       <c r="A298" s="1" t="s">
-        <v>1162</v>
+        <v>1215</v>
       </c>
       <c r="B298" s="5">
         <v>3</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>1163</v>
-      </c>
+      <c r="C298" s="1"/>
       <c r="D298" s="1" t="s">
-        <v>1164</v>
+        <v>1216</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1165</v>
+        <v>1217</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1166</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:6">
       <c r="A299" s="1" t="s">
-        <v>1167</v>
+        <v>1219</v>
       </c>
       <c r="B299" s="5">
         <v>3</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
-        <v>1168</v>
+        <v>1220</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1169</v>
+        <v>1221</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1170</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:6">
       <c r="A300" s="1" t="s">
-        <v>1171</v>
+        <v>1223</v>
       </c>
       <c r="B300" s="5">
         <v>3</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
-        <v>1172</v>
+        <v>1224</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1173</v>
+        <v>1225</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1174</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>1175</v>
+        <v>1227</v>
       </c>
       <c r="B301" s="5">
         <v>3</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>1176</v>
-      </c>
+      <c r="C301" s="1"/>
       <c r="D301" s="1" t="s">
-        <v>1177</v>
+        <v>1228</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1178</v>
+        <v>1229</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1179</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:6">
       <c r="A302" s="1" t="s">
-        <v>1180</v>
+        <v>1231</v>
       </c>
       <c r="B302" s="5">
         <v>3</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>1181</v>
-      </c>
+      <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
-        <v>1182</v>
+        <v>1232</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1183</v>
+        <v>1233</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1184</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:6">
       <c r="A303" s="1" t="s">
-        <v>1185</v>
+        <v>1235</v>
       </c>
       <c r="B303" s="5">
         <v>3</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>1186</v>
+        <v>1236</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1187</v>
+        <v>1237</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1188</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:6">
       <c r="A304" s="1" t="s">
-        <v>1189</v>
+        <v>1239</v>
       </c>
       <c r="B304" s="5">
         <v>3</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>1190</v>
+        <v>1240</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1191</v>
+        <v>1241</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1192</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:6">
       <c r="A305" s="1" t="s">
-        <v>1193</v>
+        <v>1243</v>
       </c>
       <c r="B305" s="5">
         <v>3</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>1194</v>
+        <v>1244</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1195</v>
+        <v>1245</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1196</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:6">
       <c r="A306" s="1" t="s">
-        <v>1197</v>
+        <v>1247</v>
       </c>
       <c r="B306" s="5">
         <v>3</v>
       </c>
       <c r="C306" s="1"/>
-      <c r="D306" s="1" t="s">
-        <v>1198</v>
+      <c r="D306" s="7" t="s">
+        <v>1248</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1199</v>
+        <v>1249</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:6">
       <c r="A307" s="1" t="s">
-        <v>1201</v>
+        <v>1251</v>
       </c>
       <c r="B307" s="5">
         <v>3</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
-        <v>1202</v>
+        <v>1252</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1203</v>
+        <v>1253</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1204</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:6">
       <c r="A308" s="1" t="s">
-        <v>1205</v>
+        <v>1255</v>
       </c>
       <c r="B308" s="5">
         <v>3</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
-        <v>1206</v>
+        <v>1256</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1207</v>
+        <v>1257</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1208</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="309" ht="18" customHeight="1" spans="1:6">
       <c r="A309" s="1" t="s">
-        <v>1209</v>
+        <v>1259</v>
       </c>
       <c r="B309" s="5">
         <v>3</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
-        <v>1210</v>
+        <v>1260</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1211</v>
+        <v>1261</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1212</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="310" ht="18" customHeight="1" spans="1:6">
       <c r="A310" s="1" t="s">
-        <v>1213</v>
+        <v>1263</v>
       </c>
       <c r="B310" s="5">
         <v>3</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>1214</v>
+        <v>1264</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1215</v>
+        <v>1265</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1216</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>1217</v>
+        <v>1267</v>
       </c>
       <c r="B311" s="5">
         <v>3</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>1218</v>
+        <v>1268</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1219</v>
+        <v>1269</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1220</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:6">
       <c r="A312" s="1" t="s">
-        <v>1221</v>
+        <v>1271</v>
       </c>
       <c r="B312" s="5">
         <v>3</v>
       </c>
       <c r="C312" s="1"/>
-      <c r="D312" s="7" t="s">
-        <v>1222</v>
+      <c r="D312" s="1" t="s">
+        <v>1272</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1223</v>
+        <v>1273</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1224</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:6">
       <c r="A313" s="1" t="s">
-        <v>1225</v>
+        <v>1275</v>
       </c>
       <c r="B313" s="5">
         <v>3</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1227</v>
+        <v>1277</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1228</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:6">
       <c r="A314" s="1" t="s">
-        <v>1229</v>
+        <v>1279</v>
       </c>
       <c r="B314" s="5">
         <v>3</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1" t="s">
-        <v>1230</v>
+        <v>1280</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1231</v>
+        <v>1281</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1232</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:6">
       <c r="A315" s="1" t="s">
-        <v>1233</v>
+        <v>1283</v>
       </c>
       <c r="B315" s="5">
         <v>3</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1" t="s">
-        <v>1234</v>
+        <v>1284</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1235</v>
+        <v>1285</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1236</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:6">
       <c r="A316" s="1" t="s">
-        <v>1237</v>
+        <v>1287</v>
       </c>
       <c r="B316" s="5">
         <v>3</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>1238</v>
+        <v>1288</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1239</v>
+        <v>1289</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1240</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:6">
       <c r="A317" s="1" t="s">
-        <v>1241</v>
+        <v>1291</v>
       </c>
       <c r="B317" s="5">
         <v>3</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>1242</v>
+        <v>1292</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1243</v>
+        <v>1293</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1244</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:6">
       <c r="A318" s="1" t="s">
-        <v>1245</v>
+        <v>1295</v>
       </c>
       <c r="B318" s="5">
         <v>3</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>1246</v>
+        <v>148</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1247</v>
+        <v>1296</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1248</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="319" ht="18" customHeight="1" spans="1:6">
       <c r="A319" s="1" t="s">
-        <v>1249</v>
+        <v>1298</v>
       </c>
       <c r="B319" s="5">
         <v>3</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>1250</v>
+        <v>1299</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1251</v>
+        <v>1300</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1252</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="320" ht="18" customHeight="1" spans="1:6">
       <c r="A320" s="1" t="s">
-        <v>1253</v>
+        <v>1302</v>
       </c>
       <c r="B320" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>1254</v>
+        <v>1303</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1255</v>
+        <v>1304</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1256</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>1257</v>
+        <v>1306</v>
       </c>
       <c r="B321" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>1258</v>
+        <v>1307</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1259</v>
+        <v>1308</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1260</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:6">
       <c r="A322" s="1" t="s">
-        <v>1261</v>
+        <v>1310</v>
       </c>
       <c r="B322" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>1262</v>
+        <v>1311</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1263</v>
+        <v>1312</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1264</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:6">
       <c r="A323" s="1" t="s">
-        <v>1265</v>
+        <v>1314</v>
       </c>
       <c r="B323" s="5">
-        <v>3</v>
-      </c>
-      <c r="C323" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1315</v>
+      </c>
       <c r="D323" s="1" t="s">
-        <v>1266</v>
+        <v>1316</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1267</v>
+        <v>1317</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1268</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:6">
       <c r="A324" s="1" t="s">
-        <v>1269</v>
+        <v>1319</v>
       </c>
       <c r="B324" s="5">
-        <v>3</v>
-      </c>
-      <c r="C324" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>1320</v>
+      </c>
       <c r="D324" s="1" t="s">
-        <v>148</v>
+        <v>1321</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1270</v>
+        <v>1322</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1271</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:6">
       <c r="A325" s="1" t="s">
-        <v>1272</v>
+        <v>1324</v>
       </c>
       <c r="B325" s="5">
-        <v>3</v>
-      </c>
-      <c r="C325" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1325</v>
+      </c>
       <c r="D325" s="1" t="s">
-        <v>1273</v>
+        <v>1326</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1274</v>
+        <v>1327</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1275</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:6">
       <c r="A326" s="1" t="s">
-        <v>1276</v>
+        <v>1329</v>
       </c>
       <c r="B326" s="5">
         <v>4</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1277</v>
+        <v>1330</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1278</v>
+        <v>1331</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1279</v>
+        <v>1332</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1280</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:6">
       <c r="A327" s="1" t="s">
-        <v>1281</v>
+        <v>1334</v>
       </c>
       <c r="B327" s="5">
         <v>4</v>
       </c>
-      <c r="C327" s="7" t="s">
-        <v>1282</v>
+      <c r="C327" s="1" t="s">
+        <v>1335</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1283</v>
+        <v>1336</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1284</v>
+        <v>1337</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1285</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:6">
       <c r="A328" s="1" t="s">
-        <v>1286</v>
+        <v>1339</v>
       </c>
       <c r="B328" s="5">
         <v>4</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1287</v>
+        <v>1340</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1288</v>
+        <v>1341</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1289</v>
+        <v>1342</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1290</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="329" ht="18" customHeight="1" spans="1:6">
       <c r="A329" s="1" t="s">
-        <v>1291</v>
+        <v>1344</v>
       </c>
       <c r="B329" s="5">
         <v>4</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1292</v>
+        <v>1345</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1293</v>
+        <v>1346</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1294</v>
+        <v>1347</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1295</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="330" ht="18" customHeight="1" spans="1:6">
       <c r="A330" s="1" t="s">
-        <v>1296</v>
+        <v>1349</v>
       </c>
       <c r="B330" s="5">
         <v>4</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1297</v>
+        <v>1350</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1298</v>
+        <v>1351</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1299</v>
+        <v>1352</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1300</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:6">
       <c r="A331" s="1" t="s">
-        <v>1301</v>
+        <v>1354</v>
       </c>
       <c r="B331" s="5">
         <v>4</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>1302</v>
-      </c>
+      <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>1303</v>
+        <v>1355</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1304</v>
+        <v>1356</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1305</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:6">
       <c r="A332" s="1" t="s">
-        <v>1306</v>
+        <v>1358</v>
       </c>
       <c r="B332" s="5">
         <v>4</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1307</v>
+        <v>1359</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1308</v>
+        <v>1360</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1309</v>
+        <v>1361</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1310</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:6">
       <c r="A333" s="1" t="s">
-        <v>1311</v>
+        <v>1363</v>
       </c>
       <c r="B333" s="5">
         <v>4</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1312</v>
+        <v>1364</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1313</v>
+        <v>1365</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1314</v>
+        <v>1366</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1315</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:6">
       <c r="A334" s="1" t="s">
-        <v>1316</v>
+        <v>1368</v>
       </c>
       <c r="B334" s="5">
         <v>4</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>1317</v>
+        <v>1369</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1318</v>
+        <v>1370</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1319</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:6">
       <c r="A335" s="1" t="s">
-        <v>1320</v>
+        <v>1372</v>
       </c>
       <c r="B335" s="5">
         <v>4</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>1321</v>
-      </c>
+      <c r="C335" s="1"/>
       <c r="D335" s="1" t="s">
-        <v>1322</v>
+        <v>1373</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1323</v>
+        <v>1374</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1324</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:6">
       <c r="A336" s="1" t="s">
-        <v>1325</v>
+        <v>1376</v>
       </c>
       <c r="B336" s="5">
         <v>4</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>1326</v>
-      </c>
+      <c r="C336" s="1"/>
       <c r="D336" s="1" t="s">
-        <v>1327</v>
+        <v>1377</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1329</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:6">
       <c r="A337" s="1" t="s">
-        <v>1330</v>
+        <v>1380</v>
       </c>
       <c r="B337" s="5">
         <v>4</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
-        <v>1331</v>
+        <v>1381</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1332</v>
+        <v>1382</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1333</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:6">
       <c r="A338" s="1" t="s">
-        <v>1334</v>
+        <v>1384</v>
       </c>
       <c r="B338" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
-        <v>1335</v>
+        <v>1385</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1336</v>
+        <v>1386</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1337</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="339" ht="18" customHeight="1" spans="1:6">
       <c r="A339" s="1" t="s">
-        <v>1338</v>
+        <v>1388</v>
       </c>
       <c r="B339" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1" t="s">
-        <v>1339</v>
+        <v>1389</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1340</v>
+        <v>1390</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1341</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="340" ht="18" customHeight="1" spans="1:6">
       <c r="A340" s="1" t="s">
-        <v>1342</v>
+        <v>1392</v>
       </c>
       <c r="B340" s="5">
-        <v>4</v>
-      </c>
-      <c r="C340" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>1393</v>
+      </c>
       <c r="D340" s="1" t="s">
-        <v>1343</v>
+        <v>1394</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1344</v>
+        <v>1395</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1345</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="341" ht="18" customHeight="1" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>1346</v>
+        <v>1397</v>
       </c>
       <c r="B341" s="5">
         <v>5</v>
       </c>
-      <c r="C341" s="8" t="s">
-        <v>1347</v>
+      <c r="C341" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1348</v>
+        <v>1399</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1349</v>
+        <v>1400</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1350</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:6">
       <c r="A342" s="1" t="s">
-        <v>1351</v>
+        <v>1402</v>
       </c>
       <c r="B342" s="5">
         <v>5</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>1352</v>
-      </c>
+      <c r="C342" s="1"/>
       <c r="D342" s="1" t="s">
-        <v>1353</v>
+        <v>184</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1354</v>
+        <v>1403</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1355</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:6">
       <c r="A343" s="1" t="s">
-        <v>1356</v>
+        <v>1405</v>
       </c>
       <c r="B343" s="5">
         <v>5</v>
       </c>
-      <c r="C343" s="1"/>
+      <c r="C343" s="1" t="s">
+        <v>1406</v>
+      </c>
       <c r="D343" s="1" t="s">
-        <v>184</v>
+        <v>1407</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1357</v>
+        <v>1408</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1358</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:6">
       <c r="A344" s="1" t="s">
-        <v>1359</v>
+        <v>1410</v>
       </c>
       <c r="B344" s="5">
         <v>5</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1360</v>
+        <v>1411</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1361</v>
+        <v>1412</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1362</v>
+        <v>1413</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1363</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:6">
       <c r="A345" s="1" t="s">
-        <v>1364</v>
+        <v>1415</v>
       </c>
       <c r="B345" s="5">
         <v>5</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>1365</v>
-      </c>
+      <c r="C345" s="1"/>
       <c r="D345" s="1" t="s">
-        <v>1366</v>
+        <v>1416</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1367</v>
+        <v>1417</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1368</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:6">
       <c r="A346" s="1" t="s">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="B346" s="5">
         <v>5</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1" t="s">
-        <v>1370</v>
+        <v>1420</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1371</v>
+        <v>1421</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1372</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:6">
       <c r="A347" s="1" t="s">
-        <v>1373</v>
+        <v>1423</v>
       </c>
       <c r="B347" s="5">
         <v>5</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1" t="s">
-        <v>1374</v>
+        <v>1424</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1375</v>
+        <v>1425</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1376</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:6">
       <c r="A348" s="1" t="s">
-        <v>1377</v>
+        <v>1427</v>
       </c>
       <c r="B348" s="5">
         <v>5</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1" t="s">
-        <v>1378</v>
+        <v>1428</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1379</v>
+        <v>1429</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1380</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:6">
       <c r="A349" s="1" t="s">
-        <v>1381</v>
+        <v>1431</v>
       </c>
       <c r="B349" s="5">
         <v>5</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1" t="s">
-        <v>1382</v>
+        <v>1432</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1383</v>
+        <v>1433</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1384</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:6">
       <c r="A350" s="1" t="s">
-        <v>1385</v>
+        <v>1435</v>
       </c>
       <c r="B350" s="5">
         <v>5</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1" t="s">
-        <v>1386</v>
+        <v>1436</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1387</v>
+        <v>1437</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1388</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>1389</v>
+        <v>1439</v>
       </c>
       <c r="B351" s="5">
         <v>5</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1" t="s">
-        <v>1390</v>
+        <v>1440</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1391</v>
+        <v>1441</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1392</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:6">
       <c r="A352" s="1" t="s">
-        <v>1393</v>
+        <v>1443</v>
       </c>
       <c r="B352" s="5">
         <v>5</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1" t="s">
-        <v>1394</v>
+        <v>1444</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1395</v>
+        <v>1445</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1396</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="353" ht="18" customHeight="1" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>1397</v>
+        <v>1447</v>
       </c>
       <c r="B353" s="5">
         <v>5</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1" t="s">
-        <v>1398</v>
+        <v>1448</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1399</v>
+        <v>1449</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1400</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="354" ht="18" customHeight="1" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>1401</v>
+        <v>1451</v>
       </c>
       <c r="B354" s="5">
         <v>5</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1" t="s">
-        <v>1402</v>
+        <v>1452</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1403</v>
+        <v>1453</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1404</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="355" ht="18" customHeight="1" spans="1:6">
       <c r="A355" s="1" t="s">
-        <v>1405</v>
+        <v>1455</v>
       </c>
       <c r="B355" s="5">
         <v>5</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1" t="s">
-        <v>1406</v>
+        <v>1456</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1407</v>
+        <v>1457</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1408</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="356" ht="18" customHeight="1" spans="1:6">
       <c r="A356" s="1" t="s">
-        <v>1409</v>
+        <v>1459</v>
       </c>
       <c r="B356" s="5">
         <v>5</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1" t="s">
-        <v>1410</v>
+        <v>1460</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1411</v>
+        <v>1461</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1412</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="357" ht="18" customHeight="1" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>1413</v>
+        <v>1463</v>
       </c>
       <c r="B357" s="5">
         <v>5</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1" t="s">
-        <v>1414</v>
+        <v>1464</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1415</v>
+        <v>1465</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1416</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="358" ht="18" customHeight="1" spans="1:6">
       <c r="A358" s="1" t="s">
-        <v>1417</v>
+        <v>1467</v>
       </c>
       <c r="B358" s="5">
         <v>5</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1" t="s">
-        <v>1418</v>
+        <v>1468</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1419</v>
+        <v>1469</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1420</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="359" ht="18" customHeight="1" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>1421</v>
+        <v>1471</v>
       </c>
       <c r="B359" s="5">
         <v>5</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1" t="s">
-        <v>1422</v>
+        <v>1472</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1423</v>
+        <v>1473</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1424</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="360" ht="18" customHeight="1" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>1425</v>
+        <v>1475</v>
       </c>
       <c r="B360" s="5">
         <v>5</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1" t="s">
-        <v>1426</v>
+        <v>68</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1427</v>
+        <v>1476</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1428</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="361" ht="18" customHeight="1" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>1429</v>
+        <v>1478</v>
       </c>
       <c r="B361" s="5">
-        <v>5</v>
-      </c>
-      <c r="C361" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1479</v>
+      </c>
       <c r="D361" s="1" t="s">
-        <v>68</v>
+        <v>1021</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1430</v>
+        <v>503</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1431</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="362" ht="18" customHeight="1" spans="1:6">
       <c r="A362" s="1" t="s">
-        <v>1432</v>
+        <v>1481</v>
       </c>
       <c r="B362" s="5">
         <v>6</v>
       </c>
-      <c r="C362" s="1" t="s">
-        <v>1433</v>
-      </c>
+      <c r="C362" s="1"/>
       <c r="D362" s="1" t="s">
-        <v>1011</v>
+        <v>1482</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>488</v>
+        <v>1483</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1434</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="363" ht="18" customHeight="1" spans="1:6">
       <c r="A363" s="1" t="s">
-        <v>1435</v>
+        <v>1485</v>
       </c>
       <c r="B363" s="5">
         <v>6</v>
       </c>
-      <c r="C363" s="1"/>
+      <c r="C363" s="1" t="s">
+        <v>1486</v>
+      </c>
       <c r="D363" s="1" t="s">
-        <v>1436</v>
+        <v>1487</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1437</v>
+        <v>1488</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1438</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="364" ht="18" customHeight="1" spans="1:6">
       <c r="A364" s="1" t="s">
-        <v>1439</v>
+        <v>1490</v>
       </c>
       <c r="B364" s="5">
         <v>6</v>
       </c>
-      <c r="C364" s="1" t="s">
-        <v>1440</v>
-      </c>
+      <c r="C364" s="1"/>
       <c r="D364" s="1" t="s">
-        <v>1441</v>
+        <v>1491</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1442</v>
+        <v>1492</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1443</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="365" ht="18" customHeight="1" spans="1:6">
       <c r="A365" s="1" t="s">
-        <v>1444</v>
+        <v>1494</v>
       </c>
       <c r="B365" s="5">
         <v>6</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1" t="s">
-        <v>1445</v>
+        <v>1495</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1446</v>
+        <v>1496</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1447</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="366" ht="18" customHeight="1" spans="1:6">
       <c r="A366" s="1" t="s">
-        <v>1448</v>
+        <v>1498</v>
       </c>
       <c r="B366" s="5">
         <v>6</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1" t="s">
-        <v>1449</v>
+        <v>1316</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1450</v>
+        <v>1499</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1451</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="367" ht="18" customHeight="1" spans="1:6">
       <c r="A367" s="1" t="s">
-        <v>1452</v>
+        <v>1501</v>
       </c>
       <c r="B367" s="5">
         <v>6</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1" t="s">
-        <v>1278</v>
+        <v>1502</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1453</v>
+        <v>1503</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1454</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="368" ht="18" customHeight="1" spans="1:6">
       <c r="A368" s="1" t="s">
-        <v>1455</v>
+        <v>1505</v>
       </c>
       <c r="B368" s="5">
         <v>6</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1" t="s">
-        <v>1456</v>
+        <v>1506</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1457</v>
+        <v>1507</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1458</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="369" ht="18" customHeight="1" spans="1:6">
       <c r="A369" s="1" t="s">
-        <v>1459</v>
+        <v>1509</v>
       </c>
       <c r="B369" s="5">
         <v>6</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1" t="s">
-        <v>1460</v>
+        <v>1510</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1461</v>
+        <v>1511</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1462</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="370" ht="18" customHeight="1" spans="1:6">
       <c r="A370" s="1" t="s">
-        <v>1463</v>
+        <v>1513</v>
       </c>
       <c r="B370" s="5">
         <v>6</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1" t="s">
-        <v>1464</v>
+        <v>1514</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1465</v>
+        <v>1515</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1466</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="371" ht="18" customHeight="1" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>1467</v>
+        <v>1517</v>
       </c>
       <c r="B371" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1" t="s">
-        <v>1468</v>
+        <v>1518</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1469</v>
+        <v>1519</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1470</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="372" ht="18" customHeight="1" spans="1:6">
       <c r="A372" s="1" t="s">
-        <v>1471</v>
+        <v>1521</v>
       </c>
       <c r="B372" s="5">
         <v>7</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1" t="s">
-        <v>1472</v>
+        <v>1522</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1473</v>
+        <v>1523</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1474</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="373" ht="18" customHeight="1" spans="1:6">
       <c r="A373" s="1" t="s">
-        <v>1475</v>
+        <v>1525</v>
       </c>
       <c r="B373" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1" t="s">
-        <v>1476</v>
+        <v>1526</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1477</v>
+        <v>1527</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1478</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="374" ht="18" customHeight="1" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1479</v>
+        <v>1529</v>
       </c>
       <c r="B374" s="5">
         <v>8</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1" t="s">
-        <v>1480</v>
+        <v>1530</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1481</v>
+        <v>1531</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1482</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="375" ht="18" customHeight="1" spans="1:6">
       <c r="A375" s="1" t="s">
-        <v>1483</v>
+        <v>1533</v>
       </c>
       <c r="B375" s="5">
         <v>8</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1" t="s">
-        <v>1484</v>
+        <v>888</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1485</v>
+        <v>1534</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1486</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="376" ht="18" customHeight="1" spans="1:6">
       <c r="A376" s="1" t="s">
-        <v>1487</v>
+        <v>1536</v>
       </c>
       <c r="B376" s="5">
         <v>8</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1" t="s">
-        <v>887</v>
+        <v>84</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1488</v>
+        <v>1537</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1489</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="377" ht="18" customHeight="1" spans="1:6">
       <c r="A377" s="1" t="s">
-        <v>1490</v>
+        <v>1539</v>
       </c>
       <c r="B377" s="5">
         <v>8</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1" t="s">
-        <v>84</v>
+        <v>1540</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1491</v>
+        <v>1541</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1492</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="378" ht="18" customHeight="1" spans="1:6">
       <c r="A378" s="1" t="s">
-        <v>1493</v>
+        <v>1543</v>
       </c>
       <c r="B378" s="5">
         <v>8</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1" t="s">
-        <v>1494</v>
+        <v>1544</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1495</v>
+        <v>1545</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1496</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="379" ht="18" customHeight="1" spans="1:6">
       <c r="A379" s="1" t="s">
-        <v>1497</v>
+        <v>1547</v>
       </c>
       <c r="B379" s="5">
         <v>8</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1" t="s">
-        <v>1498</v>
+        <v>1548</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1499</v>
+        <v>1549</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1500</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="380" ht="18" customHeight="1" spans="1:6">
       <c r="A380" s="1" t="s">
-        <v>1501</v>
+        <v>1551</v>
       </c>
       <c r="B380" s="5">
         <v>8</v>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1" t="s">
-        <v>1502</v>
+        <v>1552</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1503</v>
+        <v>1553</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1504</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="381" ht="18" customHeight="1" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>1505</v>
+        <v>1555</v>
       </c>
       <c r="B381" s="5">
         <v>8</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1" t="s">
-        <v>1506</v>
+        <v>1556</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1507</v>
+        <v>1557</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1508</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="382" ht="18" customHeight="1" spans="1:6">
       <c r="A382" s="1" t="s">
-        <v>1509</v>
+        <v>1559</v>
       </c>
       <c r="B382" s="5">
         <v>8</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1" t="s">
-        <v>1510</v>
+        <v>1560</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1511</v>
+        <v>1561</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1512</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="383" ht="18" customHeight="1" spans="1:6">
       <c r="A383" s="1" t="s">
-        <v>1513</v>
+        <v>1563</v>
       </c>
       <c r="B383" s="5">
         <v>8</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1" t="s">
-        <v>1514</v>
+        <v>1564</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1515</v>
+        <v>1565</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1516</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="384" ht="18" customHeight="1" spans="1:6">
       <c r="A384" s="1" t="s">
-        <v>1517</v>
+        <v>1567</v>
       </c>
       <c r="B384" s="5">
         <v>8</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1" t="s">
-        <v>1518</v>
+        <v>1568</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1520</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="385" ht="18" customHeight="1" spans="1:6">
       <c r="A385" s="1" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="B385" s="5">
         <v>8</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="386" ht="18" customHeight="1" spans="1:6">
       <c r="A386" s="1" t="s">
-        <v>1525</v>
+        <v>1575</v>
       </c>
       <c r="B386" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1" t="s">
-        <v>1526</v>
+        <v>1576</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1527</v>
+        <v>1577</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1528</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="387" ht="18" customHeight="1" spans="1:6">
       <c r="A387" s="1" t="s">
-        <v>1529</v>
+        <v>1579</v>
       </c>
       <c r="B387" s="5">
         <v>9</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1" t="s">
-        <v>1530</v>
+        <v>1580</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1531</v>
+        <v>1581</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1532</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="388" ht="18" customHeight="1" spans="1:6">
       <c r="A388" s="1" t="s">
-        <v>1533</v>
+        <v>1583</v>
       </c>
       <c r="B388" s="5">
         <v>9</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1" t="s">
-        <v>1534</v>
+        <v>1584</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1535</v>
+        <v>1585</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1536</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="389" ht="18" customHeight="1" spans="1:6">
       <c r="A389" s="1" t="s">
-        <v>1537</v>
+        <v>1587</v>
       </c>
       <c r="B389" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C389" s="1"/>
-      <c r="D389" s="1" t="s">
-        <v>1538</v>
-      </c>
+      <c r="D389" s="1"/>
       <c r="E389" s="1" t="s">
-        <v>1539</v>
+        <v>1588</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1540</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="390" ht="18" customHeight="1" spans="1:6">
       <c r="A390" s="1" t="s">
-        <v>1541</v>
+        <v>1590</v>
       </c>
       <c r="B390" s="5">
         <v>10</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1" t="s">
-        <v>1542</v>
+        <v>1591</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1543</v>
+        <v>1592</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1544</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="391" ht="18" customHeight="1" spans="1:6">
       <c r="A391" s="1" t="s">
-        <v>1545</v>
+        <v>1594</v>
       </c>
       <c r="B391" s="5">
         <v>10</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1" t="s">
-        <v>1546</v>
+        <v>1595</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1547</v>
+        <v>1596</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1548</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="392" ht="18" customHeight="1" spans="1:6">
       <c r="A392" s="1" t="s">
-        <v>1549</v>
+        <v>1598</v>
       </c>
       <c r="B392" s="5">
         <v>10</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1" t="s">
-        <v>1550</v>
+        <v>1599</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1551</v>
+        <v>1600</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1552</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="393" ht="18" customHeight="1" spans="1:6">
       <c r="A393" s="1" t="s">
-        <v>1553</v>
+        <v>1602</v>
       </c>
       <c r="B393" s="5">
         <v>10</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1" t="s">
-        <v>1554</v>
+        <v>1603</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1555</v>
+        <v>1604</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1556</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="394" ht="18" customHeight="1" spans="1:6">
       <c r="A394" s="1" t="s">
-        <v>1557</v>
+        <v>1606</v>
       </c>
       <c r="B394" s="5">
         <v>10</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1" t="s">
-        <v>1558</v>
+        <v>1607</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1559</v>
+        <v>1608</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1560</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="395" ht="18" customHeight="1" spans="1:6">
       <c r="A395" s="1" t="s">
-        <v>1561</v>
+        <v>1610</v>
       </c>
       <c r="B395" s="5">
         <v>10</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1" t="s">
-        <v>1562</v>
+        <v>1611</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1563</v>
+        <v>1612</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1564</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="396" ht="18" customHeight="1" spans="1:6">
       <c r="A396" s="1" t="s">
-        <v>1565</v>
+        <v>1614</v>
       </c>
       <c r="B396" s="5">
         <v>10</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1" t="s">
-        <v>1566</v>
+        <v>1615</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1567</v>
+        <v>1616</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1568</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="397" ht="18" customHeight="1" spans="1:6">
       <c r="A397" s="1" t="s">
-        <v>1569</v>
+        <v>1618</v>
       </c>
       <c r="B397" s="5">
         <v>10</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1" t="s">
-        <v>1570</v>
+        <v>1619</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1571</v>
+        <v>1620</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1572</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="398" ht="18" customHeight="1" spans="1:6">
       <c r="A398" s="1" t="s">
-        <v>1573</v>
+        <v>1622</v>
       </c>
       <c r="B398" s="5">
         <v>10</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1" t="s">
-        <v>1574</v>
+        <v>1623</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1575</v>
+        <v>1624</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1576</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="399" ht="18" customHeight="1" spans="1:6">
       <c r="A399" s="1" t="s">
-        <v>1577</v>
+        <v>1626</v>
       </c>
       <c r="B399" s="5">
         <v>10</v>
@@ -15270,15 +15525,15 @@
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1" t="s">
-        <v>1578</v>
+        <v>1627</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1579</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="400" ht="18" customHeight="1" spans="1:6">
       <c r="A400" s="1" t="s">
-        <v>1580</v>
+        <v>1629</v>
       </c>
       <c r="B400" s="5">
         <v>10</v>
@@ -15286,15 +15541,15 @@
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1" t="s">
-        <v>1581</v>
+        <v>1630</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1582</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="401" ht="18" customHeight="1" spans="1:6">
       <c r="A401" s="1" t="s">
-        <v>1583</v>
+        <v>1632</v>
       </c>
       <c r="B401" s="5">
         <v>10</v>
@@ -15302,69 +15557,69 @@
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1" t="s">
-        <v>1584</v>
+        <v>1633</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1585</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="402" ht="18" customHeight="1" spans="1:6">
       <c r="A402" s="1" t="s">
-        <v>1586</v>
+        <v>1635</v>
       </c>
       <c r="B402" s="5">
         <v>10</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1" t="s">
-        <v>1587</v>
+        <v>1636</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1588</v>
+        <v>1637</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1589</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="403" ht="18" customHeight="1" spans="1:6">
       <c r="A403" s="1" t="s">
-        <v>1590</v>
+        <v>1639</v>
       </c>
       <c r="B403" s="5">
         <v>10</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1" t="s">
-        <v>1591</v>
+        <v>1640</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1592</v>
+        <v>1641</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1593</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="404" ht="18" customHeight="1" spans="1:6">
       <c r="A404" s="1" t="s">
-        <v>1594</v>
+        <v>1643</v>
       </c>
       <c r="B404" s="5">
         <v>10</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1" t="s">
-        <v>1595</v>
+        <v>1644</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1596</v>
+        <v>1645</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1597</v>
+        <v>1646</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:F404">
-    <sortState ref="A2:F404">
+    <sortState ref="A3:F404">
       <sortCondition ref="B3"/>
     </sortState>
   </autoFilter>

--- a/英语词库/magoosh1000.xlsx
+++ b/英语词库/magoosh1000.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5'!$A$2:$G$409</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -95,6 +95,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">尖酸的acrid人看到别人有钱money, 就有 </t>
@@ -280,6 +281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿妈</t>
     </r>
     <r>
@@ -336,6 +343,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>am</t>
     </r>
     <r>
@@ -416,6 +428,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>可以应用apply到 &lt;r&gt;</t>
     </r>
     <r>
@@ -505,6 +522,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一a个不no会致死dy的 &lt;r&gt;</t>
     </r>
     <r>
@@ -604,6 +626,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应用app落lo入别的公司，我们要 &lt;r&gt;</t>
     </r>
     <r>
@@ -638,6 +665,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Apollo 跳gee 是这首歌的 &lt;r&gt;</t>
     </r>
     <r>
@@ -658,6 +690,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Apollo声明state自己要背叛 当&lt;r&gt;</t>
     </r>
     <r>
@@ -685,6 +722,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>阿波罗apo的这the哥g们m句句都是 &lt;r&gt;</t>
     </r>
     <r>
@@ -711,6 +753,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>apollo有个理论theo关于死si神s 是怎么被 &lt;r&gt;</t>
     </r>
     <r>
@@ -7040,8 +7087,7 @@
     <t>unprepossessing</t>
   </si>
   <si>
-    <t xml:space="preserve">possess#占有；持有；迷住&gt;prepossess#vt. 使先具有；预先灌输；使…先怀偏见&gt;prepossessing#adj. 给人好感的；有魅力的；引人注意的
-</t>
+    <t>possess#占有；持有；迷住&gt;prepossess#vt. 使先具有；预先灌输；使…先怀偏见&gt;prepossessing#adj. 给人好感的；有魅力的；引人注意的</t>
   </si>
   <si>
     <t>不讨人喜欢的</t>
@@ -7056,8 +7102,7 @@
     <t>unpropitious</t>
   </si>
   <si>
-    <t xml:space="preserve">propitious#adj. 适合的；吉利的；顺利的
-</t>
+    <t>propitious#adj. 适合的；吉利的；顺利的</t>
   </si>
   <si>
     <t>prope=near接近 itious 后缀：表形容词，-ition变化而来，表示“…的”</t>
@@ -7579,11 +7624,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7623,8 +7668,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7643,22 +7689,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -7683,8 +7713,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7698,50 +7774,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7760,6 +7805,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7800,84 +7851,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7896,7 +7869,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7914,73 +8019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7991,6 +8042,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8014,41 +8085,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8100,6 +8136,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8108,10 +8159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8120,133 +8171,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8643,9 +8694,9 @@
   <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
